--- a/cases.xlsx
+++ b/cases.xlsx
@@ -10,13 +10,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="sheet3" sheetId="4" r:id="rId3"/>
+    <sheet name="version-test" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="195">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -116,10 +117,6 @@
   </si>
   <si>
     <t>http://sv.ismartgo.cn:29090/appsv2/app/getUserInfo.do?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>f111ae38-3147-429a-944d-13200913aa4e</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -196,13 +193,6 @@
   </si>
   <si>
     <t>到店扫描</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、uid
-2、shopid
-3、authkey
-4、barcode</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -224,10 +214,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3oBGt9adroqNBreI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>每日签到</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -301,10 +287,6 @@
   </si>
   <si>
     <t>http://sv.ismartgo.cn:29090/appsv2/app/shopScanList.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3oBGt9adroqNBreI</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -446,10 +428,249 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>备注：签到经纬度、商店id从签到列表获取，数组id表示取列表的哪个门店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://svr2.ismartgo.cn:29094/retailsv/app/retails/searchNearRetails.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索零售商（关注页面）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、用户id
+2、城市id
+3、关键字
+4、经纬度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>39.921797</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>116.43244</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索礼品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://sv.ismartgo.cn:29090/appsv2/app/searchGift.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、用户id
+2、搜索关键字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>832776</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://appgamesv.ismartgo.cn/app/zbGames</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、uid
+2、城市名
+3、cityid
+4、经纬度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拍立赚活动列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上传小票 - 普通活动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://appgamesv.ismartgo.cn/app/zbGameMaterialUpload</t>
+  </si>
+  <si>
+    <t>上传小票 - 众包活动，领取活动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://appgamesv.ismartgo.cn/app/zbGameTaskAllot</t>
+  </si>
+  <si>
+    <t>1、uid
+2、cityid
+3、经纬度（与活动列表一致）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>礼品兑换 - 查询专区礼品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://sv.ismartgo.cn:29090/appsv2/app/subjectGiftList.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、用户id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>832776</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://sv.ismartgo.cn:29090/appsv2/app/categoryGiftList.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>832777</t>
+  </si>
+  <si>
+    <t>礼品兑换 - 查询品类礼品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5306070</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>礼品兑换 - 普通兑换</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://sv.ismartgo.cn:29090/appsv2/app/exchangeGift_v3.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>79</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13450244170</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广东</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天河区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1613</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五山</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10753</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乐天创意园</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2、微信id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、uuid
+2、uid
+3、authkey(与用户id对应)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、userid
+2、userkey（Mobile或UnionID，登录返回）
+3、authkey
+4、opdate(yyyy-MM-dd HH：mm：ss格式)
+5、页码
+6、类型（1-未使用，2-已使用）
+7、手机号码、密码（用户获取authkey)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6922255451427</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>礼品兑换 - 虚拟礼品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8241</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、用户id
+2、礼品id
+3、电话号码
+4、兑换数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8606</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f111ae38-3147-429a-944d-13200913aa4e</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16666666167</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>123456</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c111ae38-3147-429a-944d-13200913aa4e</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>52</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">
-1、用户id
-2、城市id（必须与签到列表同一个城市）
+1、手机号码
+2、登录密码
+3、设备号（一台设备一天只能签到一次
+4、城市id
 </t>
     </r>
     <r>
@@ -460,157 +681,103 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>3、数组id（签到列表第x个数据）</t>
+      <t>5、数组id（签到列表第x个数据）</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑 Light"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-4、authkey（与用户id一致）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注：签到经纬度、商店id从签到列表获取，数组id表示取列表的哪个门店</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://svr2.ismartgo.cn:29094/retailsv/app/retails/searchNearRetails.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>搜索零售商（关注页面）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13450244170</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、手机号
+2、登录密码
+3、商店id
+4、barcode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>76</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>113.368805</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23.152679</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>123456</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>119142</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16666666169</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>衣服</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3oBGt9adroqNBreI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13450244170</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优惠券列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>123456</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>110</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、手机号码
+2、登录密码
+3、零售商id
+4、状态(0,未使用 1,已使用 2,已失效 3已使用)
+5、类型(1.代金券 2.优惠券3.现金券)
+6、页码（从1开始）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的兑换列表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1、用户id
-2、城市id
-3、关键字
-4、经纬度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>39.921797</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>116.43244</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>搜索礼品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://sv.ismartgo.cn:29090/appsv2/app/searchGift.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、用户id
-2、搜索关键字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>832776</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>书</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://appgamesv.ismartgo.cn/app/zbGames</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>北京</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、uid
-2、城市名
-3、cityid
-4、经纬度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>拍立赚活动列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上传小票 - 普通活动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://appgamesv.ismartgo.cn/app/zbGameMaterialUpload</t>
-  </si>
-  <si>
-    <t>上传小票 - 众包活动，领取活动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://appgamesv.ismartgo.cn/app/zbGameTaskAllot</t>
-  </si>
-  <si>
-    <t>1、uid
-2、cityid
-3、经纬度（与活动列表一致）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>礼品兑换 - 查询专区礼品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://sv.ismartgo.cn:29090/appsv2/app/subjectGiftList.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、用户id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>832776</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://sv.ismartgo.cn:29090/appsv2/app/categoryGiftList.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>832777</t>
-  </si>
-  <si>
-    <t>礼品兑换 - 查询品类礼品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5306070</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>礼品兑换 - 普通兑换</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://sv.ismartgo.cn:29090/appsv2/app/exchangeGift_v3.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>79</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13450244170</t>
+2、礼品类型
+3、页码
+4、每页数量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -618,78 +785,77 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>广东</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>天河区</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1613</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>五山</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10753</t>
+    <t>30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>礼品兑换 -库存不足</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>广东广州天河区五山</t>
-  </si>
-  <si>
-    <t>乐天创意园</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2、微信id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、uuid
-2、uid
-3、authkey(与用户id对应)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、userid
-2、userkey（Mobile或UnionID，登录返回）
-3、authkey
-4、opdate(yyyy-MM-dd HH：mm：ss格式)
-5、页码
-6、类型（1-未使用，2-已使用）
-7、手机号码、密码（用户获取authkey)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>119142</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>283214</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dmYD4kgd7JcBiupm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6922255451427</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>礼品兑换 - 虚拟礼品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8241</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8232</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8614</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>8242</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8215</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8162</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>礼品兑换 -礼品已过期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>礼品兑换 -礼品未上线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>礼品兑换 - 支付金额不足</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -704,22 +870,25 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1、用户id
-2、礼品id
-3、电话号码
-4、兑换数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>礼品兑换 - 坤村不足</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、礼品id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8606</t>
+    <t>礼品兑换 -精明豆不足</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>礼品兑换 -礼品已暂停</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、礼品id
+2、用户id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5141179</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、礼品id
+2、用户id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -845,7 +1014,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -901,6 +1070,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1206,17 +1385,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T33"/>
+  <dimension ref="A1:T39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F30" sqref="F30"/>
+      <pane ySplit="2" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="7.125" style="11" customWidth="1"/>
-    <col min="2" max="2" width="12.125" style="11" customWidth="1"/>
+    <col min="2" max="2" width="18.875" style="11" customWidth="1"/>
     <col min="3" max="3" width="21.625" style="11" customWidth="1"/>
     <col min="4" max="4" width="24.625" style="11" customWidth="1"/>
     <col min="5" max="5" width="11.25" style="11" customWidth="1"/>
@@ -1239,7 +1418,7 @@
         <v>5</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E1" s="8"/>
       <c r="F1" s="8"/>
@@ -1321,7 +1500,7 @@
         <v>6</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E3" s="8">
         <v>832776</v>
@@ -1347,7 +1526,7 @@
         <v>16</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E4" s="8">
         <v>832776</v>
@@ -1369,13 +1548,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="12" t="s">
-        <v>29</v>
-      </c>
       <c r="D5" s="8" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E5" s="8">
         <v>832776</v>
@@ -1397,7 +1576,7 @@
         <v>8</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E6" s="8">
         <v>10600893</v>
@@ -1406,7 +1585,7 @@
         <v>15625431305</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="H6" s="8"/>
       <c r="I6" s="8"/>
@@ -1423,7 +1602,7 @@
         <v>15</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E7" s="8">
         <v>10600893</v>
@@ -1432,7 +1611,7 @@
         <v>13450244170</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
@@ -1449,7 +1628,7 @@
         <v>14</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E8" s="8">
         <v>15437366</v>
@@ -1471,7 +1650,7 @@
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="8" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="E9" s="8"/>
       <c r="F9" s="8" t="s">
@@ -1544,16 +1723,16 @@
         <v>22</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E13" s="8">
         <v>784</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>25</v>
+        <v>140</v>
       </c>
       <c r="G13" s="8"/>
       <c r="H13" s="9"/>
@@ -1565,17 +1744,17 @@
         <v>13</v>
       </c>
       <c r="B14" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="8" t="s">
         <v>31</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>32</v>
       </c>
       <c r="E14" s="8"/>
       <c r="F14" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G14" s="8">
         <v>784</v>
@@ -1589,13 +1768,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E15" s="8">
         <v>832776</v>
@@ -1611,19 +1790,19 @@
         <v>15</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E16" s="8">
         <v>832776</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G16" s="8">
         <v>113.36882</v>
@@ -1636,66 +1815,68 @@
       </c>
       <c r="J16" s="8"/>
     </row>
-    <row r="17" spans="1:19" ht="115.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:19" ht="132" x14ac:dyDescent="0.35">
       <c r="A17" s="8">
         <v>16</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="E17" s="8">
-        <v>832776</v>
-      </c>
-      <c r="F17" s="8">
-        <v>52</v>
-      </c>
-      <c r="G17" s="8">
-        <v>2</v>
+        <v>146</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>143</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>45</v>
+        <v>144</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="J17" s="8"/>
+        <v>145</v>
+      </c>
+      <c r="J17" s="8" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="18" spans="1:19" ht="99" x14ac:dyDescent="0.35">
       <c r="A18" s="8">
         <v>17</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="E18" s="8">
-        <v>832776</v>
-      </c>
-      <c r="F18" s="8">
-        <v>76</v>
-      </c>
-      <c r="G18" s="8">
-        <v>113.36880499999999</v>
-      </c>
-      <c r="H18" s="8">
-        <v>23.152678999999999</v>
-      </c>
-      <c r="I18" s="8">
-        <v>1</v>
+        <v>59</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="I18" s="8" t="s">
+        <v>151</v>
       </c>
       <c r="J18" s="8" t="s">
-        <v>62</v>
+        <v>152</v>
       </c>
     </row>
     <row r="19" spans="1:19" ht="66" x14ac:dyDescent="0.35">
@@ -1703,25 +1884,25 @@
         <v>18</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>43</v>
+        <v>148</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="G19" s="8" t="s">
-        <v>143</v>
+        <v>153</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>154</v>
       </c>
       <c r="H19" s="10" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
@@ -1731,22 +1912,22 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>36</v>
+        <v>156</v>
       </c>
       <c r="F20" s="2">
         <v>832776</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>37</v>
+        <v>157</v>
       </c>
       <c r="H20" s="8"/>
       <c r="I20" s="8"/>
@@ -1757,28 +1938,28 @@
         <v>20</v>
       </c>
       <c r="B21" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="F21" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="C21" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="E21" s="8" t="s">
+      <c r="G21" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="H21" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="I21" s="8" t="s">
         <v>79</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="G21" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="H21" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="I21" s="8" t="s">
-        <v>83</v>
       </c>
       <c r="J21" s="8"/>
     </row>
@@ -1787,13 +1968,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
@@ -1807,25 +1988,25 @@
         <v>22</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
@@ -1835,13 +2016,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
@@ -1855,19 +2036,19 @@
         <v>24</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="G25" s="8"/>
       <c r="H25" s="8"/>
@@ -1879,16 +2060,16 @@
         <v>25</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
@@ -1901,16 +2082,16 @@
         <v>26</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
@@ -1923,58 +2104,58 @@
         <v>27</v>
       </c>
       <c r="B28" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="H28" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="I28" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="C28" s="12" t="s">
+      <c r="J28" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="D28" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="E28" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="F28" s="8" t="s">
+      <c r="K28" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="G28" s="8" t="s">
+      <c r="L28" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="M28" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="N28" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="H28" s="8" t="s">
+      <c r="O28" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="I28" s="8" t="s">
+      <c r="P28" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="J28" s="8" t="s">
+      <c r="Q28" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="K28" s="11" t="s">
+      <c r="R28" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="S28" s="11" t="s">
         <v>131</v>
-      </c>
-      <c r="L28" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="M28" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="N28" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="O28" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="P28" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q28" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="R28" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="S28" s="11" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="29" spans="1:19" ht="66" x14ac:dyDescent="0.35">
@@ -1982,86 +2163,206 @@
         <v>28</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="C29" s="12" t="s">
-        <v>125</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="C29" s="12"/>
       <c r="D29" s="8" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="E29" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="G29" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="F29" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="G29" s="8" t="s">
-        <v>128</v>
-      </c>
       <c r="H29" s="8" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
     </row>
-    <row r="30" spans="1:19" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:19" ht="33" x14ac:dyDescent="0.35">
       <c r="A30" s="8">
         <v>29</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="C30" s="12" t="s">
-        <v>125</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="C30" s="12"/>
       <c r="D30" s="8" t="s">
-        <v>150</v>
+        <v>192</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="F30" s="8"/>
+        <v>139</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>193</v>
+      </c>
       <c r="G30" s="8"/>
       <c r="H30" s="8"/>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A31" s="8"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
+    <row r="31" spans="1:19" ht="33" x14ac:dyDescent="0.35">
+      <c r="A31" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="C31" s="12"/>
+      <c r="D31" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>173</v>
+      </c>
       <c r="G31" s="8"/>
       <c r="H31" s="8"/>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A32" s="8"/>
-      <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
+    <row r="32" spans="1:19" ht="33" x14ac:dyDescent="0.35">
+      <c r="A32" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="C32" s="12"/>
+      <c r="D32" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>175</v>
+      </c>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c r="H32" s="8"/>
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A33" s="8"/>
-      <c r="B33" s="8"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
+    <row r="33" spans="1:10" ht="33" x14ac:dyDescent="0.35">
+      <c r="A33" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="C33" s="12"/>
+      <c r="D33" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>184</v>
+      </c>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c r="H33" s="8"/>
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
+    </row>
+    <row r="34" spans="1:10" ht="33" x14ac:dyDescent="0.35">
+      <c r="A34" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="C34" s="12"/>
+      <c r="D34" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8"/>
+    </row>
+    <row r="35" spans="1:10" ht="33" x14ac:dyDescent="0.35">
+      <c r="A35" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="8"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A36" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="8"/>
+      <c r="J36" s="8"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A37" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="B37" s="8"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="8"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A38" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="8"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A39" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="B39" s="8"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="8"/>
+      <c r="J39" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2082,11 +2383,9 @@
     <hyperlink ref="C26" r:id="rId14"/>
     <hyperlink ref="C27" r:id="rId15"/>
     <hyperlink ref="C28" r:id="rId16"/>
-    <hyperlink ref="C29" r:id="rId17"/>
-    <hyperlink ref="C30" r:id="rId18"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId19"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId17"/>
 </worksheet>
 </file>
 
@@ -2122,7 +2421,7 @@
         <v>5</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E1" s="17"/>
       <c r="F1" s="17"/>
@@ -2168,22 +2467,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F3" s="2">
         <v>832776</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
@@ -2194,22 +2493,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F4" s="2">
         <v>784</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
@@ -2220,22 +2519,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H5" s="6">
         <v>43031.7421875</v>
@@ -2244,7 +2543,7 @@
         <v>1</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="99" x14ac:dyDescent="0.35">
@@ -2252,22 +2551,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>40</v>
-      </c>
       <c r="E6" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H6" s="6">
         <v>43032.7421875</v>
@@ -2284,13 +2583,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="E7" s="2">
         <v>832776</v>
@@ -2299,13 +2598,13 @@
         <v>52</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="J7" s="2"/>
     </row>
@@ -2455,7 +2754,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2481,7 +2780,7 @@
         <v>5</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E1" s="17"/>
       <c r="F1" s="17"/>
@@ -2527,19 +2826,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="E3" s="2">
         <v>832776</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="G3" s="3">
         <v>52</v>
@@ -2557,13 +2856,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="E4" s="2">
         <v>832776</v>
@@ -2581,13 +2880,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="E5" s="2">
         <v>832776</v>
@@ -2605,22 +2904,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>40</v>
-      </c>
       <c r="E6" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H6" s="6">
         <v>43032.7421875</v>
@@ -2637,13 +2936,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="E7" s="2">
         <v>832776</v>
@@ -2652,13 +2951,13 @@
         <v>52</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="J7" s="2"/>
     </row>
@@ -2799,4 +3098,349 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9" style="22"/>
+    <col min="2" max="2" width="13.25" style="22" customWidth="1"/>
+    <col min="3" max="3" width="26.875" style="22" customWidth="1"/>
+    <col min="4" max="4" width="28.625" style="22" customWidth="1"/>
+    <col min="5" max="5" width="15.25" style="22" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="22"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="21"/>
+    </row>
+    <row r="2" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="8">
+        <v>1</v>
+      </c>
+      <c r="C2" s="8">
+        <v>2</v>
+      </c>
+      <c r="D2" s="8">
+        <v>3</v>
+      </c>
+      <c r="E2" s="8">
+        <v>4</v>
+      </c>
+      <c r="F2" s="8">
+        <v>5</v>
+      </c>
+      <c r="G2" s="8">
+        <v>6</v>
+      </c>
+      <c r="H2" s="8">
+        <v>7</v>
+      </c>
+      <c r="I2" s="8">
+        <v>8</v>
+      </c>
+      <c r="J2" s="8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="115.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="66" x14ac:dyDescent="0.35">
+      <c r="A4" s="8">
+        <v>3</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+    </row>
+    <row r="5" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="8">
+        <v>4</v>
+      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+    </row>
+    <row r="6" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="8">
+        <v>5</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+    </row>
+    <row r="7" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="8">
+        <v>6</v>
+      </c>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+    </row>
+    <row r="8" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+    </row>
+    <row r="9" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="8">
+        <v>8</v>
+      </c>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+    </row>
+    <row r="10" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="8">
+        <v>9</v>
+      </c>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+    </row>
+    <row r="11" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="8">
+        <v>10</v>
+      </c>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+    </row>
+    <row r="12" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="8">
+        <v>11</v>
+      </c>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+    </row>
+    <row r="13" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="8">
+        <v>12</v>
+      </c>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+    </row>
+    <row r="14" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="8">
+        <v>13</v>
+      </c>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+    </row>
+    <row r="15" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="8">
+        <v>14</v>
+      </c>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+    </row>
+    <row r="16" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="8">
+        <v>15</v>
+      </c>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+    </row>
+    <row r="17" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="8">
+        <v>16</v>
+      </c>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+    </row>
+    <row r="18" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="8">
+        <v>17</v>
+      </c>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+    </row>
+    <row r="19" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="8">
+        <v>18</v>
+      </c>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D1:J1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/cases.xlsx
+++ b/cases.xlsx
@@ -10,14 +10,15 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="sheet3" sheetId="4" r:id="rId3"/>
-    <sheet name="version-test" sheetId="5" r:id="rId4"/>
+    <sheet name="Sheet4" sheetId="6" r:id="rId4"/>
+    <sheet name="version-test" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="122211" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="263">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -88,10 +89,6 @@
   </si>
   <si>
     <t>oNh_lshvS3y5NBHzEnXjI4R0XUHc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>aaaoNh_lshvS3y5NBHzEnXjI4R0XUHc</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -634,10 +631,6 @@
 2、礼品id
 3、电话号码
 4、兑换数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8606</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -737,10 +730,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>优惠券列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -749,20 +738,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>110</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、手机号码
-2、登录密码
-3、零售商id
-4、状态(0,未使用 1,已使用 2,已失效 3已使用)
-5、类型(1.代金券 2.优惠券3.现金券)
-6、页码（从1开始）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -889,6 +865,296 @@
   <si>
     <t>1、礼品id
 2、用户id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8606</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>礼品兑换 -用户等级不够</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5164462</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5172100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5172700</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16666666133</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16666666134</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16666666136</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16666666137</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5173904</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16666666138</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16666666139</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5174273</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5174368</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16666666140</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8124</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8149</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5174422</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16666666141</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16666666142</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16666666143</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5174651</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5174696</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>礼品兑换 -不在注册时间内</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>礼品兑换 -用户等级不够</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>39</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>礼品兑换 -我的兑换列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、用户id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://sv.ismartgo.cn:29090/appsv2/app/mygiftlist.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://sv.ismartgo.cn:29090/appsv2/app/giftdetail.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>礼品兑换 -我的兑换详情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6971607</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>我的优惠券列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://sv.ismartgo.cn/couponsv/appcoupon/getMyCoupon.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13450244170</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>123456</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、手机号码
+2、登录密码
+3、状态：1未使用，2已使用，3已失效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://192.168.1.243:29083/couponsv/appcoupon/mygiftcoupons.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1、uid
+2、coupon_type
+3、discount_value
+4、scene
+5、timestamp
+6、key
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>528</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、手机号码
+2、登录密码
+3、零售商id
+4、状态(0,所有 1,已使用 )
+5、类型(1.代金券 2.优惠券3.现金券)
+6、页码（从1开始）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>832776</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发放代金券（非客户端接口）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://192.168.1.243:29083/couponsv/appcoupon/getMyCoupon.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>礼品兑换 - 优惠券列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aaaoNh_lshvS3y5NBHzEnXjI4R0XUHc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、手机号码或者微信id
+2、登录密码
+3、状态：1未使用，2已使用，3已失效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优惠券详情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://192.168.1.243:29083/couponsv/appcoupon/getCouponDetailByCouponNum.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>http://120.25.206.97:29083/couponsv/appcoupon/sendActivityCoupon.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8607</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5195348</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1061,6 +1327,7 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1079,7 +1346,6 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1385,11 +1651,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T39"/>
+  <dimension ref="A1:T45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E33" sqref="E33"/>
+      <pane ySplit="2" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -1418,7 +1684,7 @@
         <v>5</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E1" s="8"/>
       <c r="F1" s="8"/>
@@ -1500,7 +1766,7 @@
         <v>6</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E3" s="8">
         <v>832776</v>
@@ -1526,7 +1792,7 @@
         <v>16</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E4" s="8">
         <v>832776</v>
@@ -1548,13 +1814,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="12" t="s">
-        <v>28</v>
-      </c>
       <c r="D5" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E5" s="8">
         <v>832776</v>
@@ -1576,7 +1842,7 @@
         <v>8</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E6" s="8">
         <v>10600893</v>
@@ -1585,7 +1851,7 @@
         <v>15625431305</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H6" s="8"/>
       <c r="I6" s="8"/>
@@ -1602,7 +1868,7 @@
         <v>15</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E7" s="8">
         <v>10600893</v>
@@ -1611,7 +1877,7 @@
         <v>13450244170</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
@@ -1628,13 +1894,13 @@
         <v>14</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E8" s="8">
         <v>15437366</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>18</v>
+        <v>253</v>
       </c>
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
@@ -1650,7 +1916,7 @@
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E9" s="8"/>
       <c r="F9" s="8" t="s">
@@ -1682,10 +1948,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
@@ -1700,13 +1966,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="8" t="s">
         <v>20</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>21</v>
       </c>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
@@ -1720,41 +1986,41 @@
         <v>12</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E13" s="8">
         <v>784</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G13" s="8"/>
       <c r="H13" s="9"/>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
     </row>
-    <row r="14" spans="1:20" ht="49.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:20" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A14" s="8">
         <v>13</v>
       </c>
       <c r="B14" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="8" t="s">
         <v>30</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>31</v>
       </c>
       <c r="E14" s="8"/>
       <c r="F14" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G14" s="8">
         <v>784</v>
@@ -1768,16 +2034,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="D15" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E15" s="8">
-        <v>832776</v>
+      <c r="E15" s="8" t="s">
+        <v>262</v>
       </c>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
@@ -1790,19 +2056,19 @@
         <v>15</v>
       </c>
       <c r="B16" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="D16" s="8" t="s">
         <v>54</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>55</v>
       </c>
       <c r="E16" s="8">
         <v>832776</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G16" s="8">
         <v>113.36882</v>
@@ -1820,31 +2086,31 @@
         <v>16</v>
       </c>
       <c r="B17" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="C17" s="12" t="s">
-        <v>47</v>
-      </c>
       <c r="D17" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E17" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="G17" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="F17" s="8" t="s">
+      <c r="H17" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="G17" s="8" t="s">
+      <c r="I17" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="H17" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="I17" s="8" t="s">
-        <v>145</v>
-      </c>
       <c r="J17" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:19" ht="99" x14ac:dyDescent="0.35">
@@ -1852,31 +2118,31 @@
         <v>17</v>
       </c>
       <c r="B18" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="D18" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="D18" s="8" t="s">
-        <v>59</v>
-      </c>
       <c r="E18" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="G18" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="F18" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="G18" s="8" t="s">
+      <c r="H18" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="I18" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="H18" s="8" t="s">
+      <c r="J18" s="8" t="s">
         <v>150</v>
-      </c>
-      <c r="I18" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="J18" s="8" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="19" spans="1:19" ht="66" x14ac:dyDescent="0.35">
@@ -1884,25 +2150,25 @@
         <v>18</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H19" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
@@ -1912,22 +2178,22 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F20" s="2">
         <v>832776</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="H20" s="8"/>
       <c r="I20" s="8"/>
@@ -1938,43 +2204,43 @@
         <v>20</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D21" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="H21" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="I21" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="E21" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="G21" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="H21" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="I21" s="8" t="s">
-        <v>79</v>
-      </c>
       <c r="J21" s="8"/>
     </row>
-    <row r="22" spans="1:19" ht="49.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:19" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A22" s="8">
         <v>21</v>
       </c>
       <c r="B22" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C22" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="C22" s="12" t="s">
-        <v>74</v>
-      </c>
       <c r="D22" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
@@ -1988,25 +2254,25 @@
         <v>22</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C23" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="E23" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="D23" s="8" t="s">
+      <c r="F23" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="H23" s="8" t="s">
         <v>84</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="F23" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="G23" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="H23" s="8" t="s">
-        <v>85</v>
       </c>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
@@ -2016,13 +2282,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C24" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="C24" s="12" t="s">
+      <c r="D24" s="8" t="s">
         <v>88</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>89</v>
       </c>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
@@ -2036,19 +2302,19 @@
         <v>24</v>
       </c>
       <c r="B25" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="C25" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="C25" s="12" t="s">
+      <c r="D25" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="D25" s="8" t="s">
+      <c r="E25" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="E25" s="8" t="s">
+      <c r="F25" s="8" t="s">
         <v>100</v>
-      </c>
-      <c r="F25" s="8" t="s">
-        <v>101</v>
       </c>
       <c r="G25" s="8"/>
       <c r="H25" s="8"/>
@@ -2060,16 +2326,16 @@
         <v>25</v>
       </c>
       <c r="B26" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="C26" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="C26" s="12" t="s">
+      <c r="D26" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="D26" s="8" t="s">
+      <c r="E26" s="8" t="s">
         <v>113</v>
-      </c>
-      <c r="E26" s="8" t="s">
-        <v>114</v>
       </c>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
@@ -2082,16 +2348,16 @@
         <v>26</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C27" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="E27" s="8" t="s">
         <v>115</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="E27" s="8" t="s">
-        <v>116</v>
       </c>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
@@ -2104,58 +2370,58 @@
         <v>27</v>
       </c>
       <c r="B28" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="C28" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="C28" s="12" t="s">
+      <c r="D28" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="F28" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="D28" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="E28" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="F28" s="8" t="s">
+      <c r="G28" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="G28" s="8" t="s">
+      <c r="H28" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="H28" s="8" t="s">
+      <c r="I28" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="I28" s="8" t="s">
+      <c r="J28" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="J28" s="8" t="s">
+      <c r="K28" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="K28" s="11" t="s">
+      <c r="L28" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M28" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="N28" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="L28" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="M28" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="N28" s="11" t="s">
+      <c r="O28" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="O28" s="11" t="s">
+      <c r="P28" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="P28" s="11" t="s">
+      <c r="Q28" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="Q28" s="11" t="s">
+      <c r="R28" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="S28" s="11" t="s">
         <v>130</v>
-      </c>
-      <c r="R28" s="11" t="s">
-        <v>172</v>
-      </c>
-      <c r="S28" s="11" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="29" spans="1:19" ht="66" x14ac:dyDescent="0.35">
@@ -2163,23 +2429,23 @@
         <v>28</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C29" s="12"/>
       <c r="D29" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H29" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
@@ -2189,180 +2455,330 @@
         <v>29</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C30" s="12"/>
       <c r="D30" s="8" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>139</v>
+        <v>190</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="G30" s="8"/>
+        <v>188</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>195</v>
+      </c>
       <c r="H30" s="8"/>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
     </row>
-    <row r="31" spans="1:19" ht="33" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:19" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A31" s="8" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="C31" s="12"/>
+        <v>183</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>119</v>
+      </c>
       <c r="D31" s="8" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>173</v>
+        <v>261</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>173</v>
+        <v>249</v>
       </c>
       <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
-      <c r="J31" s="8"/>
+      <c r="H31" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="I31" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="J31" s="8" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="32" spans="1:19" ht="33" x14ac:dyDescent="0.35">
       <c r="A32" s="8" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C32" s="12"/>
       <c r="D32" s="8" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
+        <v>170</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="G32" s="8" t="s">
+        <v>197</v>
+      </c>
       <c r="H32" s="8"/>
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
     </row>
     <row r="33" spans="1:10" ht="33" x14ac:dyDescent="0.35">
       <c r="A33" s="8" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C33" s="12"/>
       <c r="D33" s="8" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
+        <v>179</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="G33" s="8" t="s">
+        <v>198</v>
+      </c>
       <c r="H33" s="8"/>
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
     </row>
     <row r="34" spans="1:10" ht="33" x14ac:dyDescent="0.35">
       <c r="A34" s="8" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C34" s="12"/>
       <c r="D34" s="8" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
+        <v>178</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="G34" s="8" t="s">
+        <v>200</v>
+      </c>
       <c r="H34" s="8"/>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
     </row>
     <row r="35" spans="1:10" ht="33" x14ac:dyDescent="0.35">
       <c r="A35" s="8" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C35" s="8"/>
       <c r="D35" s="8" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
+        <v>180</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="G35" s="8" t="s">
+        <v>201</v>
+      </c>
       <c r="H35" s="8"/>
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:10" ht="33" x14ac:dyDescent="0.35">
       <c r="A36" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="B36" s="8"/>
+        <v>174</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>191</v>
+      </c>
       <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="8"/>
-      <c r="G36" s="8"/>
+      <c r="D36" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="G36" s="8" t="s">
+        <v>204</v>
+      </c>
       <c r="H36" s="8"/>
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:10" ht="33" x14ac:dyDescent="0.35">
       <c r="A37" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="B37" s="8"/>
+        <v>175</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>213</v>
+      </c>
       <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8"/>
+      <c r="D37" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="G37" s="8" t="s">
+        <v>208</v>
+      </c>
       <c r="H37" s="8"/>
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:10" ht="33" x14ac:dyDescent="0.35">
       <c r="A38" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="B38" s="8"/>
+        <v>176</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>214</v>
+      </c>
       <c r="C38" s="8"/>
-      <c r="D38" s="8"/>
+      <c r="D38" s="8" t="s">
+        <v>187</v>
+      </c>
       <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="8"/>
+      <c r="F38" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="G38" s="8" t="s">
+        <v>209</v>
+      </c>
       <c r="H38" s="8"/>
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:10" ht="33" x14ac:dyDescent="0.35">
       <c r="A39" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="B39" s="8"/>
+        <v>177</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>191</v>
+      </c>
       <c r="C39" s="8"/>
-      <c r="D39" s="8"/>
+      <c r="D39" s="8" t="s">
+        <v>187</v>
+      </c>
       <c r="E39" s="8"/>
-      <c r="F39" s="8"/>
-      <c r="G39" s="8"/>
+      <c r="F39" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="G39" s="8" t="s">
+        <v>210</v>
+      </c>
       <c r="H39" s="8"/>
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>
+    </row>
+    <row r="40" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A40" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="8"/>
+      <c r="J40" s="8"/>
+    </row>
+    <row r="41" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A41" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="C41" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
+      <c r="I41" s="8"/>
+      <c r="J41" s="8"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A42" s="8"/>
+      <c r="B42" s="8"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="8"/>
+      <c r="I42" s="8"/>
+      <c r="J42" s="8"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A43" s="8"/>
+      <c r="B43" s="8"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="8"/>
+      <c r="I43" s="8"/>
+      <c r="J43" s="8"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A44" s="8"/>
+      <c r="B44" s="8"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c r="H44" s="8"/>
+      <c r="I44" s="8"/>
+      <c r="J44" s="8"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A45" s="8"/>
+      <c r="B45" s="8"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c r="H45" s="8"/>
+      <c r="I45" s="8"/>
+      <c r="J45" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2383,9 +2799,12 @@
     <hyperlink ref="C26" r:id="rId14"/>
     <hyperlink ref="C27" r:id="rId15"/>
     <hyperlink ref="C28" r:id="rId16"/>
+    <hyperlink ref="C40" r:id="rId17"/>
+    <hyperlink ref="C41" r:id="rId18"/>
+    <hyperlink ref="C31" r:id="rId19"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId17"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId20"/>
 </worksheet>
 </file>
 
@@ -2394,7 +2813,7 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
@@ -2420,15 +2839,15 @@
       <c r="C1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="18"/>
+      <c r="D1" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="19"/>
     </row>
     <row r="2" spans="1:10" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
@@ -2467,22 +2886,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F3" s="2">
         <v>832776</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
@@ -2493,22 +2912,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F4" s="2">
         <v>784</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
@@ -2519,22 +2938,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H5" s="6">
         <v>43031.7421875</v>
@@ -2543,7 +2962,7 @@
         <v>1</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="99" x14ac:dyDescent="0.35">
@@ -2551,22 +2970,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="E6" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="F6" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H6" s="6">
         <v>43032.7421875</v>
@@ -2583,13 +3002,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>94</v>
       </c>
       <c r="E7" s="2">
         <v>832776</v>
@@ -2598,13 +3017,13 @@
         <v>52</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J7" s="2"/>
     </row>
@@ -2754,7 +3173,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2779,15 +3198,15 @@
       <c r="C1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="18"/>
+      <c r="D1" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="19"/>
     </row>
     <row r="2" spans="1:10" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
@@ -2826,19 +3245,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E3" s="2">
         <v>832776</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G3" s="3">
         <v>52</v>
@@ -2856,13 +3275,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>107</v>
-      </c>
       <c r="D4" s="13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E4" s="2">
         <v>832776</v>
@@ -2880,13 +3299,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="D5" s="13" t="s">
         <v>109</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>110</v>
       </c>
       <c r="E5" s="2">
         <v>832776</v>
@@ -2904,22 +3323,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D6" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="E6" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D6" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="F6" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H6" s="6">
         <v>43032.7421875</v>
@@ -2936,13 +3355,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>94</v>
       </c>
       <c r="E7" s="2">
         <v>832776</v>
@@ -2951,13 +3370,13 @@
         <v>52</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J7" s="2"/>
     </row>
@@ -3102,20 +3521,20 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9" style="22"/>
-    <col min="2" max="2" width="13.25" style="22" customWidth="1"/>
-    <col min="3" max="3" width="26.875" style="22" customWidth="1"/>
-    <col min="4" max="4" width="28.625" style="22" customWidth="1"/>
-    <col min="5" max="5" width="15.25" style="22" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="22"/>
+    <col min="1" max="1" width="9" style="16"/>
+    <col min="2" max="2" width="16.5" style="16" customWidth="1"/>
+    <col min="3" max="3" width="27" style="16" customWidth="1"/>
+    <col min="4" max="4" width="17.75" style="16" customWidth="1"/>
+    <col min="5" max="5" width="15.5" style="16" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
@@ -3128,15 +3547,15 @@
       <c r="C1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="21"/>
+      <c r="D1" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="22"/>
     </row>
     <row r="2" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
@@ -3151,8 +3570,8 @@
       <c r="D2" s="8">
         <v>3</v>
       </c>
-      <c r="E2" s="8">
-        <v>4</v>
+      <c r="E2" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="F2" s="8">
         <v>5</v>
@@ -3170,65 +3589,53 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="115.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" ht="66" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="C3" s="8"/>
+        <v>238</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>239</v>
+      </c>
       <c r="D3" s="8" t="s">
-        <v>164</v>
+        <v>254</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>158</v>
+        <v>17</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>161</v>
+        <v>242</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="66" x14ac:dyDescent="0.35">
-      <c r="A4" s="8">
-        <v>3</v>
+        <v>244</v>
+      </c>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+    </row>
+    <row r="4" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="8" t="s">
+        <v>257</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>169</v>
-      </c>
+        <v>255</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
     </row>
     <row r="5" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="8">
-        <v>4</v>
+      <c r="A5" s="8" t="s">
+        <v>223</v>
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
@@ -3241,8 +3648,8 @@
       <c r="J5" s="8"/>
     </row>
     <row r="6" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="8">
-        <v>5</v>
+      <c r="A6" s="8" t="s">
+        <v>224</v>
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
@@ -3255,8 +3662,8 @@
       <c r="J6" s="8"/>
     </row>
     <row r="7" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="8">
-        <v>6</v>
+      <c r="A7" s="8" t="s">
+        <v>225</v>
       </c>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
@@ -3269,8 +3676,8 @@
       <c r="J7" s="8"/>
     </row>
     <row r="8" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="8">
-        <v>7</v>
+      <c r="A8" s="8" t="s">
+        <v>226</v>
       </c>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
@@ -3283,8 +3690,8 @@
       <c r="J8" s="8"/>
     </row>
     <row r="9" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="8">
-        <v>8</v>
+      <c r="A9" s="8" t="s">
+        <v>227</v>
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
@@ -3297,8 +3704,8 @@
       <c r="J9" s="8"/>
     </row>
     <row r="10" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="8">
-        <v>9</v>
+      <c r="A10" s="8" t="s">
+        <v>228</v>
       </c>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
@@ -3311,8 +3718,8 @@
       <c r="J10" s="8"/>
     </row>
     <row r="11" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="8">
-        <v>10</v>
+      <c r="A11" s="8" t="s">
+        <v>229</v>
       </c>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
@@ -3325,8 +3732,8 @@
       <c r="J11" s="8"/>
     </row>
     <row r="12" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="8">
-        <v>11</v>
+      <c r="A12" s="8" t="s">
+        <v>230</v>
       </c>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
@@ -3339,8 +3746,8 @@
       <c r="J12" s="8"/>
     </row>
     <row r="13" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="8">
-        <v>12</v>
+      <c r="A13" s="8" t="s">
+        <v>231</v>
       </c>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
@@ -3353,8 +3760,8 @@
       <c r="J13" s="8"/>
     </row>
     <row r="14" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="8">
-        <v>13</v>
+      <c r="A14" s="8" t="s">
+        <v>232</v>
       </c>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
@@ -3367,8 +3774,8 @@
       <c r="J14" s="8"/>
     </row>
     <row r="15" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="8">
-        <v>14</v>
+      <c r="A15" s="8" t="s">
+        <v>233</v>
       </c>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
@@ -3381,8 +3788,8 @@
       <c r="J15" s="8"/>
     </row>
     <row r="16" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="8">
-        <v>15</v>
+      <c r="A16" s="8" t="s">
+        <v>234</v>
       </c>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
@@ -3395,8 +3802,8 @@
       <c r="J16" s="8"/>
     </row>
     <row r="17" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="8">
-        <v>16</v>
+      <c r="A17" s="8" t="s">
+        <v>235</v>
       </c>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
@@ -3409,8 +3816,8 @@
       <c r="J17" s="8"/>
     </row>
     <row r="18" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="8">
-        <v>17</v>
+      <c r="A18" s="8" t="s">
+        <v>236</v>
       </c>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
@@ -3423,8 +3830,8 @@
       <c r="J18" s="8"/>
     </row>
     <row r="19" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="8">
-        <v>18</v>
+      <c r="A19" s="8" t="s">
+        <v>237</v>
       </c>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
@@ -3436,11 +3843,432 @@
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
     </row>
+    <row r="20" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+    </row>
+    <row r="21" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+    </row>
+    <row r="22" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A22" s="8"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="D1:J1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C3" r:id="rId1"/>
+    <hyperlink ref="C4" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9" style="16"/>
+    <col min="2" max="2" width="13.25" style="16" customWidth="1"/>
+    <col min="3" max="3" width="26.875" style="16" customWidth="1"/>
+    <col min="4" max="4" width="28.625" style="16" customWidth="1"/>
+    <col min="5" max="5" width="15.25" style="16" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="16"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="22"/>
+    </row>
+    <row r="2" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="8">
+        <v>1</v>
+      </c>
+      <c r="C2" s="8">
+        <v>2</v>
+      </c>
+      <c r="D2" s="8">
+        <v>3</v>
+      </c>
+      <c r="E2" s="8">
+        <v>4</v>
+      </c>
+      <c r="F2" s="8">
+        <v>5</v>
+      </c>
+      <c r="G2" s="8">
+        <v>6</v>
+      </c>
+      <c r="H2" s="8">
+        <v>7</v>
+      </c>
+      <c r="I2" s="8">
+        <v>8</v>
+      </c>
+      <c r="J2" s="8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="99" x14ac:dyDescent="0.35">
+      <c r="A3" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="66" x14ac:dyDescent="0.35">
+      <c r="A4" s="8">
+        <v>3</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+    </row>
+    <row r="5" spans="1:10" ht="115.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="8">
+        <v>4</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+    </row>
+    <row r="6" spans="1:10" ht="49.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="8">
+        <v>5</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>251</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+    </row>
+    <row r="7" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="8">
+        <v>6</v>
+      </c>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+    </row>
+    <row r="8" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+    </row>
+    <row r="9" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="8">
+        <v>8</v>
+      </c>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+    </row>
+    <row r="10" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="8">
+        <v>9</v>
+      </c>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+    </row>
+    <row r="11" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="8">
+        <v>10</v>
+      </c>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+    </row>
+    <row r="12" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="8">
+        <v>11</v>
+      </c>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+    </row>
+    <row r="13" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="8">
+        <v>12</v>
+      </c>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+    </row>
+    <row r="14" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="8">
+        <v>13</v>
+      </c>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+    </row>
+    <row r="15" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="8">
+        <v>14</v>
+      </c>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+    </row>
+    <row r="16" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="8">
+        <v>15</v>
+      </c>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+    </row>
+    <row r="17" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="8">
+        <v>16</v>
+      </c>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+    </row>
+    <row r="18" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="8">
+        <v>17</v>
+      </c>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+    </row>
+    <row r="19" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="8">
+        <v>18</v>
+      </c>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D1:J1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C3" r:id="rId1"/>
+    <hyperlink ref="C5" r:id="rId2"/>
+    <hyperlink ref="C6" r:id="rId3"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
--- a/cases.xlsx
+++ b/cases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="280">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -85,10 +85,6 @@
   </si>
   <si>
     <t>http://sv.ismartgo.cn:29090/appsv2/app/getPositionCity.do?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>oNh_lshvS3y5NBHzEnXjI4R0XUHc</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1132,10 +1128,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://192.168.1.243:29083/couponsv/appcoupon/getCouponDetailByCouponNum.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1155,6 +1147,86 @@
   </si>
   <si>
     <t>5195348</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、手机号码或者微信id
+2、登录密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://sv.ismartgo.cn/couponsv/appcoupon/getCouponDetailByCouponNum.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oNh_lshvS3y5NBHzEnXjI4R0XUHc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oNh_lshvS3y5NBHzEnXjI4R0XUHc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11、用户id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>784</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广告 - 首页广告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://sv.ismartgo.cn:29090/appsv2/app/getAdsPhoto.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>41</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、用户id
+2、城市名称</t>
+  </si>
+  <si>
+    <t>1、用户id
+2、城市名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>832776</t>
+  </si>
+  <si>
+    <t>广告 - 拍立赚广告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、用户id
+2、城市名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>832776</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>42</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首页促销信息-您可能喜欢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://svr2.ismartgo.cn:29094/retailsv/app/retails/getHomePagePromotionsV36.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、用户id
+2、城市id
+3、经纬度</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1651,29 +1723,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T45"/>
+  <dimension ref="A1:T47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G16" sqref="G16"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="7.125" style="11" customWidth="1"/>
-    <col min="2" max="2" width="18.875" style="11" customWidth="1"/>
-    <col min="3" max="3" width="21.625" style="11" customWidth="1"/>
-    <col min="4" max="4" width="24.625" style="11" customWidth="1"/>
-    <col min="5" max="5" width="11.25" style="11" customWidth="1"/>
-    <col min="6" max="6" width="14.625" style="11" customWidth="1"/>
-    <col min="7" max="7" width="17.375" style="11" customWidth="1"/>
-    <col min="8" max="8" width="13.5" style="11" customWidth="1"/>
-    <col min="9" max="9" width="16.125" style="11" customWidth="1"/>
-    <col min="10" max="10" width="17.625" style="11" customWidth="1"/>
+    <col min="1" max="1" width="7.08984375" style="11" customWidth="1"/>
+    <col min="2" max="2" width="18.90625" style="11" customWidth="1"/>
+    <col min="3" max="3" width="21.6328125" style="11" customWidth="1"/>
+    <col min="4" max="4" width="24.6328125" style="11" customWidth="1"/>
+    <col min="5" max="5" width="11.26953125" style="11" customWidth="1"/>
+    <col min="6" max="6" width="14.6328125" style="11" customWidth="1"/>
+    <col min="7" max="7" width="17.36328125" style="11" customWidth="1"/>
+    <col min="8" max="8" width="13.453125" style="11" customWidth="1"/>
+    <col min="9" max="9" width="16.08984375" style="11" customWidth="1"/>
+    <col min="10" max="10" width="17.6328125" style="11" customWidth="1"/>
     <col min="11" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -1684,7 +1756,7 @@
         <v>5</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E1" s="8"/>
       <c r="F1" s="8"/>
@@ -1693,7 +1765,7 @@
       <c r="I1" s="8"/>
       <c r="J1" s="8"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:20" ht="29" x14ac:dyDescent="0.4">
       <c r="A2" s="8" t="s">
         <v>7</v>
       </c>
@@ -1755,7 +1827,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="49.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:20" ht="43.5" x14ac:dyDescent="0.4">
       <c r="A3" s="8">
         <v>2</v>
       </c>
@@ -1766,7 +1838,7 @@
         <v>6</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E3" s="8">
         <v>832776</v>
@@ -1781,7 +1853,7 @@
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
     </row>
-    <row r="4" spans="1:20" ht="66" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:20" ht="58" x14ac:dyDescent="0.4">
       <c r="A4" s="8">
         <v>3</v>
       </c>
@@ -1792,7 +1864,7 @@
         <v>16</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E4" s="8">
         <v>832776</v>
@@ -1809,18 +1881,18 @@
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
     </row>
-    <row r="5" spans="1:20" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:20" ht="43.5" x14ac:dyDescent="0.4">
       <c r="A5" s="8">
         <v>4</v>
       </c>
       <c r="B5" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="12" t="s">
-        <v>27</v>
-      </c>
       <c r="D5" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E5" s="8">
         <v>832776</v>
@@ -1831,7 +1903,7 @@
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
     </row>
-    <row r="6" spans="1:20" ht="49.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:20" ht="43.5" x14ac:dyDescent="0.4">
       <c r="A6" s="8">
         <v>5</v>
       </c>
@@ -1842,7 +1914,7 @@
         <v>8</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E6" s="8">
         <v>10600893</v>
@@ -1851,13 +1923,13 @@
         <v>15625431305</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H6" s="8"/>
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
     </row>
-    <row r="7" spans="1:20" ht="49.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:20" ht="43.5" x14ac:dyDescent="0.4">
       <c r="A7" s="8">
         <v>6</v>
       </c>
@@ -1868,7 +1940,7 @@
         <v>15</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E7" s="8">
         <v>10600893</v>
@@ -1877,13 +1949,13 @@
         <v>13450244170</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
     </row>
-    <row r="8" spans="1:20" ht="33" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:20" ht="43.5" x14ac:dyDescent="0.4">
       <c r="A8" s="8">
         <v>7</v>
       </c>
@@ -1894,20 +1966,20 @@
         <v>14</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E8" s="8">
         <v>15437366</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
     </row>
-    <row r="9" spans="1:20" ht="33" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:20" ht="29" x14ac:dyDescent="0.4">
       <c r="A9" s="8">
         <v>8</v>
       </c>
@@ -1916,18 +1988,18 @@
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E9" s="8"/>
       <c r="F9" s="8" t="s">
-        <v>17</v>
+        <v>263</v>
       </c>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A10" s="8">
         <v>9</v>
       </c>
@@ -1943,36 +2015,40 @@
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
     </row>
-    <row r="11" spans="1:20" ht="33" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:20" ht="43.5" x14ac:dyDescent="0.4">
       <c r="A11" s="8">
         <v>10</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
+        <v>22</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>266</v>
+      </c>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
     </row>
-    <row r="12" spans="1:20" ht="49.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:20" ht="43.5" x14ac:dyDescent="0.4">
       <c r="A12" s="8">
         <v>11</v>
       </c>
       <c r="B12" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="8" t="s">
         <v>19</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>20</v>
       </c>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
@@ -1981,46 +2057,46 @@
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
     </row>
-    <row r="13" spans="1:20" ht="49.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:20" ht="43.5" x14ac:dyDescent="0.4">
       <c r="A13" s="8">
         <v>12</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E13" s="8">
         <v>784</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G13" s="8"/>
       <c r="H13" s="9"/>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
     </row>
-    <row r="14" spans="1:20" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:20" ht="43.5" x14ac:dyDescent="0.4">
       <c r="A14" s="8">
         <v>13</v>
       </c>
       <c r="B14" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="8" t="s">
         <v>29</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>30</v>
       </c>
       <c r="E14" s="8"/>
       <c r="F14" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G14" s="8">
         <v>784</v>
@@ -2029,21 +2105,21 @@
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
     </row>
-    <row r="15" spans="1:20" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:20" ht="43.5" x14ac:dyDescent="0.4">
       <c r="A15" s="8">
         <v>14</v>
       </c>
       <c r="B15" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="D15" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="D15" s="8" t="s">
-        <v>44</v>
-      </c>
       <c r="E15" s="8" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
@@ -2051,24 +2127,24 @@
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
     </row>
-    <row r="16" spans="1:20" ht="82.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:20" ht="72.5" x14ac:dyDescent="0.4">
       <c r="A16" s="8">
         <v>15</v>
       </c>
       <c r="B16" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="D16" s="8" t="s">
         <v>53</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>54</v>
       </c>
       <c r="E16" s="8">
         <v>832776</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G16" s="8">
         <v>113.36882</v>
@@ -2081,166 +2157,166 @@
       </c>
       <c r="J16" s="8"/>
     </row>
-    <row r="17" spans="1:19" ht="132" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:19" ht="116" x14ac:dyDescent="0.4">
       <c r="A17" s="8">
         <v>16</v>
       </c>
       <c r="B17" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="C17" s="12" t="s">
-        <v>46</v>
-      </c>
       <c r="D17" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E17" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="F17" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="F17" s="8" t="s">
+      <c r="G17" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="G17" s="8" t="s">
+      <c r="H17" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="H17" s="8" t="s">
+      <c r="I17" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="I17" s="8" t="s">
-        <v>143</v>
-      </c>
       <c r="J17" s="8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" ht="99" x14ac:dyDescent="0.35">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" ht="87" x14ac:dyDescent="0.4">
       <c r="A18" s="8">
         <v>17</v>
       </c>
       <c r="B18" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="D18" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="D18" s="8" t="s">
-        <v>58</v>
-      </c>
       <c r="E18" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G18" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="H18" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="H18" s="8" t="s">
+      <c r="I18" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="I18" s="8" t="s">
+      <c r="J18" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="J18" s="8" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" ht="66" x14ac:dyDescent="0.35">
+    </row>
+    <row r="19" spans="1:19" ht="58" x14ac:dyDescent="0.4">
       <c r="A19" s="8">
         <v>18</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F19" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="G19" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="G19" s="10" t="s">
-        <v>152</v>
-      </c>
       <c r="H19" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
     </row>
-    <row r="20" spans="1:19" ht="49.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:19" ht="43.5" x14ac:dyDescent="0.4">
       <c r="A20" s="8">
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F20" s="2">
         <v>832776</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H20" s="8"/>
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
     </row>
-    <row r="21" spans="1:19" ht="66" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:19" ht="58" x14ac:dyDescent="0.4">
       <c r="A21" s="8">
         <v>20</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D21" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="H21" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="I21" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="E21" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="G21" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="H21" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="I21" s="8" t="s">
-        <v>78</v>
-      </c>
       <c r="J21" s="8"/>
     </row>
-    <row r="22" spans="1:19" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:19" ht="43.5" x14ac:dyDescent="0.4">
       <c r="A22" s="8">
         <v>21</v>
       </c>
       <c r="B22" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C22" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="C22" s="12" t="s">
-        <v>73</v>
-      </c>
       <c r="D22" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
@@ -2249,46 +2325,46 @@
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
     </row>
-    <row r="23" spans="1:19" ht="66" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:19" ht="72.5" x14ac:dyDescent="0.4">
       <c r="A23" s="8">
         <v>22</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C23" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="E23" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="D23" s="8" t="s">
+      <c r="F23" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="H23" s="8" t="s">
         <v>83</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="F23" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="G23" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="H23" s="8" t="s">
-        <v>84</v>
       </c>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
     </row>
-    <row r="24" spans="1:19" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:19" ht="43.5" x14ac:dyDescent="0.4">
       <c r="A24" s="8">
         <v>23</v>
       </c>
       <c r="B24" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C24" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="C24" s="12" t="s">
+      <c r="D24" s="8" t="s">
         <v>87</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>88</v>
       </c>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
@@ -2297,45 +2373,45 @@
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
     </row>
-    <row r="25" spans="1:19" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:19" ht="43.5" x14ac:dyDescent="0.4">
       <c r="A25" s="8">
         <v>24</v>
       </c>
       <c r="B25" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C25" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="C25" s="12" t="s">
+      <c r="D25" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="D25" s="8" t="s">
+      <c r="E25" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="E25" s="8" t="s">
+      <c r="F25" s="8" t="s">
         <v>99</v>
-      </c>
-      <c r="F25" s="8" t="s">
-        <v>100</v>
       </c>
       <c r="G25" s="8"/>
       <c r="H25" s="8"/>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
     </row>
-    <row r="26" spans="1:19" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:19" ht="43.5" x14ac:dyDescent="0.4">
       <c r="A26" s="8">
         <v>25</v>
       </c>
       <c r="B26" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="C26" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="C26" s="12" t="s">
+      <c r="D26" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="D26" s="8" t="s">
+      <c r="E26" s="8" t="s">
         <v>112</v>
-      </c>
-      <c r="E26" s="8" t="s">
-        <v>113</v>
       </c>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
@@ -2343,21 +2419,21 @@
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
     </row>
-    <row r="27" spans="1:19" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:19" ht="43.5" x14ac:dyDescent="0.4">
       <c r="A27" s="8">
         <v>26</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C27" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="E27" s="8" t="s">
         <v>114</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="E27" s="8" t="s">
-        <v>115</v>
       </c>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
@@ -2365,348 +2441,348 @@
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
     </row>
-    <row r="28" spans="1:19" ht="165" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:19" ht="159.5" x14ac:dyDescent="0.4">
       <c r="A28" s="8">
         <v>27</v>
       </c>
       <c r="B28" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="C28" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="C28" s="12" t="s">
+      <c r="D28" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="F28" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="D28" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="E28" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="F28" s="8" t="s">
+      <c r="G28" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="G28" s="8" t="s">
+      <c r="H28" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="H28" s="8" t="s">
+      <c r="I28" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="I28" s="8" t="s">
+      <c r="J28" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="J28" s="8" t="s">
+      <c r="K28" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="K28" s="11" t="s">
+      <c r="L28" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="M28" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="N28" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="L28" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="M28" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="N28" s="11" t="s">
+      <c r="O28" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="O28" s="11" t="s">
+      <c r="P28" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="P28" s="11" t="s">
+      <c r="Q28" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="Q28" s="11" t="s">
+      <c r="R28" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="S28" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="R28" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="S28" s="11" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" ht="66" x14ac:dyDescent="0.35">
+    </row>
+    <row r="29" spans="1:19" ht="58" x14ac:dyDescent="0.4">
       <c r="A29" s="8">
         <v>28</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C29" s="12"/>
       <c r="D29" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H29" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
     </row>
-    <row r="30" spans="1:19" ht="33" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:19" ht="29" x14ac:dyDescent="0.4">
       <c r="A30" s="8">
         <v>29</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C30" s="12"/>
       <c r="D30" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="F30" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="E30" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="F30" s="8" t="s">
-        <v>188</v>
-      </c>
       <c r="G30" s="8" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H30" s="8"/>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
     </row>
-    <row r="31" spans="1:19" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:19" ht="43.5" x14ac:dyDescent="0.4">
       <c r="A31" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G31" s="8"/>
       <c r="H31" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="I31" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="J31" s="8" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" ht="29" x14ac:dyDescent="0.4">
+      <c r="A32" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="I31" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="J31" s="8" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19" ht="33" x14ac:dyDescent="0.35">
-      <c r="A32" s="8" t="s">
-        <v>169</v>
-      </c>
       <c r="B32" s="8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C32" s="12"/>
       <c r="D32" s="8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G32" s="8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H32" s="8"/>
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
     </row>
-    <row r="33" spans="1:10" ht="33" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:10" ht="29" x14ac:dyDescent="0.4">
       <c r="A33" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C33" s="12"/>
       <c r="D33" s="8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G33" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H33" s="8"/>
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
     </row>
-    <row r="34" spans="1:10" ht="33" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:10" ht="29" x14ac:dyDescent="0.4">
       <c r="A34" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C34" s="12"/>
       <c r="D34" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F34" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="G34" s="8" t="s">
         <v>199</v>
-      </c>
-      <c r="G34" s="8" t="s">
-        <v>200</v>
       </c>
       <c r="H34" s="8"/>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
     </row>
-    <row r="35" spans="1:10" ht="33" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:10" ht="29" x14ac:dyDescent="0.4">
       <c r="A35" s="8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C35" s="8"/>
       <c r="D35" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G35" s="8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H35" s="8"/>
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
     </row>
-    <row r="36" spans="1:10" ht="33" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:10" ht="29" x14ac:dyDescent="0.4">
       <c r="A36" s="8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C36" s="8"/>
       <c r="D36" s="8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F36" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="G36" s="8" t="s">
         <v>203</v>
-      </c>
-      <c r="G36" s="8" t="s">
-        <v>204</v>
       </c>
       <c r="H36" s="8"/>
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
     </row>
-    <row r="37" spans="1:10" ht="33" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:10" ht="29" x14ac:dyDescent="0.4">
       <c r="A37" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C37" s="8"/>
       <c r="D37" s="8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E37" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="F37" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="F37" s="8" t="s">
+      <c r="G37" s="8" t="s">
         <v>207</v>
-      </c>
-      <c r="G37" s="8" t="s">
-        <v>208</v>
       </c>
       <c r="H37" s="8"/>
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
     </row>
-    <row r="38" spans="1:10" ht="33" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:10" ht="29" x14ac:dyDescent="0.4">
       <c r="A38" s="8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C38" s="8"/>
       <c r="D38" s="8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E38" s="8"/>
       <c r="F38" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G38" s="8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H38" s="8"/>
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
     </row>
-    <row r="39" spans="1:10" ht="33" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:10" ht="29" x14ac:dyDescent="0.4">
       <c r="A39" s="8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C39" s="8"/>
       <c r="D39" s="8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E39" s="8"/>
       <c r="F39" s="8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G39" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H39" s="8"/>
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>
     </row>
-    <row r="40" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:10" ht="43.5" x14ac:dyDescent="0.4">
       <c r="A40" s="8" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B40" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="D40" s="8" t="s">
         <v>217</v>
       </c>
-      <c r="C40" s="12" t="s">
-        <v>219</v>
-      </c>
-      <c r="D40" s="8" t="s">
-        <v>218</v>
-      </c>
       <c r="E40" s="8" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
@@ -2714,15 +2790,15 @@
       <c r="I40" s="8"/>
       <c r="J40" s="8"/>
     </row>
-    <row r="41" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:10" ht="43.5" x14ac:dyDescent="0.4">
       <c r="A41" s="8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2732,53 +2808,109 @@
       <c r="I41" s="8"/>
       <c r="J41" s="8"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A42" s="8"/>
-      <c r="B42" s="8"/>
-      <c r="C42" s="8"/>
-      <c r="D42" s="8"/>
-      <c r="E42" s="8"/>
-      <c r="F42" s="8"/>
+    <row r="42" spans="1:10" ht="43.5" x14ac:dyDescent="0.4">
+      <c r="A42" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="C42" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="F42" s="8" t="s">
+        <v>101</v>
+      </c>
       <c r="G42" s="8"/>
       <c r="H42" s="8"/>
       <c r="I42" s="8"/>
       <c r="J42" s="8"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A43" s="8"/>
-      <c r="B43" s="8"/>
+    <row r="43" spans="1:10" ht="29" x14ac:dyDescent="0.4">
+      <c r="A43" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>273</v>
+      </c>
       <c r="C43" s="8"/>
-      <c r="D43" s="8"/>
-      <c r="E43" s="8"/>
-      <c r="F43" s="8"/>
+      <c r="D43" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="F43" s="8" t="s">
+        <v>101</v>
+      </c>
       <c r="G43" s="8"/>
       <c r="H43" s="8"/>
       <c r="I43" s="8"/>
       <c r="J43" s="8"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:10" ht="29" x14ac:dyDescent="0.4">
       <c r="A44" s="8"/>
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
-      <c r="D44" s="8"/>
-      <c r="E44" s="8"/>
-      <c r="F44" s="8"/>
+      <c r="D44" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="F44" s="8" t="s">
+        <v>101</v>
+      </c>
       <c r="G44" s="8"/>
       <c r="H44" s="8"/>
       <c r="I44" s="8"/>
       <c r="J44" s="8"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:10" ht="29" x14ac:dyDescent="0.4">
       <c r="A45" s="8"/>
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
-      <c r="D45" s="8"/>
-      <c r="E45" s="8"/>
-      <c r="F45" s="8"/>
+      <c r="D45" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="F45" s="8" t="s">
+        <v>101</v>
+      </c>
       <c r="G45" s="8"/>
       <c r="H45" s="8"/>
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
+    </row>
+    <row r="46" spans="1:10" ht="29" x14ac:dyDescent="0.4">
+      <c r="D46" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="E46" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="F46" s="8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="29" x14ac:dyDescent="0.4">
+      <c r="D47" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="E47" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="F47" s="8" t="s">
+        <v>101</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2802,9 +2934,10 @@
     <hyperlink ref="C40" r:id="rId17"/>
     <hyperlink ref="C41" r:id="rId18"/>
     <hyperlink ref="C31" r:id="rId19"/>
+    <hyperlink ref="C42" r:id="rId20"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId20"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId21"/>
 </worksheet>
 </file>
 
@@ -2812,24 +2945,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
+      <selection pane="bottomLeft" activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7" customWidth="1"/>
-    <col min="2" max="2" width="17.625" customWidth="1"/>
-    <col min="3" max="3" width="33.125" customWidth="1"/>
-    <col min="4" max="4" width="34.625" customWidth="1"/>
-    <col min="6" max="6" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.125" customWidth="1"/>
-    <col min="8" max="8" width="13.75" customWidth="1"/>
-    <col min="9" max="9" width="11.75" customWidth="1"/>
+    <col min="2" max="2" width="17.6328125" customWidth="1"/>
+    <col min="3" max="3" width="33.08984375" customWidth="1"/>
+    <col min="4" max="4" width="34.6328125" customWidth="1"/>
+    <col min="6" max="6" width="10.6328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.08984375" customWidth="1"/>
+    <col min="8" max="8" width="18" customWidth="1"/>
+    <col min="9" max="9" width="11.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2840,7 +2973,7 @@
         <v>5</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E1" s="18"/>
       <c r="F1" s="18"/>
@@ -2849,7 +2982,7 @@
       <c r="I1" s="18"/>
       <c r="J1" s="19"/>
     </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -2881,79 +3014,79 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="49.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" ht="43.5" x14ac:dyDescent="0.4">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F3" s="2">
         <v>832776</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
-    <row r="4" spans="1:10" ht="49.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" ht="43.5" x14ac:dyDescent="0.4">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F4" s="2">
         <v>784</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="3"/>
     </row>
-    <row r="5" spans="1:10" ht="115.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" ht="130.5" x14ac:dyDescent="0.4">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H5" s="6">
         <v>43031.7421875</v>
@@ -2962,30 +3095,30 @@
         <v>1</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="99" x14ac:dyDescent="0.35">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="116" x14ac:dyDescent="0.4">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="E6" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="F6" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H6" s="6">
         <v>43032.7421875</v>
@@ -2997,18 +3130,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="66" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" ht="58" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>93</v>
       </c>
       <c r="E7" s="2">
         <v>832776</v>
@@ -3017,31 +3150,45 @@
         <v>52</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J7" s="2"/>
     </row>
-    <row r="8" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" ht="43.5" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
+      <c r="B8" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="E8" s="2">
+        <v>832776</v>
+      </c>
+      <c r="F8" s="2">
+        <v>52</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>93</v>
+      </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
     </row>
-    <row r="9" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -3055,7 +3202,7 @@
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
     </row>
-    <row r="10" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A10" s="2">
         <v>10</v>
       </c>
@@ -3069,7 +3216,7 @@
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
     </row>
-    <row r="11" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A11" s="2">
         <v>11</v>
       </c>
@@ -3083,7 +3230,7 @@
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
     </row>
-    <row r="12" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A12" s="2">
         <v>12</v>
       </c>
@@ -3097,7 +3244,7 @@
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
     </row>
-    <row r="13" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A13" s="2">
         <v>13</v>
       </c>
@@ -3111,7 +3258,7 @@
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
     </row>
-    <row r="14" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A14" s="2">
         <v>14</v>
       </c>
@@ -3125,7 +3272,7 @@
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
     </row>
-    <row r="15" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A15" s="2">
         <v>15</v>
       </c>
@@ -3139,7 +3286,7 @@
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
     </row>
-    <row r="16" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -3161,9 +3308,10 @@
     <hyperlink ref="C5" r:id="rId2"/>
     <hyperlink ref="C6" r:id="rId3"/>
     <hyperlink ref="C7" r:id="rId4"/>
+    <hyperlink ref="C8" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
 
@@ -3176,19 +3324,19 @@
       <selection pane="bottomLeft" activeCell="A2" sqref="A2:J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7" customWidth="1"/>
-    <col min="2" max="2" width="17.625" customWidth="1"/>
-    <col min="3" max="3" width="33.125" customWidth="1"/>
-    <col min="4" max="4" width="34.625" customWidth="1"/>
-    <col min="6" max="6" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.125" customWidth="1"/>
-    <col min="8" max="8" width="13.75" customWidth="1"/>
-    <col min="9" max="9" width="11.75" customWidth="1"/>
+    <col min="2" max="2" width="17.6328125" customWidth="1"/>
+    <col min="3" max="3" width="33.08984375" customWidth="1"/>
+    <col min="4" max="4" width="34.6328125" customWidth="1"/>
+    <col min="6" max="6" width="10.6328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.08984375" customWidth="1"/>
+    <col min="8" max="8" width="13.7265625" customWidth="1"/>
+    <col min="9" max="9" width="11.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3199,7 +3347,7 @@
         <v>5</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E1" s="18"/>
       <c r="F1" s="18"/>
@@ -3208,7 +3356,7 @@
       <c r="I1" s="18"/>
       <c r="J1" s="19"/>
     </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -3240,24 +3388,24 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="66" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" ht="58" x14ac:dyDescent="0.4">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E3" s="2">
         <v>832776</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G3" s="3">
         <v>52</v>
@@ -3270,18 +3418,18 @@
       </c>
       <c r="J3" s="2"/>
     </row>
-    <row r="4" spans="1:10" ht="49.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" ht="43.5" x14ac:dyDescent="0.4">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>106</v>
-      </c>
       <c r="D4" s="13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E4" s="2">
         <v>832776</v>
@@ -3294,18 +3442,18 @@
       <c r="I4" s="2"/>
       <c r="J4" s="3"/>
     </row>
-    <row r="5" spans="1:10" ht="49.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" ht="43.5" x14ac:dyDescent="0.4">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="D5" s="13" t="s">
         <v>108</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>109</v>
       </c>
       <c r="E5" s="2">
         <v>832776</v>
@@ -3318,27 +3466,27 @@
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
     </row>
-    <row r="6" spans="1:10" ht="99" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" ht="116" x14ac:dyDescent="0.4">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="E6" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D6" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="F6" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H6" s="6">
         <v>43032.7421875</v>
@@ -3350,18 +3498,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="66" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" ht="58" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>93</v>
       </c>
       <c r="E7" s="2">
         <v>832776</v>
@@ -3370,17 +3518,17 @@
         <v>52</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J7" s="2"/>
     </row>
-    <row r="8" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -3394,7 +3542,7 @@
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
     </row>
-    <row r="9" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -3408,7 +3556,7 @@
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
     </row>
-    <row r="10" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A10" s="2">
         <v>10</v>
       </c>
@@ -3422,7 +3570,7 @@
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
     </row>
-    <row r="11" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A11" s="2">
         <v>11</v>
       </c>
@@ -3436,7 +3584,7 @@
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
     </row>
-    <row r="12" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A12" s="2">
         <v>12</v>
       </c>
@@ -3450,7 +3598,7 @@
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
     </row>
-    <row r="13" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A13" s="2">
         <v>13</v>
       </c>
@@ -3464,7 +3612,7 @@
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
     </row>
-    <row r="14" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A14" s="2">
         <v>14</v>
       </c>
@@ -3478,7 +3626,7 @@
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
     </row>
-    <row r="15" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A15" s="2">
         <v>15</v>
       </c>
@@ -3492,7 +3640,7 @@
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
     </row>
-    <row r="16" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -3524,20 +3672,20 @@
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" style="16"/>
-    <col min="2" max="2" width="16.5" style="16" customWidth="1"/>
+    <col min="2" max="2" width="16.453125" style="16" customWidth="1"/>
     <col min="3" max="3" width="27" style="16" customWidth="1"/>
-    <col min="4" max="4" width="17.75" style="16" customWidth="1"/>
-    <col min="5" max="5" width="15.5" style="16" customWidth="1"/>
+    <col min="4" max="4" width="17.7265625" style="16" customWidth="1"/>
+    <col min="5" max="5" width="15.453125" style="16" customWidth="1"/>
     <col min="6" max="16384" width="9" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -3548,7 +3696,7 @@
         <v>5</v>
       </c>
       <c r="D1" s="20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E1" s="21"/>
       <c r="F1" s="21"/>
@@ -3557,7 +3705,7 @@
       <c r="I1" s="21"/>
       <c r="J1" s="22"/>
     </row>
-    <row r="2" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A2" s="8" t="s">
         <v>7</v>
       </c>
@@ -3571,7 +3719,7 @@
         <v>3</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F2" s="8">
         <v>5</v>
@@ -3589,53 +3737,59 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="66" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" ht="72.5" x14ac:dyDescent="0.4">
       <c r="A3" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B3" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="C3" s="12" t="s">
         <v>238</v>
       </c>
-      <c r="C3" s="12" t="s">
-        <v>239</v>
-      </c>
       <c r="D3" s="8" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>17</v>
+        <v>121</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H3" s="8"/>
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
     </row>
-    <row r="4" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" ht="43.5" x14ac:dyDescent="0.4">
       <c r="A4" s="8" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>256</v>
-      </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
+        <v>262</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>66</v>
+      </c>
       <c r="G4" s="8"/>
       <c r="H4" s="8"/>
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
     </row>
-    <row r="5" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A5" s="8" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
@@ -3647,9 +3801,9 @@
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
     </row>
-    <row r="6" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A6" s="8" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
@@ -3661,9 +3815,9 @@
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
     </row>
-    <row r="7" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A7" s="8" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
@@ -3675,9 +3829,9 @@
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
     </row>
-    <row r="8" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A8" s="8" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
@@ -3689,9 +3843,9 @@
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
     </row>
-    <row r="9" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A9" s="8" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
@@ -3703,9 +3857,9 @@
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
     </row>
-    <row r="10" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A10" s="8" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
@@ -3717,9 +3871,9 @@
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
     </row>
-    <row r="11" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A11" s="8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
@@ -3731,9 +3885,9 @@
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
     </row>
-    <row r="12" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A12" s="8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
@@ -3745,9 +3899,9 @@
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
     </row>
-    <row r="13" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A13" s="8" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
@@ -3759,9 +3913,9 @@
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
     </row>
-    <row r="14" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A14" s="8" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
@@ -3773,9 +3927,9 @@
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
     </row>
-    <row r="15" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A15" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
@@ -3787,9 +3941,9 @@
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
     </row>
-    <row r="16" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A16" s="8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
@@ -3801,9 +3955,9 @@
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
     </row>
-    <row r="17" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A17" s="8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
@@ -3815,9 +3969,9 @@
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
     </row>
-    <row r="18" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A18" s="8" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
@@ -3829,9 +3983,9 @@
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
     </row>
-    <row r="19" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A19" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
@@ -3843,9 +3997,9 @@
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
     </row>
-    <row r="20" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A20" s="8" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
@@ -3857,9 +4011,9 @@
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
     </row>
-    <row r="21" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A21" s="8" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
@@ -3871,7 +4025,7 @@
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
     </row>
-    <row r="22" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A22" s="8"/>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
@@ -3906,17 +4060,17 @@
       <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" style="16"/>
-    <col min="2" max="2" width="13.25" style="16" customWidth="1"/>
-    <col min="3" max="3" width="26.875" style="16" customWidth="1"/>
-    <col min="4" max="4" width="28.625" style="16" customWidth="1"/>
-    <col min="5" max="5" width="15.25" style="16" customWidth="1"/>
+    <col min="2" max="2" width="13.26953125" style="16" customWidth="1"/>
+    <col min="3" max="3" width="26.90625" style="16" customWidth="1"/>
+    <col min="4" max="4" width="28.6328125" style="16" customWidth="1"/>
+    <col min="5" max="5" width="15.26953125" style="16" customWidth="1"/>
     <col min="6" max="16384" width="9" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -3927,7 +4081,7 @@
         <v>5</v>
       </c>
       <c r="D1" s="20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E1" s="21"/>
       <c r="F1" s="21"/>
@@ -3936,7 +4090,7 @@
       <c r="I1" s="21"/>
       <c r="J1" s="22"/>
     </row>
-    <row r="2" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A2" s="8" t="s">
         <v>7</v>
       </c>
@@ -3968,115 +4122,115 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="99" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" ht="101.5" x14ac:dyDescent="0.4">
       <c r="A3" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="F3" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>252</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>245</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>248</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="F3" s="8" t="s">
+      <c r="G3" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="H3" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="G3" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="H3" s="8" t="s">
+      <c r="I3" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="J3" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="I3" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="66" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:10" ht="58" x14ac:dyDescent="0.4">
       <c r="A4" s="8">
         <v>3</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="F4" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="E4" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="F4" s="8" t="s">
+      <c r="G4" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="H4" s="8" t="s">
         <v>163</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>164</v>
       </c>
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
     </row>
-    <row r="5" spans="1:10" ht="115.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" ht="101.5" x14ac:dyDescent="0.4">
       <c r="A5" s="8">
         <v>4</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
     </row>
-    <row r="6" spans="1:10" ht="49.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" ht="58" x14ac:dyDescent="0.4">
       <c r="A6" s="8">
         <v>5</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D6" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="G6" s="8" t="s">
         <v>243</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>242</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>244</v>
       </c>
       <c r="H6" s="8"/>
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
     </row>
-    <row r="7" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A7" s="8">
         <v>6</v>
       </c>
@@ -4090,7 +4244,7 @@
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
     </row>
-    <row r="8" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A8" s="8">
         <v>7</v>
       </c>
@@ -4104,7 +4258,7 @@
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
     </row>
-    <row r="9" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A9" s="8">
         <v>8</v>
       </c>
@@ -4118,7 +4272,7 @@
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
     </row>
-    <row r="10" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A10" s="8">
         <v>9</v>
       </c>
@@ -4132,7 +4286,7 @@
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
     </row>
-    <row r="11" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A11" s="8">
         <v>10</v>
       </c>
@@ -4146,7 +4300,7 @@
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
     </row>
-    <row r="12" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A12" s="8">
         <v>11</v>
       </c>
@@ -4160,7 +4314,7 @@
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
     </row>
-    <row r="13" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A13" s="8">
         <v>12</v>
       </c>
@@ -4174,7 +4328,7 @@
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
     </row>
-    <row r="14" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A14" s="8">
         <v>13</v>
       </c>
@@ -4188,7 +4342,7 @@
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
     </row>
-    <row r="15" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A15" s="8">
         <v>14</v>
       </c>
@@ -4202,7 +4356,7 @@
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
     </row>
-    <row r="16" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A16" s="8">
         <v>15</v>
       </c>
@@ -4216,7 +4370,7 @@
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
     </row>
-    <row r="17" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A17" s="8">
         <v>16</v>
       </c>
@@ -4230,7 +4384,7 @@
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
     </row>
-    <row r="18" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A18" s="8">
         <v>17</v>
       </c>
@@ -4244,7 +4398,7 @@
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
     </row>
-    <row r="19" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A19" s="8">
         <v>18</v>
       </c>

--- a/cases.xlsx
+++ b/cases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="304">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1098,10 +1098,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>832776</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>发放代金券（非客户端接口）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1138,14 +1134,6 @@
     <t>20</t>
   </si>
   <si>
-    <t>http://120.25.206.97:29083/couponsv/appcoupon/sendActivityCoupon.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8607</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>5195348</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1156,10 +1144,6 @@
   </si>
   <si>
     <t>https://sv.ismartgo.cn/couponsv/appcoupon/getCouponDetailByCouponNum.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>oNh_lshvS3y5NBHzEnXjI4R0XUHc</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1227,6 +1211,119 @@
     <t>1、用户id
 2、城市id
 3、经纬度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oNh_lshvS3y5NBHzEnXjI4R0XUHc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://sv.ismartgo.cn/couponsv/appcoupon/mygiftcoupons.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的代金券列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>116.43244</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首页促销信息-已关注的零售商</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://svr2.ismartgo.cn:29094/retailsv/app/home/getsubscribed.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>832776</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>39.921797</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关注零售商</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://svr2.ismartgo.cn:29094/retailsv/app/retails/subscribe.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>832776</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://svr2.ismartgo.cn:29094/retailsv/app/retails/subscribe.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取消关注零售商</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>832776</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、礼品id
+2、用户id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>43</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>44</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://sv.ismartgo.cn:29090/appsv2/app/home/getrecommendsections.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广告 - 邀请好友广告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广告 - 礼品兑换广告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>45</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首页功能推荐模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>784</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8241</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://sv.ismartgo.cn/couponsv/appcoupon/sendActivityCoupon.do</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1366,9 +1463,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="22" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1400,13 +1494,7 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1416,6 +1504,15 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1723,534 +1820,534 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T47"/>
+  <dimension ref="A1:T50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F42" sqref="F42"/>
+      <pane ySplit="2" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="7.08984375" style="11" customWidth="1"/>
-    <col min="2" max="2" width="18.90625" style="11" customWidth="1"/>
-    <col min="3" max="3" width="21.6328125" style="11" customWidth="1"/>
-    <col min="4" max="4" width="24.6328125" style="11" customWidth="1"/>
-    <col min="5" max="5" width="11.26953125" style="11" customWidth="1"/>
-    <col min="6" max="6" width="14.6328125" style="11" customWidth="1"/>
-    <col min="7" max="7" width="17.36328125" style="11" customWidth="1"/>
-    <col min="8" max="8" width="13.453125" style="11" customWidth="1"/>
-    <col min="9" max="9" width="16.08984375" style="11" customWidth="1"/>
-    <col min="10" max="10" width="17.6328125" style="11" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="11"/>
+    <col min="1" max="1" width="7.125" style="10" customWidth="1"/>
+    <col min="2" max="2" width="18.875" style="10" customWidth="1"/>
+    <col min="3" max="3" width="21.625" style="10" customWidth="1"/>
+    <col min="4" max="4" width="24.625" style="10" customWidth="1"/>
+    <col min="5" max="5" width="11.25" style="10" customWidth="1"/>
+    <col min="6" max="6" width="14.625" style="10" customWidth="1"/>
+    <col min="7" max="7" width="17.375" style="10" customWidth="1"/>
+    <col min="8" max="8" width="13.5" style="10" customWidth="1"/>
+    <col min="9" max="9" width="16.125" style="10" customWidth="1"/>
+    <col min="10" max="10" width="17.625" style="10" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-    </row>
-    <row r="2" spans="1:20" ht="29" x14ac:dyDescent="0.4">
-      <c r="A2" s="8" t="s">
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="7">
         <v>1</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="7">
         <v>2</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="7">
         <v>3</v>
       </c>
-      <c r="E2" s="8">
+      <c r="E2" s="7">
         <v>4</v>
       </c>
-      <c r="F2" s="8">
+      <c r="F2" s="7">
         <v>5</v>
       </c>
-      <c r="G2" s="8">
+      <c r="G2" s="7">
         <v>6</v>
       </c>
-      <c r="H2" s="8">
+      <c r="H2" s="7">
         <v>7</v>
       </c>
-      <c r="I2" s="8">
+      <c r="I2" s="7">
         <v>8</v>
       </c>
-      <c r="J2" s="8">
+      <c r="J2" s="7">
         <v>9</v>
       </c>
-      <c r="K2" s="8">
+      <c r="K2" s="7">
         <v>10</v>
       </c>
-      <c r="L2" s="8">
+      <c r="L2" s="7">
         <v>11</v>
       </c>
-      <c r="M2" s="8">
+      <c r="M2" s="7">
         <v>12</v>
       </c>
-      <c r="N2" s="8">
+      <c r="N2" s="7">
         <v>13</v>
       </c>
-      <c r="O2" s="8">
+      <c r="O2" s="7">
         <v>14</v>
       </c>
-      <c r="P2" s="8">
+      <c r="P2" s="7">
         <v>15</v>
       </c>
-      <c r="Q2" s="8">
+      <c r="Q2" s="7">
         <v>16</v>
       </c>
-      <c r="R2" s="8">
+      <c r="R2" s="7">
         <v>17</v>
       </c>
-      <c r="S2" s="8">
+      <c r="S2" s="7">
         <v>18</v>
       </c>
-      <c r="T2" s="8">
+      <c r="T2" s="7">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="43.5" x14ac:dyDescent="0.4">
-      <c r="A3" s="8">
+    <row r="3" spans="1:20" ht="49.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="7">
         <v>2</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="7">
         <v>832776</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="7">
         <v>113.26734399999999</v>
       </c>
-      <c r="G3" s="8">
+      <c r="G3" s="7">
         <v>23.164017999999999</v>
       </c>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-    </row>
-    <row r="4" spans="1:20" ht="58" x14ac:dyDescent="0.4">
-      <c r="A4" s="8">
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+    </row>
+    <row r="4" spans="1:20" ht="66" x14ac:dyDescent="0.35">
+      <c r="A4" s="7">
         <v>3</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="7">
         <v>832776</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="8">
+      <c r="G4" s="7">
         <v>113.26734399999999</v>
       </c>
-      <c r="H4" s="8">
+      <c r="H4" s="7">
         <v>23.164017999999999</v>
       </c>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-    </row>
-    <row r="5" spans="1:20" ht="43.5" x14ac:dyDescent="0.4">
-      <c r="A5" s="8">
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+    </row>
+    <row r="5" spans="1:20" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="7">
         <v>4</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="7">
         <v>832776</v>
       </c>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-    </row>
-    <row r="6" spans="1:20" ht="43.5" x14ac:dyDescent="0.4">
-      <c r="A6" s="8">
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+    </row>
+    <row r="6" spans="1:20" ht="49.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="7">
         <v>5</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="7">
         <v>10600893</v>
       </c>
-      <c r="F6" s="14">
+      <c r="F6" s="13">
         <v>15625431305</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-    </row>
-    <row r="7" spans="1:20" ht="43.5" x14ac:dyDescent="0.4">
-      <c r="A7" s="8">
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+    </row>
+    <row r="7" spans="1:20" ht="49.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="7">
         <v>6</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="7">
         <v>10600893</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="7">
         <v>13450244170</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="G7" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-    </row>
-    <row r="8" spans="1:20" ht="43.5" x14ac:dyDescent="0.4">
-      <c r="A8" s="8">
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+    </row>
+    <row r="8" spans="1:20" ht="33" x14ac:dyDescent="0.35">
+      <c r="A8" s="7">
         <v>7</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="7">
         <v>15437366</v>
       </c>
-      <c r="F8" s="8" t="s">
-        <v>252</v>
-      </c>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-    </row>
-    <row r="9" spans="1:20" ht="29" x14ac:dyDescent="0.4">
-      <c r="A9" s="8">
+      <c r="F8" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+    </row>
+    <row r="9" spans="1:20" ht="33" x14ac:dyDescent="0.35">
+      <c r="A9" s="7">
         <v>8</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8" t="s">
+      <c r="C9" s="7"/>
+      <c r="D9" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8" t="s">
-        <v>263</v>
-      </c>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A10" s="8">
+      <c r="E9" s="7"/>
+      <c r="F9" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A10" s="7">
         <v>9</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-    </row>
-    <row r="11" spans="1:20" ht="43.5" x14ac:dyDescent="0.4">
-      <c r="A11" s="8">
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+    </row>
+    <row r="11" spans="1:20" ht="33" x14ac:dyDescent="0.35">
+      <c r="A11" s="7">
         <v>10</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-    </row>
-    <row r="12" spans="1:20" ht="43.5" x14ac:dyDescent="0.4">
-      <c r="A12" s="8">
+      <c r="D11" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+    </row>
+    <row r="12" spans="1:20" ht="49.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="7">
         <v>11</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-    </row>
-    <row r="13" spans="1:20" ht="43.5" x14ac:dyDescent="0.4">
-      <c r="A13" s="8">
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+    </row>
+    <row r="13" spans="1:20" ht="49.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="7">
         <v>12</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E13" s="7">
         <v>784</v>
       </c>
-      <c r="F13" s="9" t="s">
+      <c r="F13" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="G13" s="8"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-    </row>
-    <row r="14" spans="1:20" ht="43.5" x14ac:dyDescent="0.4">
-      <c r="A14" s="8">
+      <c r="G13" s="7"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+    </row>
+    <row r="14" spans="1:20" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="7">
         <v>13</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8" t="s">
+      <c r="E14" s="7"/>
+      <c r="F14" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="G14" s="8">
+      <c r="G14" s="7">
         <v>784</v>
       </c>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-    </row>
-    <row r="15" spans="1:20" ht="43.5" x14ac:dyDescent="0.4">
-      <c r="A15" s="8">
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+    </row>
+    <row r="15" spans="1:20" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="7">
         <v>14</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="E15" s="8" t="s">
-        <v>260</v>
-      </c>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-    </row>
-    <row r="16" spans="1:20" ht="72.5" x14ac:dyDescent="0.4">
-      <c r="A16" s="8">
+      <c r="E15" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+    </row>
+    <row r="16" spans="1:20" ht="82.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="7">
         <v>15</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C16" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="E16" s="8">
+      <c r="E16" s="7">
         <v>832776</v>
       </c>
-      <c r="F16" s="8" t="s">
+      <c r="F16" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="G16" s="8">
+      <c r="G16" s="7">
         <v>113.36882</v>
       </c>
-      <c r="H16" s="8">
+      <c r="H16" s="7">
         <v>23.152705999999998</v>
       </c>
-      <c r="I16" s="8">
+      <c r="I16" s="7">
         <v>1</v>
       </c>
-      <c r="J16" s="8"/>
-    </row>
-    <row r="17" spans="1:19" ht="116" x14ac:dyDescent="0.4">
-      <c r="A17" s="8">
+      <c r="J16" s="7"/>
+    </row>
+    <row r="17" spans="1:19" ht="132" x14ac:dyDescent="0.35">
+      <c r="A17" s="7">
         <v>16</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C17" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="E17" s="8" t="s">
+      <c r="E17" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="F17" s="8" t="s">
+      <c r="F17" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="G17" s="8" t="s">
+      <c r="G17" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="H17" s="8" t="s">
+      <c r="H17" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="I17" s="8" t="s">
+      <c r="I17" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="J17" s="8" t="s">
+      <c r="J17" s="7" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="18" spans="1:19" ht="87" x14ac:dyDescent="0.4">
-      <c r="A18" s="8">
+    <row r="18" spans="1:19" ht="99" x14ac:dyDescent="0.35">
+      <c r="A18" s="7">
         <v>17</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="C18" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="E18" s="8" t="s">
+      <c r="E18" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="F18" s="8" t="s">
+      <c r="F18" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="G18" s="8" t="s">
+      <c r="G18" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="H18" s="8" t="s">
+      <c r="H18" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="I18" s="8" t="s">
+      <c r="I18" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="J18" s="8" t="s">
+      <c r="J18" s="7" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="19" spans="1:19" ht="58" x14ac:dyDescent="0.4">
-      <c r="A19" s="8">
+    <row r="19" spans="1:19" ht="66" x14ac:dyDescent="0.35">
+      <c r="A19" s="7">
         <v>18</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="C19" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="D19" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="E19" s="10" t="s">
+      <c r="E19" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="F19" s="10" t="s">
+      <c r="F19" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="G19" s="10" t="s">
+      <c r="G19" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="H19" s="10" t="s">
+      <c r="H19" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-    </row>
-    <row r="20" spans="1:19" ht="43.5" x14ac:dyDescent="0.4">
-      <c r="A20" s="8">
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+    </row>
+    <row r="20" spans="1:19" ht="49.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="7">
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -2259,7 +2356,7 @@
       <c r="C20" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="6" t="s">
         <v>38</v>
       </c>
       <c r="E20" s="2" t="s">
@@ -2271,646 +2368,710 @@
       <c r="G20" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-    </row>
-    <row r="21" spans="1:19" ht="58" x14ac:dyDescent="0.4">
-      <c r="A21" s="8">
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+    </row>
+    <row r="21" spans="1:19" ht="66" x14ac:dyDescent="0.35">
+      <c r="A21" s="7">
         <v>20</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="C21" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="D21" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="E21" s="8" t="s">
+      <c r="E21" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="F21" s="8" t="s">
+      <c r="F21" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="G21" s="8" t="s">
+      <c r="G21" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="H21" s="15" t="s">
+      <c r="H21" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="I21" s="8" t="s">
+      <c r="I21" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="J21" s="8"/>
-    </row>
-    <row r="22" spans="1:19" ht="43.5" x14ac:dyDescent="0.4">
-      <c r="A22" s="8">
+      <c r="J21" s="7"/>
+    </row>
+    <row r="22" spans="1:19" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A22" s="7">
         <v>21</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="C22" s="12" t="s">
+      <c r="C22" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="D22" s="8" t="s">
+      <c r="D22" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-    </row>
-    <row r="23" spans="1:19" ht="72.5" x14ac:dyDescent="0.4">
-      <c r="A23" s="8">
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+    </row>
+    <row r="23" spans="1:19" ht="66" x14ac:dyDescent="0.35">
+      <c r="A23" s="7">
         <v>22</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="C23" s="12" t="s">
+      <c r="C23" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="D23" s="8" t="s">
+      <c r="D23" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="E23" s="8" t="s">
+      <c r="E23" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="F23" s="8" t="s">
+      <c r="F23" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="G23" s="8" t="s">
+      <c r="G23" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="H23" s="8" t="s">
+      <c r="H23" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-    </row>
-    <row r="24" spans="1:19" ht="43.5" x14ac:dyDescent="0.4">
-      <c r="A24" s="8">
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+    </row>
+    <row r="24" spans="1:19" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A24" s="7">
         <v>23</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="C24" s="12" t="s">
+      <c r="C24" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="D24" s="8" t="s">
+      <c r="D24" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-    </row>
-    <row r="25" spans="1:19" ht="43.5" x14ac:dyDescent="0.4">
-      <c r="A25" s="8">
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+    </row>
+    <row r="25" spans="1:19" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A25" s="7">
         <v>24</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="C25" s="12" t="s">
+      <c r="C25" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="D25" s="8" t="s">
+      <c r="D25" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="E25" s="8" t="s">
+      <c r="E25" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F25" s="8" t="s">
+      <c r="F25" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-    </row>
-    <row r="26" spans="1:19" ht="43.5" x14ac:dyDescent="0.4">
-      <c r="A26" s="8">
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+    </row>
+    <row r="26" spans="1:19" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A26" s="7">
         <v>25</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="C26" s="12" t="s">
+      <c r="C26" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="D26" s="8" t="s">
+      <c r="D26" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="E26" s="8" t="s">
+      <c r="E26" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
-    </row>
-    <row r="27" spans="1:19" ht="43.5" x14ac:dyDescent="0.4">
-      <c r="A27" s="8">
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+    </row>
+    <row r="27" spans="1:19" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A27" s="7">
         <v>26</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="C27" s="12" t="s">
+      <c r="C27" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="D27" s="8" t="s">
+      <c r="D27" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="E27" s="8" t="s">
+      <c r="E27" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
-    </row>
-    <row r="28" spans="1:19" ht="159.5" x14ac:dyDescent="0.4">
-      <c r="A28" s="8">
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+    </row>
+    <row r="28" spans="1:19" ht="165" x14ac:dyDescent="0.35">
+      <c r="A28" s="7">
         <v>27</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="C28" s="12" t="s">
+      <c r="C28" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="D28" s="8" t="s">
+      <c r="D28" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="E28" s="8" t="s">
+      <c r="E28" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="F28" s="8" t="s">
+      <c r="F28" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="G28" s="8" t="s">
+      <c r="G28" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="H28" s="8" t="s">
+      <c r="H28" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="I28" s="8" t="s">
+      <c r="I28" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="J28" s="8" t="s">
+      <c r="J28" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="K28" s="11" t="s">
+      <c r="K28" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="L28" s="11" t="s">
+      <c r="L28" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="M28" s="11" t="s">
+      <c r="M28" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="N28" s="11" t="s">
+      <c r="N28" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="O28" s="11" t="s">
+      <c r="O28" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="P28" s="11" t="s">
+      <c r="P28" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="Q28" s="11" t="s">
+      <c r="Q28" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="R28" s="11" t="s">
+      <c r="R28" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="S28" s="11" t="s">
+      <c r="S28" s="10" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="29" spans="1:19" ht="58" x14ac:dyDescent="0.4">
-      <c r="A29" s="8">
+    <row r="29" spans="1:19" ht="66" x14ac:dyDescent="0.35">
+      <c r="A29" s="7">
         <v>28</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="B29" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="C29" s="12"/>
-      <c r="D29" s="8" t="s">
+      <c r="C29" s="11"/>
+      <c r="D29" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="E29" s="8" t="s">
+      <c r="E29" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="F29" s="8" t="s">
+      <c r="F29" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="G29" s="8" t="s">
+      <c r="G29" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="H29" s="8" t="s">
+      <c r="H29" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="I29" s="8"/>
-      <c r="J29" s="8"/>
-    </row>
-    <row r="30" spans="1:19" ht="29" x14ac:dyDescent="0.4">
-      <c r="A30" s="8">
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+    </row>
+    <row r="30" spans="1:19" ht="33" x14ac:dyDescent="0.35">
+      <c r="A30" s="7">
         <v>29</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="B30" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="C30" s="12"/>
-      <c r="D30" s="8" t="s">
+      <c r="C30" s="11"/>
+      <c r="D30" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="E30" s="8" t="s">
+      <c r="E30" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="F30" s="8" t="s">
+      <c r="F30" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="G30" s="8" t="s">
+      <c r="G30" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="8"/>
-    </row>
-    <row r="31" spans="1:19" ht="43.5" x14ac:dyDescent="0.4">
-      <c r="A31" s="8" t="s">
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
+    </row>
+    <row r="31" spans="1:19" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A31" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B31" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="C31" s="12" t="s">
+      <c r="C31" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="D31" s="8" t="s">
+      <c r="D31" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="I31" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" ht="33" x14ac:dyDescent="0.35">
+      <c r="A32" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="C32" s="11"/>
+      <c r="D32" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7"/>
+    </row>
+    <row r="33" spans="1:10" ht="33" x14ac:dyDescent="0.35">
+      <c r="A33" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="C33" s="11"/>
+      <c r="D33" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="7"/>
+    </row>
+    <row r="34" spans="1:10" ht="33" x14ac:dyDescent="0.35">
+      <c r="A34" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="C34" s="11"/>
+      <c r="D34" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="E31" s="8" t="s">
-        <v>259</v>
-      </c>
-      <c r="F31" s="8" t="s">
-        <v>248</v>
-      </c>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="I31" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="J31" s="8" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19" ht="29" x14ac:dyDescent="0.4">
-      <c r="A32" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="C32" s="12"/>
-      <c r="D32" s="8" t="s">
+      <c r="E34" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="7"/>
+    </row>
+    <row r="35" spans="1:10" ht="33" x14ac:dyDescent="0.35">
+      <c r="A35" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="7"/>
+    </row>
+    <row r="36" spans="1:10" ht="33" x14ac:dyDescent="0.35">
+      <c r="A36" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="E32" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="F32" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="G32" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="H32" s="8"/>
-      <c r="I32" s="8"/>
-      <c r="J32" s="8"/>
-    </row>
-    <row r="33" spans="1:10" ht="29" x14ac:dyDescent="0.4">
-      <c r="A33" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="C33" s="12"/>
-      <c r="D33" s="8" t="s">
+      <c r="E36" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="H36" s="7"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="7"/>
+    </row>
+    <row r="37" spans="1:10" ht="33" x14ac:dyDescent="0.35">
+      <c r="A37" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="E33" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="F33" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="G33" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="H33" s="8"/>
-      <c r="I33" s="8"/>
-      <c r="J33" s="8"/>
-    </row>
-    <row r="34" spans="1:10" ht="29" x14ac:dyDescent="0.4">
-      <c r="A34" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="C34" s="12"/>
-      <c r="D34" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="E34" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="F34" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="G34" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="H34" s="8"/>
-      <c r="I34" s="8"/>
-      <c r="J34" s="8"/>
-    </row>
-    <row r="35" spans="1:10" ht="29" x14ac:dyDescent="0.4">
-      <c r="A35" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="E35" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="F35" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="G35" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="H35" s="8"/>
-      <c r="I35" s="8"/>
-      <c r="J35" s="8"/>
-    </row>
-    <row r="36" spans="1:10" ht="29" x14ac:dyDescent="0.4">
-      <c r="A36" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="B36" s="8" t="s">
+      <c r="E37" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="H37" s="7"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="7"/>
+    </row>
+    <row r="38" spans="1:10" ht="33" x14ac:dyDescent="0.35">
+      <c r="A38" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="H38" s="7"/>
+      <c r="I38" s="7"/>
+      <c r="J38" s="7"/>
+    </row>
+    <row r="39" spans="1:10" ht="33" x14ac:dyDescent="0.35">
+      <c r="A39" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="B39" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="C36" s="8"/>
-      <c r="D36" s="8" t="s">
+      <c r="C39" s="7"/>
+      <c r="D39" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="E36" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="F36" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="G36" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="H36" s="8"/>
-      <c r="I36" s="8"/>
-      <c r="J36" s="8"/>
-    </row>
-    <row r="37" spans="1:10" ht="29" x14ac:dyDescent="0.4">
-      <c r="A37" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="E37" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="F37" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="G37" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="H37" s="8"/>
-      <c r="I37" s="8"/>
-      <c r="J37" s="8"/>
-    </row>
-    <row r="38" spans="1:10" ht="29" x14ac:dyDescent="0.4">
-      <c r="A38" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="B38" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="C38" s="8"/>
-      <c r="D38" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="G38" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="H38" s="8"/>
-      <c r="I38" s="8"/>
-      <c r="J38" s="8"/>
-    </row>
-    <row r="39" spans="1:10" ht="29" x14ac:dyDescent="0.4">
-      <c r="A39" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="B39" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="C39" s="8"/>
-      <c r="D39" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="E39" s="8"/>
-      <c r="F39" s="8" t="s">
+      <c r="E39" s="7"/>
+      <c r="F39" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="G39" s="8" t="s">
+      <c r="G39" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="H39" s="8"/>
-      <c r="I39" s="8"/>
-      <c r="J39" s="8"/>
-    </row>
-    <row r="40" spans="1:10" ht="43.5" x14ac:dyDescent="0.4">
-      <c r="A40" s="8" t="s">
+      <c r="H39" s="7"/>
+      <c r="I39" s="7"/>
+      <c r="J39" s="7"/>
+    </row>
+    <row r="40" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A40" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="B40" s="8" t="s">
+      <c r="B40" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="C40" s="12" t="s">
+      <c r="C40" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="D40" s="8" t="s">
+      <c r="D40" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="E40" s="8" t="s">
+      <c r="E40" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="F40" s="8"/>
-      <c r="G40" s="8"/>
-      <c r="H40" s="8"/>
-      <c r="I40" s="8"/>
-      <c r="J40" s="8"/>
-    </row>
-    <row r="41" spans="1:10" ht="43.5" x14ac:dyDescent="0.4">
-      <c r="A41" s="8" t="s">
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="7"/>
+      <c r="J40" s="7"/>
+    </row>
+    <row r="41" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A41" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="B41" s="8" t="s">
+      <c r="B41" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="C41" s="12" t="s">
+      <c r="C41" s="11" t="s">
         <v>219</v>
       </c>
-      <c r="D41" s="8"/>
-      <c r="E41" s="8"/>
-      <c r="F41" s="8"/>
-      <c r="G41" s="8"/>
-      <c r="H41" s="8"/>
-      <c r="I41" s="8"/>
-      <c r="J41" s="8"/>
-    </row>
-    <row r="42" spans="1:10" ht="43.5" x14ac:dyDescent="0.4">
-      <c r="A42" s="8" t="s">
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="7"/>
+      <c r="J41" s="7"/>
+    </row>
+    <row r="42" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A42" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>264</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="7"/>
+      <c r="J42" s="7"/>
+    </row>
+    <row r="43" spans="1:10" ht="33" x14ac:dyDescent="0.35">
+      <c r="A43" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="B43" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="B42" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="C42" s="12" t="s">
+      <c r="C43" s="7"/>
+      <c r="D43" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="7"/>
+      <c r="J43" s="7"/>
+    </row>
+    <row r="44" spans="1:10" ht="33" x14ac:dyDescent="0.35">
+      <c r="A44" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="E44" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="D42" s="8" t="s">
-        <v>271</v>
-      </c>
-      <c r="E42" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="F42" s="8" t="s">
+      <c r="F44" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="G42" s="8"/>
-      <c r="H42" s="8"/>
-      <c r="I42" s="8"/>
-      <c r="J42" s="8"/>
-    </row>
-    <row r="43" spans="1:10" ht="29" x14ac:dyDescent="0.4">
-      <c r="A43" s="8" t="s">
-        <v>276</v>
-      </c>
-      <c r="B43" s="8" t="s">
-        <v>273</v>
-      </c>
-      <c r="C43" s="8"/>
-      <c r="D43" s="8" t="s">
-        <v>274</v>
-      </c>
-      <c r="E43" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="F43" s="8" t="s">
+      <c r="G44" s="7"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="7"/>
+      <c r="J44" s="7"/>
+    </row>
+    <row r="45" spans="1:10" ht="33" x14ac:dyDescent="0.35">
+      <c r="A45" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="F45" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="G43" s="8"/>
-      <c r="H43" s="8"/>
-      <c r="I43" s="8"/>
-      <c r="J43" s="8"/>
-    </row>
-    <row r="44" spans="1:10" ht="29" x14ac:dyDescent="0.4">
-      <c r="A44" s="8"/>
-      <c r="B44" s="8"/>
-      <c r="C44" s="8"/>
-      <c r="D44" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="E44" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="F44" s="8" t="s">
+      <c r="G45" s="7"/>
+      <c r="H45" s="7"/>
+      <c r="I45" s="7"/>
+      <c r="J45" s="7"/>
+    </row>
+    <row r="46" spans="1:10" ht="57" x14ac:dyDescent="0.35">
+      <c r="A46" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="C46" s="11" t="s">
+        <v>296</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="F46" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="G44" s="8"/>
-      <c r="H44" s="8"/>
-      <c r="I44" s="8"/>
-      <c r="J44" s="8"/>
-    </row>
-    <row r="45" spans="1:10" ht="29" x14ac:dyDescent="0.4">
-      <c r="A45" s="8"/>
-      <c r="B45" s="8"/>
-      <c r="C45" s="8"/>
-      <c r="D45" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="E45" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="F45" s="8" t="s">
+      <c r="G46" s="7"/>
+      <c r="H46" s="7"/>
+      <c r="I46" s="7"/>
+      <c r="J46" s="7"/>
+    </row>
+    <row r="47" spans="1:10" ht="33" x14ac:dyDescent="0.35">
+      <c r="A47" s="7"/>
+      <c r="B47" s="7"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="F47" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="G45" s="8"/>
-      <c r="H45" s="8"/>
-      <c r="I45" s="8"/>
-      <c r="J45" s="8"/>
-    </row>
-    <row r="46" spans="1:10" ht="29" x14ac:dyDescent="0.4">
-      <c r="D46" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="E46" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="F46" s="8" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" ht="29" x14ac:dyDescent="0.4">
-      <c r="D47" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="E47" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="F47" s="8" t="s">
-        <v>101</v>
-      </c>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7"/>
+      <c r="I47" s="7"/>
+      <c r="J47" s="7"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A48" s="7"/>
+      <c r="B48" s="7"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="7"/>
+      <c r="H48" s="7"/>
+      <c r="I48" s="7"/>
+      <c r="J48" s="7"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A49" s="7"/>
+      <c r="B49" s="7"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="7"/>
+      <c r="H49" s="7"/>
+      <c r="I49" s="7"/>
+      <c r="J49" s="7"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A50" s="7"/>
+      <c r="B50" s="7"/>
+      <c r="C50" s="7"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="7"/>
+      <c r="F50" s="7"/>
+      <c r="G50" s="7"/>
+      <c r="H50" s="7"/>
+      <c r="I50" s="7"/>
+      <c r="J50" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2935,9 +3096,10 @@
     <hyperlink ref="C41" r:id="rId18"/>
     <hyperlink ref="C31" r:id="rId19"/>
     <hyperlink ref="C42" r:id="rId20"/>
+    <hyperlink ref="C46" r:id="rId21"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId21"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId22"/>
 </worksheet>
 </file>
 
@@ -2945,31 +3107,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I6" sqref="I6"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="7" customWidth="1"/>
-    <col min="2" max="2" width="17.6328125" customWidth="1"/>
-    <col min="3" max="3" width="33.08984375" customWidth="1"/>
-    <col min="4" max="4" width="34.6328125" customWidth="1"/>
-    <col min="6" max="6" width="10.6328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.08984375" customWidth="1"/>
-    <col min="8" max="8" width="18" customWidth="1"/>
-    <col min="9" max="9" width="11.7265625" customWidth="1"/>
+    <col min="1" max="1" width="7" style="15" customWidth="1"/>
+    <col min="2" max="2" width="17.625" style="15" customWidth="1"/>
+    <col min="3" max="3" width="33.125" style="15" customWidth="1"/>
+    <col min="4" max="4" width="34.625" style="15" customWidth="1"/>
+    <col min="5" max="5" width="9" style="15"/>
+    <col min="6" max="6" width="10.625" style="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.125" style="15" customWidth="1"/>
+    <col min="8" max="8" width="18" style="15" customWidth="1"/>
+    <col min="9" max="9" width="11.75" style="15" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:10" s="10" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="7" t="s">
         <v>5</v>
       </c>
       <c r="D1" s="17" t="s">
@@ -2982,321 +3146,351 @@
       <c r="I1" s="18"/>
       <c r="J1" s="19"/>
     </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.4">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:10" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="7">
         <v>1</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="7">
         <v>2</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="7">
         <v>3</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="7">
         <v>4</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="7">
         <v>5</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="7">
         <v>6</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="7">
         <v>7</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2" s="7">
         <v>8</v>
       </c>
-      <c r="J2" s="2">
+      <c r="J2" s="7">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="43.5" x14ac:dyDescent="0.4">
-      <c r="A3" s="2">
+    <row r="3" spans="1:10" ht="49.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="7">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="7">
         <v>832776</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-    </row>
-    <row r="4" spans="1:10" ht="43.5" x14ac:dyDescent="0.4">
-      <c r="A4" s="2">
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+    </row>
+    <row r="4" spans="1:10" ht="49.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="7">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="7">
         <v>784</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="3"/>
-    </row>
-    <row r="5" spans="1:10" ht="130.5" x14ac:dyDescent="0.4">
-      <c r="A5" s="2">
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="8"/>
+    </row>
+    <row r="5" spans="1:10" ht="115.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="7">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="7">
         <v>43031.7421875</v>
       </c>
-      <c r="I5" s="8">
+      <c r="I5" s="7">
         <v>1</v>
       </c>
-      <c r="J5" s="8" t="s">
+      <c r="J5" s="7" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="116" x14ac:dyDescent="0.4">
-      <c r="A6" s="2">
+    <row r="6" spans="1:10" ht="99" x14ac:dyDescent="0.35">
+      <c r="A6" s="7">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="7">
         <v>43032.7421875</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6" s="7">
         <v>110</v>
       </c>
-      <c r="J6" s="2">
+      <c r="J6" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="58" x14ac:dyDescent="0.4">
-      <c r="A7" s="2">
+    <row r="7" spans="1:10" ht="66" x14ac:dyDescent="0.35">
+      <c r="A7" s="7">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="E7" s="2">
-        <v>832776</v>
-      </c>
-      <c r="F7" s="2">
-        <v>52</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="H7" s="8" t="s">
+      <c r="E7" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="I7" s="8" t="s">
+      <c r="I7" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="J7" s="2"/>
-    </row>
-    <row r="8" spans="1:10" ht="43.5" x14ac:dyDescent="0.4">
-      <c r="A8" s="2">
+      <c r="J7" s="7"/>
+    </row>
+    <row r="8" spans="1:10" ht="49.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="7">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="D8" s="2" t="s">
+      <c r="B8" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="E8" s="2">
-        <v>832776</v>
-      </c>
-      <c r="F8" s="2">
-        <v>52</v>
-      </c>
-      <c r="G8" s="8" t="s">
+      <c r="H8" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+    </row>
+    <row r="9" spans="1:10" ht="49.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>281</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="H8" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-    </row>
-    <row r="9" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
-      <c r="A9" s="2">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-    </row>
-    <row r="10" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
-      <c r="A10" s="2">
-        <v>10</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-    </row>
-    <row r="11" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
-      <c r="A11" s="2">
-        <v>11</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-    </row>
-    <row r="12" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
-      <c r="A12" s="2">
-        <v>12</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-    </row>
-    <row r="13" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
-      <c r="A13" s="2">
-        <v>13</v>
-      </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-    </row>
-    <row r="14" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
-      <c r="A14" s="2">
-        <v>14</v>
-      </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-    </row>
-    <row r="15" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
-      <c r="A15" s="2">
-        <v>15</v>
-      </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-    </row>
-    <row r="16" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
+      <c r="H9" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+    </row>
+    <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.35">
+      <c r="A10" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+    </row>
+    <row r="11" spans="1:10" ht="30" x14ac:dyDescent="0.35">
+      <c r="A11" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>290</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+    </row>
+    <row r="12" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+    </row>
+    <row r="13" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+    </row>
+    <row r="14" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+    </row>
+    <row r="15" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+    </row>
+    <row r="16" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3309,9 +3503,12 @@
     <hyperlink ref="C6" r:id="rId3"/>
     <hyperlink ref="C7" r:id="rId4"/>
     <hyperlink ref="C8" r:id="rId5"/>
+    <hyperlink ref="C9" r:id="rId6"/>
+    <hyperlink ref="C10" r:id="rId7"/>
+    <hyperlink ref="C11" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>
 
@@ -3324,19 +3521,19 @@
       <selection pane="bottomLeft" activeCell="A2" sqref="A2:J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="7" customWidth="1"/>
-    <col min="2" max="2" width="17.6328125" customWidth="1"/>
-    <col min="3" max="3" width="33.08984375" customWidth="1"/>
-    <col min="4" max="4" width="34.6328125" customWidth="1"/>
-    <col min="6" max="6" width="10.6328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.08984375" customWidth="1"/>
-    <col min="8" max="8" width="13.7265625" customWidth="1"/>
-    <col min="9" max="9" width="11.7265625" customWidth="1"/>
+    <col min="2" max="2" width="17.625" customWidth="1"/>
+    <col min="3" max="3" width="33.125" customWidth="1"/>
+    <col min="4" max="4" width="34.625" customWidth="1"/>
+    <col min="6" max="6" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.125" customWidth="1"/>
+    <col min="8" max="8" width="13.75" customWidth="1"/>
+    <col min="9" max="9" width="11.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3346,17 +3543,17 @@
       <c r="C1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="19"/>
-    </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.4">
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="22"/>
+    </row>
+    <row r="2" spans="1:10" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -3388,7 +3585,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="58" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10" ht="66" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -3398,7 +3595,7 @@
       <c r="C3" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="12" t="s">
         <v>102</v>
       </c>
       <c r="E3" s="2">
@@ -3418,7 +3615,7 @@
       </c>
       <c r="J3" s="2"/>
     </row>
-    <row r="4" spans="1:10" ht="43.5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:10" ht="49.5" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -3428,7 +3625,7 @@
       <c r="C4" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="12" t="s">
         <v>108</v>
       </c>
       <c r="E4" s="2">
@@ -3442,7 +3639,7 @@
       <c r="I4" s="2"/>
       <c r="J4" s="3"/>
     </row>
-    <row r="5" spans="1:10" ht="43.5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:10" ht="49.5" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -3452,7 +3649,7 @@
       <c r="C5" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="12" t="s">
         <v>108</v>
       </c>
       <c r="E5" s="2">
@@ -3463,10 +3660,10 @@
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="2"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-    </row>
-    <row r="6" spans="1:10" ht="116" x14ac:dyDescent="0.4">
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+    </row>
+    <row r="6" spans="1:10" ht="99" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -3476,7 +3673,7 @@
       <c r="C6" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="12" t="s">
         <v>37</v>
       </c>
       <c r="E6" s="2" t="s">
@@ -3488,7 +3685,7 @@
       <c r="G6" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="5">
         <v>43032.7421875</v>
       </c>
       <c r="I6" s="2">
@@ -3498,7 +3695,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="58" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:10" ht="66" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -3520,15 +3717,15 @@
       <c r="G7" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="H7" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="I7" s="8" t="s">
+      <c r="I7" s="7" t="s">
         <v>93</v>
       </c>
       <c r="J7" s="2"/>
     </row>
-    <row r="8" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -3542,7 +3739,7 @@
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
     </row>
-    <row r="9" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -3556,7 +3753,7 @@
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
     </row>
-    <row r="10" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>10</v>
       </c>
@@ -3570,7 +3767,7 @@
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
     </row>
-    <row r="11" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>11</v>
       </c>
@@ -3584,7 +3781,7 @@
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
     </row>
-    <row r="12" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>12</v>
       </c>
@@ -3598,7 +3795,7 @@
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
     </row>
-    <row r="13" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>13</v>
       </c>
@@ -3612,7 +3809,7 @@
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
     </row>
-    <row r="14" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>14</v>
       </c>
@@ -3626,7 +3823,7 @@
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
     </row>
-    <row r="15" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>15</v>
       </c>
@@ -3640,7 +3837,7 @@
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
     </row>
-    <row r="16" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -3672,370 +3869,388 @@
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9" style="16"/>
-    <col min="2" max="2" width="16.453125" style="16" customWidth="1"/>
-    <col min="3" max="3" width="27" style="16" customWidth="1"/>
-    <col min="4" max="4" width="17.7265625" style="16" customWidth="1"/>
-    <col min="5" max="5" width="15.453125" style="16" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="16"/>
+    <col min="1" max="1" width="9" style="15"/>
+    <col min="2" max="2" width="16.5" style="15" customWidth="1"/>
+    <col min="3" max="3" width="27" style="15" customWidth="1"/>
+    <col min="4" max="4" width="17.75" style="15" customWidth="1"/>
+    <col min="5" max="5" width="15.5" style="15" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="22"/>
-    </row>
-    <row r="2" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
-      <c r="A2" s="8" t="s">
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="19"/>
+    </row>
+    <row r="2" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="7">
         <v>1</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="7">
         <v>2</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="7">
         <v>3</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="F2" s="8">
+      <c r="F2" s="7">
         <v>5</v>
       </c>
-      <c r="G2" s="8">
+      <c r="G2" s="7">
         <v>6</v>
       </c>
-      <c r="H2" s="8">
+      <c r="H2" s="7">
         <v>7</v>
       </c>
-      <c r="I2" s="8">
+      <c r="I2" s="7">
         <v>8</v>
       </c>
-      <c r="J2" s="8">
+      <c r="J2" s="7">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="72.5" x14ac:dyDescent="0.4">
-      <c r="A3" s="8" t="s">
+    <row r="3" spans="1:10" ht="66" x14ac:dyDescent="0.35">
+      <c r="A3" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="11" t="s">
         <v>238</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+    </row>
+    <row r="4" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="C4" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+    </row>
+    <row r="5" spans="1:10" ht="132" x14ac:dyDescent="0.35">
+      <c r="A5" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="E5" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="F3" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-    </row>
-    <row r="4" spans="1:10" ht="43.5" x14ac:dyDescent="0.4">
-      <c r="A4" s="8" t="s">
+      <c r="F5" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+    </row>
+    <row r="7" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+    </row>
+    <row r="8" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+    </row>
+    <row r="9" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+    </row>
+    <row r="10" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+    </row>
+    <row r="11" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+    </row>
+    <row r="12" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+    </row>
+    <row r="13" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+    </row>
+    <row r="14" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+    </row>
+    <row r="15" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+    </row>
+    <row r="16" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+    </row>
+    <row r="17" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+    </row>
+    <row r="18" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+    </row>
+    <row r="19" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+    </row>
+    <row r="20" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>262</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>261</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>264</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-    </row>
-    <row r="5" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
-      <c r="A5" s="8" t="s">
-        <v>222</v>
-      </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-    </row>
-    <row r="6" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
-      <c r="A6" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-    </row>
-    <row r="7" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
-      <c r="A7" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-    </row>
-    <row r="8" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
-      <c r="A8" s="8" t="s">
-        <v>225</v>
-      </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-    </row>
-    <row r="9" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
-      <c r="A9" s="8" t="s">
-        <v>226</v>
-      </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-    </row>
-    <row r="10" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
-      <c r="A10" s="8" t="s">
-        <v>227</v>
-      </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-    </row>
-    <row r="11" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
-      <c r="A11" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-    </row>
-    <row r="12" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
-      <c r="A12" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-    </row>
-    <row r="13" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
-      <c r="A13" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-    </row>
-    <row r="14" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
-      <c r="A14" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-    </row>
-    <row r="15" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
-      <c r="A15" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-    </row>
-    <row r="16" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
-      <c r="A16" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-    </row>
-    <row r="17" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
-      <c r="A17" s="8" t="s">
-        <v>234</v>
-      </c>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-    </row>
-    <row r="18" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
-      <c r="A18" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-    </row>
-    <row r="19" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
-      <c r="A19" s="8" t="s">
-        <v>236</v>
-      </c>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-    </row>
-    <row r="20" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
-      <c r="A20" s="8" t="s">
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+    </row>
+    <row r="21" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-    </row>
-    <row r="21" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
-      <c r="A21" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-    </row>
-    <row r="22" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
-      <c r="A22" s="8"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+    </row>
+    <row r="22" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4045,9 +4260,10 @@
   <hyperlinks>
     <hyperlink ref="C3" r:id="rId1"/>
     <hyperlink ref="C4" r:id="rId2"/>
+    <hyperlink ref="C5" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -4055,362 +4271,362 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9" style="16"/>
-    <col min="2" max="2" width="13.26953125" style="16" customWidth="1"/>
-    <col min="3" max="3" width="26.90625" style="16" customWidth="1"/>
-    <col min="4" max="4" width="28.6328125" style="16" customWidth="1"/>
-    <col min="5" max="5" width="15.26953125" style="16" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="16"/>
+    <col min="1" max="1" width="9" style="15"/>
+    <col min="2" max="2" width="13.25" style="15" customWidth="1"/>
+    <col min="3" max="3" width="26.875" style="15" customWidth="1"/>
+    <col min="4" max="4" width="28.625" style="15" customWidth="1"/>
+    <col min="5" max="5" width="15.25" style="15" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="22"/>
-    </row>
-    <row r="2" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
-      <c r="A2" s="8" t="s">
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="19"/>
+    </row>
+    <row r="2" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="7">
         <v>1</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="7">
         <v>2</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="7">
         <v>3</v>
       </c>
-      <c r="E2" s="8">
+      <c r="E2" s="7">
         <v>4</v>
       </c>
-      <c r="F2" s="8">
+      <c r="F2" s="7">
         <v>5</v>
       </c>
-      <c r="G2" s="8">
+      <c r="G2" s="7">
         <v>6</v>
       </c>
-      <c r="H2" s="8">
+      <c r="H2" s="7">
         <v>7</v>
       </c>
-      <c r="I2" s="8">
+      <c r="I2" s="7">
         <v>8</v>
       </c>
-      <c r="J2" s="8">
+      <c r="J2" s="7">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="101.5" x14ac:dyDescent="0.4">
-      <c r="A3" s="8" t="s">
+    <row r="3" spans="1:10" ht="99" x14ac:dyDescent="0.35">
+      <c r="A3" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>251</v>
-      </c>
-      <c r="C3" s="12" t="s">
+      <c r="B3" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="C3" s="11" t="s">
         <v>244</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="I3" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="J3" s="7" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="58" x14ac:dyDescent="0.4">
-      <c r="A4" s="8">
+    <row r="4" spans="1:10" ht="66" x14ac:dyDescent="0.35">
+      <c r="A4" s="7">
         <v>3</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8" t="s">
+      <c r="C4" s="7"/>
+      <c r="D4" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-    </row>
-    <row r="5" spans="1:10" ht="101.5" x14ac:dyDescent="0.4">
-      <c r="A5" s="8">
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+    </row>
+    <row r="5" spans="1:10" ht="115.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="7">
         <v>4</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>303</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+    </row>
+    <row r="6" spans="1:10" ht="49.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="7">
+        <v>5</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="C6" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="C5" s="12" t="s">
-        <v>258</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-    </row>
-    <row r="6" spans="1:10" ht="58" x14ac:dyDescent="0.4">
-      <c r="A6" s="8">
-        <v>5</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>237</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>250</v>
-      </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-    </row>
-    <row r="7" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
-      <c r="A7" s="8">
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+    </row>
+    <row r="7" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="7">
         <v>6</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-    </row>
-    <row r="8" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
-      <c r="A8" s="8">
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+    </row>
+    <row r="8" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="7">
         <v>7</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-    </row>
-    <row r="9" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
-      <c r="A9" s="8">
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+    </row>
+    <row r="9" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="7">
         <v>8</v>
       </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-    </row>
-    <row r="10" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
-      <c r="A10" s="8">
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+    </row>
+    <row r="10" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="7">
         <v>9</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-    </row>
-    <row r="11" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
-      <c r="A11" s="8">
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+    </row>
+    <row r="11" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="7">
         <v>10</v>
       </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-    </row>
-    <row r="12" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
-      <c r="A12" s="8">
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+    </row>
+    <row r="12" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="7">
         <v>11</v>
       </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-    </row>
-    <row r="13" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
-      <c r="A13" s="8">
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+    </row>
+    <row r="13" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="7">
         <v>12</v>
       </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-    </row>
-    <row r="14" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
-      <c r="A14" s="8">
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+    </row>
+    <row r="14" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="7">
         <v>13</v>
       </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-    </row>
-    <row r="15" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
-      <c r="A15" s="8">
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+    </row>
+    <row r="15" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="7">
         <v>14</v>
       </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-    </row>
-    <row r="16" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
-      <c r="A16" s="8">
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+    </row>
+    <row r="16" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="7">
         <v>15</v>
       </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-    </row>
-    <row r="17" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
-      <c r="A17" s="8">
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+    </row>
+    <row r="17" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="7">
         <v>16</v>
       </c>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-    </row>
-    <row r="18" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
-      <c r="A18" s="8">
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+    </row>
+    <row r="18" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="7">
         <v>17</v>
       </c>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-    </row>
-    <row r="19" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
-      <c r="A19" s="8">
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+    </row>
+    <row r="19" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="7">
         <v>18</v>
       </c>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4418,9 +4634,9 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1"/>
-    <hyperlink ref="C5" r:id="rId2"/>
-    <hyperlink ref="C6" r:id="rId3"/>
+    <hyperlink ref="C5" r:id="rId1"/>
+    <hyperlink ref="C6" r:id="rId2"/>
+    <hyperlink ref="C3" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>

--- a/cases.xlsx
+++ b/cases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="312">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1324,6 +1324,38 @@
   </si>
   <si>
     <t>https://sv.ismartgo.cn/couponsv/appcoupon/sendActivityCoupon.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>46</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首页功能按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://192.168.1.243:29090/appsv2/app/getappbuttonlistV37.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23.152634</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>113.368782</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>47</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>精明豆功能板块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://sv.ismartgo.cn:29090/appsv2/app/getBeanGameList.do</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1822,9 +1854,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -3006,46 +3038,70 @@
         <v>296</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="E46" s="7" t="s">
         <v>268</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="G46" s="7"/>
-      <c r="H46" s="7"/>
+        <v>73</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="H46" s="7" t="s">
+        <v>307</v>
+      </c>
       <c r="I46" s="7"/>
       <c r="J46" s="7"/>
     </row>
-    <row r="47" spans="1:10" ht="33" x14ac:dyDescent="0.35">
-      <c r="A47" s="7"/>
-      <c r="B47" s="7"/>
-      <c r="C47" s="7"/>
+    <row r="47" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A47" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="C47" s="11" t="s">
+        <v>306</v>
+      </c>
       <c r="D47" s="7" t="s">
-        <v>266</v>
+        <v>111</v>
       </c>
       <c r="E47" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="F47" s="7" t="s">
-        <v>101</v>
-      </c>
+      <c r="F47" s="7"/>
       <c r="G47" s="7"/>
       <c r="H47" s="7"/>
       <c r="I47" s="7"/>
       <c r="J47" s="7"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A48" s="7"/>
-      <c r="B48" s="7"/>
-      <c r="C48" s="7"/>
-      <c r="D48" s="7"/>
-      <c r="E48" s="7"/>
-      <c r="F48" s="7"/>
-      <c r="G48" s="7"/>
-      <c r="H48" s="7"/>
+    <row r="48" spans="1:10" ht="49.5" x14ac:dyDescent="0.35">
+      <c r="A48" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="C48" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="H48" s="7" t="s">
+        <v>307</v>
+      </c>
       <c r="I48" s="7"/>
       <c r="J48" s="7"/>
     </row>
@@ -3097,9 +3153,11 @@
     <hyperlink ref="C31" r:id="rId19"/>
     <hyperlink ref="C42" r:id="rId20"/>
     <hyperlink ref="C46" r:id="rId21"/>
+    <hyperlink ref="C47" r:id="rId22"/>
+    <hyperlink ref="C48" r:id="rId23"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId22"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId24"/>
 </worksheet>
 </file>
 
@@ -4271,9 +4329,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
+      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/cases.xlsx
+++ b/cases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="315">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -280,15 +280,6 @@
   </si>
   <si>
     <t>http://sv.ismartgo.cn:29090/appsv2/app/shopScanList.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、用户id
-2、cityid
-3、经度，lon
-4、纬度,lat
-5、页码
-6、authkey</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -675,10 +666,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>13450244170</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1、手机号
 2、登录密码
 3、商店id
@@ -686,10 +673,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>76</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>113.368805</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -699,10 +682,6 @@
   </si>
   <si>
     <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>123456</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1173,10 +1152,6 @@
   <si>
     <t>1、用户id
 2、城市名称</t>
-  </si>
-  <si>
-    <t>1、用户id
-2、城市名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1356,6 +1331,46 @@
   </si>
   <si>
     <t>http://sv.ismartgo.cn:29090/appsv2/app/getBeanGameList.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、用户id
+2、城市名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、用户id
+2、城市名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、用户id
+2、cityid
+3、经度，lon
+4、纬度,lat
+5、页码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>123456</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>832776</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首页猜你喜欢促销信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://svr2.ismartgo.cn:29094/retailsv/app/retails/getRetailPromotionsv36.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、用户id
+2、城市id
+3、经纬度</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1854,9 +1869,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F46" sqref="F46"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -1885,7 +1900,7 @@
         <v>5</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
@@ -2023,8 +2038,8 @@
       <c r="D5" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="E5" s="7">
-        <v>832776</v>
+      <c r="E5" s="7" t="s">
+        <v>311</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
@@ -2052,7 +2067,7 @@
         <v>15625431305</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
@@ -2078,7 +2093,7 @@
         <v>13450244170</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
@@ -2101,7 +2116,7 @@
         <v>15437366</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
@@ -2117,11 +2132,11 @@
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="7" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
@@ -2155,10 +2170,10 @@
         <v>22</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -2203,7 +2218,7 @@
         <v>784</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G13" s="7"/>
       <c r="H13" s="8"/>
@@ -2248,7 +2263,7 @@
         <v>43</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
@@ -2297,28 +2312,28 @@
         <v>45</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="H17" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="H17" s="7" t="s">
+      <c r="I17" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="I17" s="7" t="s">
-        <v>142</v>
-      </c>
       <c r="J17" s="7" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" ht="99" x14ac:dyDescent="0.35">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" ht="82.5" x14ac:dyDescent="0.35">
       <c r="A18" s="7">
         <v>17</v>
       </c>
@@ -2329,25 +2344,25 @@
         <v>56</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>57</v>
+        <v>309</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="H18" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="F18" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="G18" s="7" t="s">
+      <c r="I18" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="J18" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="H18" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="I18" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="19" spans="1:19" ht="66" x14ac:dyDescent="0.35">
@@ -2358,22 +2373,22 @@
         <v>39</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>150</v>
+        <v>65</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="H19" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I19" s="7"/>
       <c r="J19" s="7"/>
@@ -2386,19 +2401,19 @@
         <v>31</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>38</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="F20" s="2">
         <v>832776</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
@@ -2409,28 +2424,28 @@
         <v>20</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D21" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="H21" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="I21" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="H21" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="I21" s="7" t="s">
-        <v>77</v>
       </c>
       <c r="J21" s="7"/>
     </row>
@@ -2439,13 +2454,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C22" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="C22" s="11" t="s">
-        <v>72</v>
-      </c>
       <c r="D22" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
@@ -2459,25 +2474,25 @@
         <v>22</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C23" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="E23" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="F23" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="H23" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="H23" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="I23" s="7"/>
       <c r="J23" s="7"/>
@@ -2487,13 +2502,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C24" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="C24" s="11" t="s">
+      <c r="D24" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
@@ -2507,19 +2522,19 @@
         <v>24</v>
       </c>
       <c r="B25" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C25" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="C25" s="11" t="s">
+      <c r="D25" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="E25" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="F25" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="G25" s="7"/>
       <c r="H25" s="7"/>
@@ -2531,16 +2546,16 @@
         <v>25</v>
       </c>
       <c r="B26" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="C26" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="C26" s="11" t="s">
+      <c r="D26" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="D26" s="7" t="s">
+      <c r="E26" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
@@ -2553,16 +2568,16 @@
         <v>26</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C27" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="E27" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>114</v>
       </c>
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
@@ -2575,58 +2590,58 @@
         <v>27</v>
       </c>
       <c r="B28" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="C28" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="C28" s="11" t="s">
+      <c r="D28" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="D28" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="F28" s="7" t="s">
+      <c r="G28" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="G28" s="7" t="s">
+      <c r="H28" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="H28" s="7" t="s">
+      <c r="I28" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="I28" s="7" t="s">
+      <c r="J28" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="J28" s="7" t="s">
+      <c r="K28" s="10" t="s">
         <v>123</v>
-      </c>
-      <c r="K28" s="10" t="s">
-        <v>124</v>
       </c>
       <c r="L28" s="10" t="s">
         <v>30</v>
       </c>
       <c r="M28" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N28" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="O28" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="O28" s="10" t="s">
+      <c r="P28" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="P28" s="10" t="s">
+      <c r="Q28" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="Q28" s="10" t="s">
+      <c r="R28" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="S28" s="10" t="s">
         <v>128</v>
-      </c>
-      <c r="R28" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="S28" s="10" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="29" spans="1:19" ht="66" x14ac:dyDescent="0.35">
@@ -2634,23 +2649,23 @@
         <v>28</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C29" s="11"/>
       <c r="D29" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I29" s="7"/>
       <c r="J29" s="7"/>
@@ -2660,20 +2675,20 @@
         <v>29</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C30" s="11"/>
       <c r="D30" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="H30" s="7"/>
       <c r="I30" s="7"/>
@@ -2681,53 +2696,53 @@
     </row>
     <row r="31" spans="1:19" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A31" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="G31" s="7"/>
       <c r="H31" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="I31" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="J31" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="32" spans="1:19" ht="33" x14ac:dyDescent="0.35">
       <c r="A32" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C32" s="11"/>
       <c r="D32" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="F32" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>196</v>
       </c>
       <c r="H32" s="7"/>
       <c r="I32" s="7"/>
@@ -2735,23 +2750,23 @@
     </row>
     <row r="33" spans="1:10" ht="33" x14ac:dyDescent="0.35">
       <c r="A33" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C33" s="11"/>
       <c r="D33" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="F33" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="G33" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>197</v>
       </c>
       <c r="H33" s="7"/>
       <c r="I33" s="7"/>
@@ -2759,23 +2774,23 @@
     </row>
     <row r="34" spans="1:10" ht="33" x14ac:dyDescent="0.35">
       <c r="A34" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C34" s="11"/>
       <c r="D34" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="H34" s="7"/>
       <c r="I34" s="7"/>
@@ -2783,23 +2798,23 @@
     </row>
     <row r="35" spans="1:10" ht="33" x14ac:dyDescent="0.35">
       <c r="A35" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="H35" s="7"/>
       <c r="I35" s="7"/>
@@ -2807,23 +2822,23 @@
     </row>
     <row r="36" spans="1:10" ht="33" x14ac:dyDescent="0.35">
       <c r="A36" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="H36" s="7"/>
       <c r="I36" s="7"/>
@@ -2831,23 +2846,23 @@
     </row>
     <row r="37" spans="1:10" ht="33" x14ac:dyDescent="0.35">
       <c r="A37" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="H37" s="7"/>
       <c r="I37" s="7"/>
@@ -2855,21 +2870,21 @@
     </row>
     <row r="38" spans="1:10" ht="33" x14ac:dyDescent="0.35">
       <c r="A38" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="E38" s="7"/>
       <c r="F38" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="H38" s="7"/>
       <c r="I38" s="7"/>
@@ -2877,21 +2892,21 @@
     </row>
     <row r="39" spans="1:10" ht="33" x14ac:dyDescent="0.35">
       <c r="A39" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="E39" s="7"/>
       <c r="F39" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="H39" s="7"/>
       <c r="I39" s="7"/>
@@ -2899,19 +2914,19 @@
     </row>
     <row r="40" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A40" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="C40" s="11" t="s">
         <v>214</v>
       </c>
-      <c r="B40" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="C40" s="11" t="s">
-        <v>218</v>
-      </c>
       <c r="D40" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="E40" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="E40" s="7" t="s">
-        <v>221</v>
       </c>
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
@@ -2921,13 +2936,13 @@
     </row>
     <row r="41" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A41" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="C41" s="11" t="s">
         <v>215</v>
-      </c>
-      <c r="B41" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="C41" s="11" t="s">
-        <v>219</v>
       </c>
       <c r="D41" s="7"/>
       <c r="E41" s="7"/>
@@ -2939,22 +2954,22 @@
     </row>
     <row r="42" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A42" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G42" s="7"/>
       <c r="H42" s="7"/>
@@ -2963,20 +2978,20 @@
     </row>
     <row r="43" spans="1:10" ht="33" x14ac:dyDescent="0.35">
       <c r="A43" s="7" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="C43" s="7"/>
       <c r="D43" s="7" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G43" s="7"/>
       <c r="H43" s="7"/>
@@ -2985,20 +3000,20 @@
     </row>
     <row r="44" spans="1:10" ht="33" x14ac:dyDescent="0.35">
       <c r="A44" s="7" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="C44" s="7"/>
       <c r="D44" s="7" t="s">
-        <v>266</v>
+        <v>308</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G44" s="7"/>
       <c r="H44" s="7"/>
@@ -3007,20 +3022,20 @@
     </row>
     <row r="45" spans="1:10" ht="33" x14ac:dyDescent="0.35">
       <c r="A45" s="7" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="C45" s="7"/>
       <c r="D45" s="7" t="s">
-        <v>266</v>
+        <v>307</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G45" s="7"/>
       <c r="H45" s="7"/>
@@ -3029,47 +3044,47 @@
     </row>
     <row r="46" spans="1:10" ht="57" x14ac:dyDescent="0.35">
       <c r="A46" s="7" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="H46" s="7" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="I46" s="7"/>
       <c r="J46" s="7"/>
     </row>
     <row r="47" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A47" s="7" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
@@ -3079,28 +3094,28 @@
     </row>
     <row r="48" spans="1:10" ht="49.5" x14ac:dyDescent="0.35">
       <c r="A48" s="7" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="H48" s="7" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="I48" s="7"/>
       <c r="J48" s="7"/>
@@ -3165,9 +3180,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
+      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3244,7 +3259,7 @@
         <v>31</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D3" s="16" t="s">
         <v>38</v>
@@ -3270,19 +3285,19 @@
         <v>32</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F4" s="7">
         <v>784</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
@@ -3296,19 +3311,19 @@
         <v>35</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H5" s="7">
         <v>43031.7421875</v>
@@ -3317,7 +3332,7 @@
         <v>1</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="99" x14ac:dyDescent="0.35">
@@ -3328,19 +3343,19 @@
         <v>36</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D6" s="16" t="s">
         <v>37</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H6" s="7">
         <v>43032.7421875</v>
@@ -3357,26 +3372,26 @@
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="D7" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="C7" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>92</v>
-      </c>
       <c r="E7" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J7" s="7"/>
     </row>
@@ -3385,72 +3400,72 @@
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="C8" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="D8" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>279</v>
-      </c>
       <c r="H8" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
     </row>
     <row r="9" spans="1:10" ht="49.5" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
     </row>
     <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.35">
       <c r="A10" s="7" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
@@ -3460,19 +3475,19 @@
     </row>
     <row r="11" spans="1:10" ht="30" x14ac:dyDescent="0.35">
       <c r="A11" s="7" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -3480,23 +3495,37 @@
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" ht="49.5" x14ac:dyDescent="0.35">
       <c r="A12" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
+        <v>225</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>313</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>92</v>
+      </c>
       <c r="I12" s="7"/>
       <c r="J12" s="7"/>
     </row>
     <row r="13" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A13" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
@@ -3510,7 +3539,7 @@
     </row>
     <row r="14" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A14" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
@@ -3524,7 +3553,7 @@
     </row>
     <row r="15" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A15" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
@@ -3538,7 +3567,7 @@
     </row>
     <row r="16" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A16" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
@@ -3564,9 +3593,10 @@
     <hyperlink ref="C9" r:id="rId6"/>
     <hyperlink ref="C10" r:id="rId7"/>
     <hyperlink ref="C11" r:id="rId8"/>
+    <hyperlink ref="C12" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId10"/>
 </worksheet>
 </file>
 
@@ -3648,19 +3678,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E3" s="2">
         <v>832776</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G3" s="3">
         <v>52</v>
@@ -3678,13 +3708,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>105</v>
-      </c>
       <c r="D4" s="12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E4" s="2">
         <v>832776</v>
@@ -3702,13 +3732,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="D5" s="12" t="s">
         <v>107</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>108</v>
       </c>
       <c r="E5" s="2">
         <v>832776</v>
@@ -3729,19 +3759,19 @@
         <v>36</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D6" s="12" t="s">
         <v>37</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H6" s="5">
         <v>43032.7421875</v>
@@ -3758,13 +3788,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>92</v>
       </c>
       <c r="E7" s="2">
         <v>832776</v>
@@ -3773,13 +3803,13 @@
         <v>52</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J7" s="2"/>
     </row>
@@ -3974,7 +4004,7 @@
         <v>3</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="F2" s="7">
         <v>5</v>
@@ -3994,25 +4024,25 @@
     </row>
     <row r="3" spans="1:10" ht="66" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B3" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="C3" s="11" t="s">
-        <v>238</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>241</v>
-      </c>
       <c r="G3" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
@@ -4020,22 +4050,22 @@
     </row>
     <row r="4" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>259</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>258</v>
-      </c>
       <c r="E4" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
@@ -4044,39 +4074,39 @@
     </row>
     <row r="5" spans="1:10" ht="132" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
@@ -4090,7 +4120,7 @@
     </row>
     <row r="7" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
@@ -4104,7 +4134,7 @@
     </row>
     <row r="8" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
@@ -4118,7 +4148,7 @@
     </row>
     <row r="9" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
@@ -4132,7 +4162,7 @@
     </row>
     <row r="10" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A10" s="7" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
@@ -4146,7 +4176,7 @@
     </row>
     <row r="11" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A11" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
@@ -4160,7 +4190,7 @@
     </row>
     <row r="12" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A12" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
@@ -4174,7 +4204,7 @@
     </row>
     <row r="13" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A13" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
@@ -4188,7 +4218,7 @@
     </row>
     <row r="14" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A14" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
@@ -4202,7 +4232,7 @@
     </row>
     <row r="15" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A15" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
@@ -4216,7 +4246,7 @@
     </row>
     <row r="16" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A16" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
@@ -4230,7 +4260,7 @@
     </row>
     <row r="17" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A17" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
@@ -4244,7 +4274,7 @@
     </row>
     <row r="18" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A18" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
@@ -4258,7 +4288,7 @@
     </row>
     <row r="19" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A19" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
@@ -4272,7 +4302,7 @@
     </row>
     <row r="20" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A20" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
@@ -4286,7 +4316,7 @@
     </row>
     <row r="21" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A21" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
@@ -4398,34 +4428,34 @@
     </row>
     <row r="3" spans="1:10" ht="99" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="E3" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="J3" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="66" x14ac:dyDescent="0.35">
@@ -4433,23 +4463,23 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
@@ -4459,19 +4489,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
@@ -4483,22 +4513,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="C6" s="11" t="s">
-        <v>249</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>241</v>
-      </c>
       <c r="G6" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>

--- a/cases.xlsx
+++ b/cases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="320">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -701,42 +701,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>13450244170</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>123456</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我的兑换列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、用户id
-2、礼品类型
-3、页码
-4、每页数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1032,35 +997,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>13450244170</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>123456</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1、手机号码
-2、登录密码
-3、状态：1未使用，2已使用，3已失效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://192.168.1.243:29083/couponsv/appcoupon/mygiftcoupons.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1、uid
-2、coupon_type
-3、discount_value
-4、scene
-5、timestamp
-6、key
-</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1081,14 +1022,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://192.168.1.243:29083/couponsv/appcoupon/getMyCoupon.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>礼品兑换 - 优惠券列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>aaaoNh_lshvS3y5NBHzEnXjI4R0XUHc</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1371,6 +1304,91 @@
     <t>1、用户id
 2、城市id
 3、经纬度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1、uid
+2、coupon_type
+3、discount_value
+4、scene
+5、timestamp
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取用户等级信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户是否存在升等级提示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>832776</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、用户id
+3、断言：等级检查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、用户id
+3、断言：是否存在升级提示(0-不存在,1-存在)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>784</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取用户状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13450244170</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、手机号码
+2、密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打开红包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>123456</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、用户id
+2、订单编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>832776</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1870,8 +1888,8 @@
   <dimension ref="A1:T50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
+      <pane ySplit="2" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -2039,7 +2057,7 @@
         <v>48</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>311</v>
+        <v>297</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
@@ -2116,7 +2134,7 @@
         <v>15437366</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>247</v>
+        <v>233</v>
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
@@ -2136,7 +2154,7 @@
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="7" t="s">
-        <v>271</v>
+        <v>257</v>
       </c>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
@@ -2170,10 +2188,10 @@
         <v>22</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>258</v>
+        <v>244</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -2263,7 +2281,7 @@
         <v>43</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
@@ -2344,13 +2362,13 @@
         <v>56</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>309</v>
+        <v>295</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>120</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>310</v>
+        <v>296</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>72</v>
@@ -2596,7 +2614,7 @@
         <v>117</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>115</v>
@@ -2638,7 +2656,7 @@
         <v>127</v>
       </c>
       <c r="R28" s="10" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="S28" s="10" t="s">
         <v>128</v>
@@ -2675,20 +2693,20 @@
         <v>29</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="C30" s="11"/>
       <c r="D30" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>190</v>
       </c>
       <c r="H30" s="7"/>
       <c r="I30" s="7"/>
@@ -2696,53 +2714,53 @@
     </row>
     <row r="31" spans="1:19" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A31" s="7" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="C31" s="11" t="s">
         <v>117</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>297</v>
+        <v>283</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>296</v>
+        <v>282</v>
       </c>
       <c r="G31" s="7"/>
       <c r="H31" s="7" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
     </row>
     <row r="32" spans="1:19" ht="33" x14ac:dyDescent="0.35">
       <c r="A32" s="7" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="C32" s="11"/>
       <c r="D32" s="7" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="H32" s="7"/>
       <c r="I32" s="7"/>
@@ -2750,23 +2768,23 @@
     </row>
     <row r="33" spans="1:10" ht="33" x14ac:dyDescent="0.35">
       <c r="A33" s="7" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="C33" s="11"/>
       <c r="D33" s="7" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="H33" s="7"/>
       <c r="I33" s="7"/>
@@ -2774,23 +2792,23 @@
     </row>
     <row r="34" spans="1:10" ht="33" x14ac:dyDescent="0.35">
       <c r="A34" s="7" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="C34" s="11"/>
       <c r="D34" s="7" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="H34" s="7"/>
       <c r="I34" s="7"/>
@@ -2798,23 +2816,23 @@
     </row>
     <row r="35" spans="1:10" ht="33" x14ac:dyDescent="0.35">
       <c r="A35" s="7" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="7" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="H35" s="7"/>
       <c r="I35" s="7"/>
@@ -2822,23 +2840,23 @@
     </row>
     <row r="36" spans="1:10" ht="33" x14ac:dyDescent="0.35">
       <c r="A36" s="7" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="7" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="H36" s="7"/>
       <c r="I36" s="7"/>
@@ -2846,23 +2864,23 @@
     </row>
     <row r="37" spans="1:10" ht="33" x14ac:dyDescent="0.35">
       <c r="A37" s="7" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="7" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="H37" s="7"/>
       <c r="I37" s="7"/>
@@ -2870,21 +2888,21 @@
     </row>
     <row r="38" spans="1:10" ht="33" x14ac:dyDescent="0.35">
       <c r="A38" s="7" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="7" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="E38" s="7"/>
       <c r="F38" s="7" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="H38" s="7"/>
       <c r="I38" s="7"/>
@@ -2892,21 +2910,21 @@
     </row>
     <row r="39" spans="1:10" ht="33" x14ac:dyDescent="0.35">
       <c r="A39" s="7" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="7" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="E39" s="7"/>
       <c r="F39" s="7" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="H39" s="7"/>
       <c r="I39" s="7"/>
@@ -2914,19 +2932,19 @@
     </row>
     <row r="40" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A40" s="7" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
@@ -2936,13 +2954,13 @@
     </row>
     <row r="41" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A41" s="7" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="D41" s="7"/>
       <c r="E41" s="7"/>
@@ -2954,16 +2972,16 @@
     </row>
     <row r="42" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A42" s="7" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>259</v>
+        <v>245</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>260</v>
+        <v>246</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>262</v>
+        <v>248</v>
       </c>
       <c r="E42" s="7" t="s">
         <v>76</v>
@@ -2978,17 +2996,17 @@
     </row>
     <row r="43" spans="1:10" ht="33" x14ac:dyDescent="0.35">
       <c r="A43" s="7" t="s">
-        <v>267</v>
+        <v>253</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>264</v>
+        <v>250</v>
       </c>
       <c r="C43" s="7"/>
       <c r="D43" s="7" t="s">
-        <v>265</v>
+        <v>251</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>266</v>
+        <v>252</v>
       </c>
       <c r="F43" s="7" t="s">
         <v>100</v>
@@ -3000,17 +3018,17 @@
     </row>
     <row r="44" spans="1:10" ht="33" x14ac:dyDescent="0.35">
       <c r="A44" s="7" t="s">
-        <v>289</v>
+        <v>275</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>292</v>
+        <v>278</v>
       </c>
       <c r="C44" s="7"/>
       <c r="D44" s="7" t="s">
-        <v>308</v>
+        <v>294</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>263</v>
+        <v>249</v>
       </c>
       <c r="F44" s="7" t="s">
         <v>100</v>
@@ -3022,17 +3040,17 @@
     </row>
     <row r="45" spans="1:10" ht="33" x14ac:dyDescent="0.35">
       <c r="A45" s="7" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>293</v>
+        <v>279</v>
       </c>
       <c r="C45" s="7"/>
       <c r="D45" s="7" t="s">
-        <v>307</v>
+        <v>293</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>263</v>
+        <v>249</v>
       </c>
       <c r="F45" s="7" t="s">
         <v>100</v>
@@ -3044,47 +3062,47 @@
     </row>
     <row r="46" spans="1:10" ht="57" x14ac:dyDescent="0.35">
       <c r="A46" s="7" t="s">
-        <v>294</v>
+        <v>280</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>295</v>
+        <v>281</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>270</v>
+        <v>256</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>263</v>
+        <v>249</v>
       </c>
       <c r="F46" s="7" t="s">
         <v>72</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>303</v>
+        <v>289</v>
       </c>
       <c r="H46" s="7" t="s">
-        <v>302</v>
+        <v>288</v>
       </c>
       <c r="I46" s="7"/>
       <c r="J46" s="7"/>
     </row>
     <row r="47" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A47" s="7" t="s">
-        <v>299</v>
+        <v>285</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>300</v>
+        <v>286</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>301</v>
+        <v>287</v>
       </c>
       <c r="D47" s="7" t="s">
         <v>110</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>263</v>
+        <v>249</v>
       </c>
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
@@ -3094,28 +3112,28 @@
     </row>
     <row r="48" spans="1:10" ht="49.5" x14ac:dyDescent="0.35">
       <c r="A48" s="7" t="s">
-        <v>304</v>
+        <v>290</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>305</v>
+        <v>291</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>306</v>
+        <v>292</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>270</v>
+        <v>256</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>263</v>
+        <v>249</v>
       </c>
       <c r="F48" s="7" t="s">
         <v>72</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>303</v>
+        <v>289</v>
       </c>
       <c r="H48" s="7" t="s">
-        <v>302</v>
+        <v>288</v>
       </c>
       <c r="I48" s="7"/>
       <c r="J48" s="7"/>
@@ -3180,7 +3198,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
     </sheetView>
@@ -3400,13 +3418,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>268</v>
+        <v>254</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>269</v>
+        <v>255</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>270</v>
+        <v>256</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>76</v>
@@ -3415,7 +3433,7 @@
         <v>140</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>274</v>
+        <v>260</v>
       </c>
       <c r="H8" s="7" t="s">
         <v>92</v>
@@ -3425,19 +3443,19 @@
     </row>
     <row r="9" spans="1:10" ht="49.5" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
-        <v>284</v>
+        <v>270</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>275</v>
+        <v>261</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>276</v>
+        <v>262</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>270</v>
+        <v>256</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>277</v>
+        <v>263</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>140</v>
@@ -3446,26 +3464,26 @@
         <v>93</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>278</v>
+        <v>264</v>
       </c>
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
     </row>
     <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.35">
       <c r="A10" s="7" t="s">
-        <v>282</v>
+        <v>268</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>279</v>
+        <v>265</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>110</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>281</v>
+        <v>267</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
@@ -3475,19 +3493,19 @@
     </row>
     <row r="11" spans="1:10" ht="30" x14ac:dyDescent="0.35">
       <c r="A11" s="7" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>286</v>
+        <v>272</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>110</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>287</v>
+        <v>273</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -3497,16 +3515,16 @@
     </row>
     <row r="12" spans="1:10" ht="49.5" x14ac:dyDescent="0.35">
       <c r="A12" s="7" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>313</v>
+        <v>299</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>314</v>
+        <v>300</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>76</v>
@@ -3525,7 +3543,7 @@
     </row>
     <row r="13" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A13" s="7" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
@@ -3539,7 +3557,7 @@
     </row>
     <row r="14" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A14" s="7" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
@@ -3553,7 +3571,7 @@
     </row>
     <row r="15" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A15" s="7" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
@@ -3567,7 +3585,7 @@
     </row>
     <row r="16" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A16" s="7" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
@@ -3956,8 +3974,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4004,7 +4022,7 @@
         <v>3</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="F2" s="7">
         <v>5</v>
@@ -4027,22 +4045,22 @@
         <v>141</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C3" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>248</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>120</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
@@ -4050,19 +4068,19 @@
     </row>
     <row r="4" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>249</v>
+        <v>235</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>255</v>
+        <v>241</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>254</v>
+        <v>240</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>65</v>
@@ -4074,16 +4092,16 @@
     </row>
     <row r="5" spans="1:10" ht="132" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>273</v>
+        <v>259</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>272</v>
+        <v>258</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>120</v>
@@ -4092,10 +4110,10 @@
         <v>65</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="I5" s="7" t="s">
         <v>62</v>
@@ -4106,7 +4124,7 @@
     </row>
     <row r="6" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
@@ -4120,7 +4138,7 @@
     </row>
     <row r="7" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
@@ -4134,7 +4152,7 @@
     </row>
     <row r="8" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
@@ -4148,7 +4166,7 @@
     </row>
     <row r="9" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
@@ -4162,7 +4180,7 @@
     </row>
     <row r="10" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A10" s="7" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
@@ -4176,7 +4194,7 @@
     </row>
     <row r="11" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A11" s="7" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
@@ -4190,7 +4208,7 @@
     </row>
     <row r="12" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A12" s="7" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
@@ -4204,7 +4222,7 @@
     </row>
     <row r="13" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A13" s="7" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
@@ -4218,7 +4236,7 @@
     </row>
     <row r="14" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A14" s="7" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
@@ -4232,7 +4250,7 @@
     </row>
     <row r="15" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A15" s="7" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
@@ -4246,7 +4264,7 @@
     </row>
     <row r="16" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A16" s="7" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
@@ -4260,7 +4278,7 @@
     </row>
     <row r="17" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A17" s="7" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
@@ -4274,7 +4292,7 @@
     </row>
     <row r="18" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A18" s="7" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
@@ -4288,7 +4306,7 @@
     </row>
     <row r="19" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A19" s="7" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
@@ -4302,7 +4320,7 @@
     </row>
     <row r="20" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A20" s="7" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
@@ -4316,7 +4334,7 @@
     </row>
     <row r="21" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A21" s="7" t="s">
-        <v>252</v>
+        <v>238</v>
       </c>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
@@ -4357,11 +4375,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
+      <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4428,120 +4446,108 @@
     </row>
     <row r="3" spans="1:10" ht="99" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
-        <v>152</v>
+        <v>302</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>240</v>
+        <v>284</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>243</v>
+        <v>301</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>151</v>
+        <v>120</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="66" x14ac:dyDescent="0.35">
-      <c r="A4" s="7">
-        <v>3</v>
+        <v>65</v>
+      </c>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+    </row>
+    <row r="4" spans="1:10" ht="33" x14ac:dyDescent="0.35">
+      <c r="A4" s="7" t="s">
+        <v>303</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>156</v>
+        <v>305</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="7" t="s">
-        <v>157</v>
+        <v>309</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>76</v>
+        <v>307</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>159</v>
-      </c>
+        <v>308</v>
+      </c>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
     </row>
-    <row r="5" spans="1:10" ht="115.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="7">
-        <v>4</v>
+    <row r="5" spans="1:10" ht="49.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="7" t="s">
+        <v>304</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>298</v>
-      </c>
+        <v>306</v>
+      </c>
+      <c r="C5" s="7"/>
       <c r="D5" s="7" t="s">
-        <v>241</v>
+        <v>310</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>120</v>
+        <v>311</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>65</v>
+        <v>312</v>
       </c>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
     </row>
-    <row r="6" spans="1:10" ht="49.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="7">
-        <v>5</v>
+    <row r="6" spans="1:10" ht="33" x14ac:dyDescent="0.35">
+      <c r="A6" s="7" t="s">
+        <v>211</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>245</v>
-      </c>
+        <v>313</v>
+      </c>
+      <c r="C6" s="11"/>
       <c r="D6" s="7" t="s">
-        <v>238</v>
+        <v>315</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>236</v>
+        <v>314</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>239</v>
-      </c>
+        <v>317</v>
+      </c>
+      <c r="G6" s="7"/>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
     </row>
-    <row r="7" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="7">
-        <v>6</v>
-      </c>
-      <c r="B7" s="7"/>
+    <row r="7" spans="1:10" ht="33" x14ac:dyDescent="0.35">
+      <c r="A7" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>316</v>
+      </c>
       <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
+      <c r="D7" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>319</v>
+      </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
@@ -4549,8 +4555,8 @@
       <c r="J7" s="7"/>
     </row>
     <row r="8" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="7">
-        <v>7</v>
+      <c r="A8" s="7" t="s">
+        <v>213</v>
       </c>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
@@ -4563,8 +4569,8 @@
       <c r="J8" s="7"/>
     </row>
     <row r="9" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="7">
-        <v>8</v>
+      <c r="A9" s="7" t="s">
+        <v>214</v>
       </c>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
@@ -4577,8 +4583,8 @@
       <c r="J9" s="7"/>
     </row>
     <row r="10" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="7">
-        <v>9</v>
+      <c r="A10" s="7" t="s">
+        <v>215</v>
       </c>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
@@ -4591,8 +4597,8 @@
       <c r="J10" s="7"/>
     </row>
     <row r="11" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="7">
-        <v>10</v>
+      <c r="A11" s="7" t="s">
+        <v>216</v>
       </c>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
@@ -4605,8 +4611,8 @@
       <c r="J11" s="7"/>
     </row>
     <row r="12" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="7">
-        <v>11</v>
+      <c r="A12" s="7" t="s">
+        <v>217</v>
       </c>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
@@ -4619,8 +4625,8 @@
       <c r="J12" s="7"/>
     </row>
     <row r="13" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="7">
-        <v>12</v>
+      <c r="A13" s="7" t="s">
+        <v>218</v>
       </c>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
@@ -4633,8 +4639,8 @@
       <c r="J13" s="7"/>
     </row>
     <row r="14" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="7">
-        <v>13</v>
+      <c r="A14" s="7" t="s">
+        <v>219</v>
       </c>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
@@ -4647,8 +4653,8 @@
       <c r="J14" s="7"/>
     </row>
     <row r="15" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="7">
-        <v>14</v>
+      <c r="A15" s="7" t="s">
+        <v>220</v>
       </c>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
@@ -4662,7 +4668,7 @@
     </row>
     <row r="16" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A16" s="7">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
@@ -4674,59 +4680,15 @@
       <c r="I16" s="7"/>
       <c r="J16" s="7"/>
     </row>
-    <row r="17" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="7">
-        <v>16</v>
-      </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-    </row>
-    <row r="18" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="7">
-        <v>17</v>
-      </c>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-    </row>
-    <row r="19" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="7">
-        <v>18</v>
-      </c>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="D1:J1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C5" r:id="rId1"/>
-    <hyperlink ref="C6" r:id="rId2"/>
-    <hyperlink ref="C3" r:id="rId3"/>
+    <hyperlink ref="C3" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/cases.xlsx
+++ b/cases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="320">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1231,10 +1231,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://sv.ismartgo.cn/couponsv/appcoupon/sendActivityCoupon.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>46</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1336,14 +1332,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>832776</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1、用户id
 3、断言：等级检查</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1354,19 +1342,28 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>784</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>获取用户状态</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>13450244170</t>
+    <t>打开红包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、用户id
+2、订单编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://192.168.1.243:29100/userlevel3/lv/getLv.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://192.168.1.243:29100/userlevel3/lv/isUpgradePrompt.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://192.168.1.243:29090/appsv2/app/openRedpackage.do</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1375,20 +1372,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>打开红包</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>123456</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、用户id
-2、订单编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>832776</t>
+    <t>http://192.168.1.243:29090/appsv2/app/getUserStatus.do?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>784</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>171129000017</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://sv.ismartgo.cn/couponsv/appcoupon/sendActivityCoupon.do</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1888,8 +1888,8 @@
   <dimension ref="A1:T50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B42" sqref="B42"/>
+      <pane ySplit="2" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -2057,7 +2057,7 @@
         <v>48</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
@@ -2362,13 +2362,13 @@
         <v>56</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>120</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>72</v>
@@ -3025,7 +3025,7 @@
       </c>
       <c r="C44" s="7"/>
       <c r="D44" s="7" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E44" s="7" t="s">
         <v>249</v>
@@ -3047,7 +3047,7 @@
       </c>
       <c r="C45" s="7"/>
       <c r="D45" s="7" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E45" s="7" t="s">
         <v>249</v>
@@ -3080,23 +3080,23 @@
         <v>72</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H46" s="7" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="I46" s="7"/>
       <c r="J46" s="7"/>
     </row>
     <row r="47" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A47" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="B47" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="B47" s="7" t="s">
+      <c r="C47" s="11" t="s">
         <v>286</v>
-      </c>
-      <c r="C47" s="11" t="s">
-        <v>287</v>
       </c>
       <c r="D47" s="7" t="s">
         <v>110</v>
@@ -3112,13 +3112,13 @@
     </row>
     <row r="48" spans="1:10" ht="49.5" x14ac:dyDescent="0.35">
       <c r="A48" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="B48" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="B48" s="7" t="s">
+      <c r="C48" s="11" t="s">
         <v>291</v>
-      </c>
-      <c r="C48" s="11" t="s">
-        <v>292</v>
       </c>
       <c r="D48" s="7" t="s">
         <v>256</v>
@@ -3130,10 +3130,10 @@
         <v>72</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H48" s="7" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="I48" s="7"/>
       <c r="J48" s="7"/>
@@ -3518,13 +3518,13 @@
         <v>217</v>
       </c>
       <c r="B12" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="C12" s="11" t="s">
         <v>298</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="D12" s="7" t="s">
         <v>299</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>300</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>76</v>
@@ -3974,7 +3974,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
@@ -4377,9 +4377,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4446,16 +4446,16 @@
     </row>
     <row r="3" spans="1:10" ht="99" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>232</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>284</v>
+        <v>319</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>120</v>
@@ -4470,20 +4470,22 @@
     </row>
     <row r="4" spans="1:10" ht="33" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="C4" s="7"/>
+        <v>304</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>311</v>
+      </c>
       <c r="D4" s="7" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>307</v>
+        <v>76</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>308</v>
+        <v>317</v>
       </c>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
@@ -4492,63 +4494,71 @@
     </row>
     <row r="5" spans="1:10" ht="49.5" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="C5" s="7"/>
+        <v>305</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>312</v>
+      </c>
       <c r="D5" s="7" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>312</v>
+        <v>151</v>
       </c>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
     </row>
-    <row r="6" spans="1:10" ht="33" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
         <v>211</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="C6" s="11"/>
+        <v>308</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>315</v>
+      </c>
       <c r="D6" s="7" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>314</v>
+        <v>120</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>317</v>
+        <v>65</v>
       </c>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
     </row>
-    <row r="7" spans="1:10" ht="33" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
         <v>212</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="C7" s="7"/>
+        <v>309</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>313</v>
+      </c>
       <c r="D7" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>318</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
@@ -4687,8 +4697,12 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="C3" r:id="rId1"/>
+    <hyperlink ref="C4" r:id="rId2"/>
+    <hyperlink ref="C5" r:id="rId3"/>
+    <hyperlink ref="C7" r:id="rId4"/>
+    <hyperlink ref="C6" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
--- a/cases.xlsx
+++ b/cases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="349">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -32,10 +32,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>广州市</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>当前城市中心位置getpositonCity</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -73,11 +69,6 @@
   </si>
   <si>
     <t>获取用户状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户id：784
-账号类型：4（微信）、1（手机）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -179,13 +170,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1、用户id
-2、城市名
-3、经度
-4、纬度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1、用户id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -202,18 +186,6 @@
   </si>
   <si>
     <t>到店签到列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、用户id
-2、城市名
-2、经度
-3、纬度
-4、页码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>广州</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -527,7 +499,326 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>16666666167</t>
+    <t>52</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、手机号
+2、登录密码
+3、商店id
+4、barcode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>113.368805</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23.152679</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16666666169</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>衣服</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3oBGt9adroqNBreI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>礼品兑换 -库存不足</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广东广州天河区五山</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8232</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8614</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>8242</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8215</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8162</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>礼品兑换 -礼品已过期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>礼品兑换 -礼品未上线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>礼品兑换 - 支付金额不足</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、用户id
+2、礼品id
+3、联系人
+4、电话号码
+5、兑换数量
+6、兑换类型（实物礼品、虚拟礼品）
+6、省、省id、市、市id、区域、区域id、商圈、商圈id、配送区域
+地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>礼品兑换 -精明豆不足</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>礼品兑换 -礼品已暂停</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、礼品id
+2、用户id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5141179</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、礼品id
+2、用户id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8606</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>礼品兑换 -用户等级不够</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5164462</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5172100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5172700</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16666666133</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16666666134</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16666666136</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16666666137</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5173904</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16666666138</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16666666139</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5174273</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5174368</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16666666140</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8124</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8149</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5174422</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16666666141</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16666666142</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16666666143</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5174651</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5174696</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>礼品兑换 -不在注册时间内</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>礼品兑换 -用户等级不够</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>39</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>礼品兑换 -我的兑换列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、用户id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>礼品兑换 -我的兑换详情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6971607</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>我的优惠券列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -535,15 +826,563 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>c111ae38-3147-429a-944d-13200913aa4e</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>52</t>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>528</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发放代金券（非客户端接口）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aaaoNh_lshvS3y5NBHzEnXjI4R0XUHc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、手机号码或者微信id
+2、登录密码
+3、状态：1未使用，2已使用，3已失效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优惠券详情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>1、手机号码或者微信id
+2、登录密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11、用户id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>784</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广告 - 首页广告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>41</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、用户id
+2、城市名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>832776</t>
+  </si>
+  <si>
+    <t>广告 - 拍立赚广告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、用户id
+2、城市名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>832776</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>42</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首页促销信息-您可能喜欢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://svr2.ismartgo.cn:29094/retailsv/app/retails/getHomePagePromotionsV36.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、用户id
+2、城市id
+3、经纬度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oNh_lshvS3y5NBHzEnXjI4R0XUHc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>116.43244</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首页促销信息-已关注的零售商</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://svr2.ismartgo.cn:29094/retailsv/app/home/getsubscribed.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>832776</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>39.921797</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关注零售商</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://svr2.ismartgo.cn:29094/retailsv/app/retails/subscribe.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>832776</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://svr2.ismartgo.cn:29094/retailsv/app/retails/subscribe.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取消关注零售商</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>832776</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、礼品id
+2、用户id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>43</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>44</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广告 - 邀请好友广告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广告 - 礼品兑换广告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>45</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首页功能推荐模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>784</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8241</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>46</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首页功能按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23.152634</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>113.368782</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>47</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>精明豆功能板块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、用户id
+2、城市名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、用户id
+2、cityid
+3、经度，lon
+4、纬度,lat
+5、页码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>123456</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>832776</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首页猜你喜欢促销信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、用户id
+2、城市id
+3、经纬度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1、uid
+2、coupon_type
+3、discount_value
+4、scene
+5、timestamp
+</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取用户等级信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户是否存在升等级提示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、用户id
+3、断言：等级检查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、用户id
+3、断言：是否存在升级提示(0-不存在,1-存在)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取用户状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打开红包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、用户id
+2、订单编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://192.168.1.243:29100/userlevel3/lv/getLv.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://192.168.1.243:29100/userlevel3/lv/isUpgradePrompt.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://192.168.1.243:29090/appsv2/app/openRedpackage.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、手机号码
+2、密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://192.168.1.243:29090/appsv2/app/getUserStatus.do?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>784</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>171129000017</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://sv.ismartgo.cn/couponsv/appcoupon/sendActivityCoupon.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>48</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>49</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改资料-头像</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>832776</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://img1.ismartgo.cn/android/784/head_0ca815de-77b8-4a61-8dd9-82b09a4b9be3.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、用户id
+2、logopath
+3、断言结果（接口返回的用户id比较）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://svr2.ismartgo.cn:29094/retailsv/app/retails/getHomePagePromotionsV36.do</t>
+  </si>
+  <si>
+    <t>促销优惠列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://svr2.ismartgo.cn:29094/retailsv/app/retails/getRetailPromotionsv36.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拍立赚-我的列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://appgamesv.ismartgo.cn/app/zbGameMyTasks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、用户id
+2、城市id
+3、经纬度
+4、状态（0全部、11已领取、2已通过、3未通过、12已失效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、用户id
+2、经度
+3、纬度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://wx2.ismartgo.com/mksv/goods/searchTaoBaoGoods</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/appsv2/app/getAdsPhoto.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/appsv2/app/allcity.do?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/appsv2/app/login.do?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/appsv2/app/getUserInfo.do?</t>
+  </si>
+  <si>
+    <t>/appsv2/app/synchroBeanNumber.do?</t>
+  </si>
+  <si>
+    <t>/appsv2/app/getAreaData.do?</t>
+  </si>
+  <si>
+    <t>/appsv2/app/shopScanList.do</t>
+  </si>
+  <si>
+    <t>/appsv2/app/getsearchtype2.do</t>
+  </si>
+  <si>
+    <t>/appsv2/app/categoryGiftList.do</t>
+  </si>
+  <si>
+    <t>/appsv2/app/exchangeGift_v3.do</t>
+  </si>
+  <si>
+    <t>/appsv2/app/mygiftlist.do</t>
+  </si>
+  <si>
+    <t>/appsv2/app/giftdetail.do</t>
+  </si>
+  <si>
+    <t>/appsv2/app/home/getrecommendsections.do</t>
+  </si>
+  <si>
+    <t>/appsv2/app/updateUser.do</t>
+  </si>
+  <si>
+    <t>/appsv2/app/wxLogin.do?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/appsv2/app/getUserStatus.do?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/appsv2/app/exchangeGift_v3.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>832776</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、用户id
+2、城市名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/appsv2/app/getappbuttonlistV37.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/appsv2/app/getBeanGameList.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/appsv2/app/login.do?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/appsv2/app/shopSignList.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/appsv2/app/signInShop_v2.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/appsv2/app/scanInGoods.do?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/appsv2/app/searchContent.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/appsv2/app/selectGoods.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/appsv2/app/searchShop.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/appsv2/app/searchGift.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/appsv2/app/subjectGiftList.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/couponsv/appcoupon/getMyCoupon.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兑换查询代金券列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/couponsv/appcoupon/getCouponDetailByCouponNum.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/appsv2/app/dailySign.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、用户id
+2、城市名
+2、经度
+3、纬度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>113.36882</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23.152706</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>832776</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13450244170</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -551,8 +1390,7 @@
       <t xml:space="preserve">
 1、手机号码
 2、登录密码
-3、设备号（一台设备一天只能签到一次
-4、城市id
+3、城市id
 </t>
     </r>
     <r>
@@ -563,896 +1401,100 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>5、数组id（签到列表第x个数据）</t>
+      <t>4、数组id（签到列表第x个数据，用于断言结果）</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1、手机号
-2、登录密码
-3、商店id
-4、barcode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>113.368805</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>23.152679</t>
+    <t>119142</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/couponsv/appcoupon/mygiftcoupons.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13450244170</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>119142</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>16666666169</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>衣服</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3oBGt9adroqNBreI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>礼品兑换 -库存不足</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>广东广州天河区五山</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8232</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>31</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8614</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>32</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>8242</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8215</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8162</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>礼品兑换 -礼品已过期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>礼品兑换 -礼品未上线</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>礼品兑换 - 支付金额不足</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、用户id
-2、礼品id
-3、联系人
-4、电话号码
-5、兑换数量
-6、兑换类型（实物礼品、虚拟礼品）
-6、省、省id、市、市id、区域、区域id、商圈、商圈id、配送区域
-地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>礼品兑换 -精明豆不足</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>礼品兑换 -礼品已暂停</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、礼品id
-2、用户id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5141179</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、礼品id
-2、用户id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8606</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>礼品兑换 -用户等级不够</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5164462</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5172100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5172700</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>16666666133</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>16666666134</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>16666666136</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>16666666137</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5173904</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>16666666138</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>16666666139</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5174273</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5174368</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>16666666140</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8124</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8149</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5174422</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>16666666141</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>16666666142</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>16666666143</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5174651</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5174696</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>礼品兑换 -不在注册时间内</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>礼品兑换 -用户等级不够</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>39</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>40</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>礼品兑换 -我的兑换列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、用户id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>礼品兑换 -我的兑换详情</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6971607</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>我的优惠券列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>123456</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>528</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1、手机号码
 2、登录密码
 3、零售商id
-4、状态(0,所有 1,已使用 )
-5、类型(1.代金券 2.优惠券3.现金券)
-6、页码（从1开始）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发放代金券（非客户端接口）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>aaaoNh_lshvS3y5NBHzEnXjI4R0XUHc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、手机号码或者微信id
-2、登录密码
-3、状态：1未使用，2已使用，3已失效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>优惠券详情</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>5195348</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、手机号码或者微信id
-2、登录密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://sv.ismartgo.cn/couponsv/appcoupon/getCouponDetailByCouponNum.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>oNh_lshvS3y5NBHzEnXjI4R0XUHc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11、用户id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>784</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>广告 - 首页广告</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>41</t>
+4、状态(
+5、类型(</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/appsv2/app/getAppSessionId.do?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>113.267344</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23.164018</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/appsv2/app/getPositionCity.do?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广州市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>113.267344</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23.164018</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10600893</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10600893</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15625431305</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1、用户id
-2、城市名称</t>
+2、城市名
+3、经纬度
+4、断言结果：返回城市名称判断</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、手机号码：
+2、密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13450244170</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、用户id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>832776</t>
-  </si>
-  <si>
-    <t>广告 - 拍立赚广告</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、用户id
-2、城市名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>832776</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>42</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>首页促销信息-您可能喜欢</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://svr2.ismartgo.cn:29094/retailsv/app/retails/getHomePagePromotionsV36.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、用户id
-2、城市id
-3、经纬度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>oNh_lshvS3y5NBHzEnXjI4R0XUHc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://sv.ismartgo.cn/couponsv/appcoupon/mygiftcoupons.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我的代金券列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>116.43244</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>首页促销信息-已关注的零售商</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://svr2.ismartgo.cn:29094/retailsv/app/home/getsubscribed.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>832776</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>39.921797</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关注零售商</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://svr2.ismartgo.cn:29094/retailsv/app/retails/subscribe.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>832776</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://svr2.ismartgo.cn:29094/retailsv/app/retails/subscribe.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>取消关注零售商</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>832776</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、礼品id
-2、用户id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>43</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>44</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>广告 - 邀请好友广告</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>广告 - 礼品兑换广告</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>45</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>首页功能推荐模块</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>784</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8241</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>46</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>首页功能按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>23.152634</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>113.368782</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>47</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>精明豆功能板块</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、用户id
-2、城市名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、用户id
-2、cityid
-3、经度，lon
-4、纬度,lat
-5、页码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>123456</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>832776</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>首页猜你喜欢促销信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、用户id
-2、城市id
-3、经纬度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1、uid
-2、coupon_type
-3、discount_value
-4、scene
-5、timestamp
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取用户等级信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户是否存在升等级提示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、用户id
-3、断言：等级检查</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、用户id
-3、断言：是否存在升级提示(0-不存在,1-存在)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取用户状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>打开红包</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、用户id
-2、订单编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://192.168.1.243:29100/userlevel3/lv/getLv.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://192.168.1.243:29100/userlevel3/lv/isUpgradePrompt.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://192.168.1.243:29090/appsv2/app/openRedpackage.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、手机号码
-2、密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://192.168.1.243:29090/appsv2/app/getUserStatus.do?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>784</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>171129000017</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://sv.ismartgo.cn/couponsv/appcoupon/sendActivityCoupon.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>48</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>49</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改资料-头像</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>832776</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://img1.ismartgo.cn/android/784/head_0ca815de-77b8-4a61-8dd9-82b09a4b9be3.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、用户id
-2、logopath
-3、断言结果（接口返回的用户id比较）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://svr2.ismartgo.cn:29094/retailsv/app/retails/getHomePagePromotionsV36.do</t>
-  </si>
-  <si>
-    <t>促销优惠列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://svr2.ismartgo.cn:29094/retailsv/app/retails/getRetailPromotionsv36.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>拍立赚-我的列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://appgamesv.ismartgo.cn/app/zbGameMyTasks</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、用户id
-2、城市id
-3、经纬度
-4、状态（0全部、11已领取、2已通过、3未通过、12已失效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、用户id
-2、经度
-3、纬度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/appsv2/app/getAppSessionId.do?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/appsv2/app/getPositionCity.do?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://wx2.ismartgo.com/mksv/goods/searchTaoBaoGoods</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/appsv2/app/getAdsPhoto.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/appsv2/app/allcity.do?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/appsv2/app/login.do?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/appsv2/app/getUserInfo.do?</t>
-  </si>
-  <si>
-    <t>/appsv2/app/synchroBeanNumber.do?</t>
-  </si>
-  <si>
-    <t>/appsv2/app/getAreaData.do?</t>
-  </si>
-  <si>
-    <t>/appsv2/app/dailySign.do</t>
-  </si>
-  <si>
-    <t>/appsv2/app/shopScanList.do</t>
-  </si>
-  <si>
-    <t>/appsv2/app/getsearchtype2.do</t>
-  </si>
-  <si>
-    <t>/appsv2/app/categoryGiftList.do</t>
-  </si>
-  <si>
-    <t>/appsv2/app/exchangeGift_v3.do</t>
-  </si>
-  <si>
-    <t>/appsv2/app/mygiftlist.do</t>
-  </si>
-  <si>
-    <t>/appsv2/app/giftdetail.do</t>
-  </si>
-  <si>
-    <t>/appsv2/app/home/getrecommendsections.do</t>
-  </si>
-  <si>
-    <t>/appsv2/app/updateUser.do</t>
-  </si>
-  <si>
-    <t>/appsv2/app/wxLogin.do?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/appsv2/app/getUserStatus.do?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/appsv2/app/exchangeGift_v3.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>北京</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>832776</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、用户id
-2、城市名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/appsv2/app/getappbuttonlistV37.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/appsv2/app/getBeanGameList.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/appsv2/app/login.do?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/appsv2/app/shopSignList.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/appsv2/app/signInShop_v2.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/appsv2/app/scanInGoods.do?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/appsv2/app/searchContent.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/appsv2/app/selectGoods.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/appsv2/app/searchShop.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/appsv2/app/searchGift.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/appsv2/app/subjectGiftList.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/couponsv/appcoupon/getMyCoupon.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>76</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1578,7 +1620,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -1604,9 +1646,6 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1623,15 +1662,6 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1642,6 +1672,15 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1951,16 +1990,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G48" sqref="G48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="7.125" style="7" customWidth="1"/>
     <col min="2" max="2" width="18.875" style="7" customWidth="1"/>
-    <col min="3" max="3" width="26.75" style="22" customWidth="1"/>
+    <col min="3" max="3" width="26.75" style="18" customWidth="1"/>
     <col min="4" max="4" width="24.625" style="7" customWidth="1"/>
     <col min="5" max="5" width="11.25" style="7" customWidth="1"/>
     <col min="6" max="6" width="14.625" style="7" customWidth="1"/>
@@ -1975,14 +2014,14 @@
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="15" t="s">
-        <v>67</v>
+        <v>4</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>62</v>
       </c>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
@@ -1993,15 +2032,15 @@
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="14">
+        <v>5</v>
+      </c>
+      <c r="B2" s="13">
         <v>1</v>
       </c>
       <c r="C2" s="4">
         <v>2</v>
       </c>
-      <c r="D2" s="15">
+      <c r="D2" s="14">
         <v>3</v>
       </c>
       <c r="E2" s="4">
@@ -2057,23 +2096,23 @@
       <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="13" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>301</v>
-      </c>
-      <c r="E3" s="4">
-        <v>832776</v>
-      </c>
-      <c r="F3" s="4">
-        <v>113.26734399999999</v>
-      </c>
-      <c r="G3" s="4">
-        <v>23.164017999999999</v>
+        <v>333</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>284</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>335</v>
       </c>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
@@ -2083,45 +2122,47 @@
       <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="14" t="s">
-        <v>4</v>
+      <c r="B4" s="13" t="s">
+        <v>3</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>303</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="E4" s="4">
-        <v>832776</v>
+        <v>336</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>343</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>71</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G4" s="4">
-        <v>113.26734399999999</v>
-      </c>
-      <c r="H4" s="4">
-        <v>23.164017999999999</v>
-      </c>
-      <c r="I4" s="4"/>
+        <v>337</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="14" t="s">
-        <v>17</v>
+      <c r="B5" s="13" t="s">
+        <v>15</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>306</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>35</v>
+        <v>287</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>32</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>264</v>
+        <v>248</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
@@ -2133,23 +2174,23 @@
       <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="14" t="s">
-        <v>8</v>
+      <c r="B6" s="13" t="s">
+        <v>7</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>328</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="E6" s="4">
-        <v>10600893</v>
-      </c>
-      <c r="F6" s="9">
-        <v>15625431305</v>
+        <v>308</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>342</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
@@ -2159,23 +2200,23 @@
       <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7" s="14" t="s">
-        <v>7</v>
+      <c r="B7" s="13" t="s">
+        <v>6</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>307</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7" s="4">
-        <v>10600893</v>
-      </c>
-      <c r="F7" s="4">
-        <v>13450244170</v>
+        <v>288</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>91</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
@@ -2185,20 +2226,20 @@
       <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B8" s="14" t="s">
-        <v>9</v>
+      <c r="B8" s="13" t="s">
+        <v>8</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>320</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>37</v>
+        <v>300</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>34</v>
       </c>
       <c r="E8" s="4">
         <v>15437366</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
@@ -2209,16 +2250,16 @@
       <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="B9" s="14" t="s">
-        <v>11</v>
+      <c r="B9" s="13" t="s">
+        <v>10</v>
       </c>
       <c r="C9" s="4"/>
-      <c r="D9" s="15" t="s">
-        <v>105</v>
+      <c r="D9" s="14" t="s">
+        <v>100</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
@@ -2229,11 +2270,11 @@
       <c r="A10" s="4">
         <v>9</v>
       </c>
-      <c r="B10" s="14" t="s">
-        <v>10</v>
+      <c r="B10" s="13" t="s">
+        <v>9</v>
       </c>
       <c r="C10" s="4"/>
-      <c r="D10" s="15"/>
+      <c r="D10" s="14"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
@@ -2241,21 +2282,21 @@
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
     </row>
-    <row r="11" spans="1:20" ht="33" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A11" s="4">
         <v>10</v>
       </c>
-      <c r="B11" s="14" t="s">
-        <v>12</v>
+      <c r="B11" s="13" t="s">
+        <v>11</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>308</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>216</v>
+        <v>289</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>202</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
@@ -2263,66 +2304,70 @@
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
     </row>
-    <row r="12" spans="1:20" ht="49.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:20" ht="33" x14ac:dyDescent="0.35">
       <c r="A12" s="4">
         <v>11</v>
       </c>
-      <c r="B12" s="14" t="s">
-        <v>13</v>
+      <c r="B12" s="13" t="s">
+        <v>12</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>321</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
+        <v>301</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>344</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>44</v>
+      </c>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
     </row>
-    <row r="13" spans="1:20" ht="49.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:20" ht="33" x14ac:dyDescent="0.35">
       <c r="A13" s="4">
         <v>12</v>
       </c>
-      <c r="B13" s="14" t="s">
-        <v>15</v>
+      <c r="B13" s="13" t="s">
+        <v>13</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>309</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>16</v>
+        <v>290</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>14</v>
       </c>
       <c r="E13" s="4">
         <v>784</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="G13" s="4"/>
       <c r="H13" s="5"/>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
     </row>
-    <row r="14" spans="1:20" ht="49.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:20" ht="33" x14ac:dyDescent="0.35">
       <c r="A14" s="4">
         <v>13</v>
       </c>
-      <c r="B14" s="14" t="s">
-        <v>18</v>
+      <c r="B14" s="13" t="s">
+        <v>16</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>310</v>
-      </c>
-      <c r="D14" s="15" t="s">
-        <v>19</v>
+        <v>291</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>17</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G14" s="4">
         <v>784</v>
@@ -2331,21 +2376,21 @@
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
     </row>
-    <row r="15" spans="1:20" ht="33" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A15" s="4">
         <v>14</v>
       </c>
-      <c r="B15" s="14" t="s">
-        <v>31</v>
+      <c r="B15" s="13" t="s">
+        <v>29</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>32</v>
+        <v>321</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>30</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>212</v>
+        <v>53</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
@@ -2353,124 +2398,122 @@
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
     </row>
-    <row r="16" spans="1:20" ht="82.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:20" ht="66" x14ac:dyDescent="0.35">
       <c r="A16" s="4">
         <v>15</v>
       </c>
-      <c r="B16" s="14" t="s">
-        <v>38</v>
+      <c r="B16" s="13" t="s">
+        <v>35</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>329</v>
-      </c>
-      <c r="D16" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="E16" s="4">
-        <v>832776</v>
+        <v>309</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>322</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>325</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="G16" s="4">
-        <v>113.36882</v>
-      </c>
-      <c r="H16" s="4">
-        <v>23.152705999999998</v>
-      </c>
-      <c r="I16" s="4">
-        <v>1</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="I16" s="4"/>
       <c r="J16" s="4"/>
     </row>
-    <row r="17" spans="1:19" ht="132" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:19" ht="99" x14ac:dyDescent="0.35">
       <c r="A17" s="4">
         <v>16</v>
       </c>
-      <c r="B17" s="14" t="s">
-        <v>33</v>
+      <c r="B17" s="13" t="s">
+        <v>31</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>330</v>
-      </c>
-      <c r="D17" s="15" t="s">
-        <v>118</v>
+        <v>310</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>327</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>113</v>
+        <v>326</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>114</v>
+        <v>44</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:19" ht="82.5" x14ac:dyDescent="0.35">
       <c r="A18" s="4">
         <v>17</v>
       </c>
-      <c r="B18" s="14" t="s">
-        <v>41</v>
+      <c r="B18" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>312</v>
-      </c>
-      <c r="D18" s="15" t="s">
-        <v>262</v>
+        <v>292</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>246</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>263</v>
+        <v>247</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
     </row>
     <row r="19" spans="1:19" ht="66" x14ac:dyDescent="0.35">
       <c r="A19" s="4">
         <v>18</v>
       </c>
-      <c r="B19" s="19" t="s">
-        <v>29</v>
+      <c r="B19" s="15" t="s">
+        <v>27</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>331</v>
-      </c>
-      <c r="D19" s="20" t="s">
-        <v>119</v>
+        <v>311</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>110</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>123</v>
+        <v>328</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
@@ -2480,22 +2523,22 @@
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>304</v>
-      </c>
-      <c r="D20" s="21" t="s">
-        <v>28</v>
+        <v>285</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>26</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="F20" s="1">
         <v>832776</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
@@ -2505,44 +2548,44 @@
       <c r="A21" s="4">
         <v>20</v>
       </c>
-      <c r="B21" s="14" t="s">
+      <c r="B21" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="D21" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="C21" s="4" t="s">
-        <v>332</v>
-      </c>
-      <c r="D21" s="15" t="s">
-        <v>57</v>
-      </c>
       <c r="E21" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="H21" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="F21" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="H21" s="10" t="s">
-        <v>59</v>
-      </c>
       <c r="I21" s="4" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="J21" s="4"/>
     </row>
-    <row r="22" spans="1:19" ht="49.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:19" ht="33" x14ac:dyDescent="0.35">
       <c r="A22" s="4">
         <v>21</v>
       </c>
-      <c r="B22" s="14" t="s">
-        <v>53</v>
+      <c r="B22" s="13" t="s">
+        <v>48</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>313</v>
-      </c>
-      <c r="D22" s="15" t="s">
-        <v>60</v>
+        <v>293</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>55</v>
       </c>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
@@ -2555,26 +2598,26 @@
       <c r="A23" s="4">
         <v>22</v>
       </c>
-      <c r="B23" s="14" t="s">
-        <v>64</v>
+      <c r="B23" s="13" t="s">
+        <v>59</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>333</v>
-      </c>
-      <c r="D23" s="15" t="s">
-        <v>62</v>
+        <v>313</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>57</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
@@ -2583,14 +2626,14 @@
       <c r="A24" s="4">
         <v>23</v>
       </c>
-      <c r="B24" s="14" t="s">
-        <v>65</v>
+      <c r="B24" s="13" t="s">
+        <v>60</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="D24" s="15" t="s">
-        <v>66</v>
+        <v>314</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>61</v>
       </c>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
@@ -2603,20 +2646,20 @@
       <c r="A25" s="4">
         <v>24</v>
       </c>
-      <c r="B25" s="14" t="s">
-        <v>74</v>
+      <c r="B25" s="13" t="s">
+        <v>69</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>335</v>
-      </c>
-      <c r="D25" s="15" t="s">
-        <v>75</v>
+        <v>315</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>70</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
@@ -2627,17 +2670,17 @@
       <c r="A26" s="4">
         <v>25</v>
       </c>
-      <c r="B26" s="14" t="s">
-        <v>87</v>
+      <c r="B26" s="13" t="s">
+        <v>82</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>336</v>
-      </c>
-      <c r="D26" s="15" t="s">
-        <v>88</v>
+        <v>316</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>83</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
@@ -2645,21 +2688,21 @@
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
     </row>
-    <row r="27" spans="1:19" ht="49.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A27" s="4">
         <v>26</v>
       </c>
-      <c r="B27" s="14" t="s">
-        <v>91</v>
+      <c r="B27" s="13" t="s">
+        <v>86</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>314</v>
-      </c>
-      <c r="D27" s="15" t="s">
-        <v>88</v>
+        <v>294</v>
+      </c>
+      <c r="D27" s="14" t="s">
+        <v>83</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
@@ -2671,83 +2714,83 @@
       <c r="A28" s="4">
         <v>27</v>
       </c>
-      <c r="B28" s="14" t="s">
+      <c r="B28" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="D28" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="J28" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C28" s="4" t="s">
-        <v>322</v>
-      </c>
-      <c r="D28" s="15" t="s">
-        <v>147</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="F28" s="4" t="s">
+      <c r="K28" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="G28" s="4" t="s">
+      <c r="L28" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="M28" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="N28" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="H28" s="4" t="s">
+      <c r="O28" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="I28" s="4" t="s">
+      <c r="P28" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="J28" s="4" t="s">
+      <c r="Q28" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="R28" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="S28" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="M28" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="N28" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="O28" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="R28" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="S28" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="29" spans="1:19" ht="66" x14ac:dyDescent="0.35">
       <c r="A29" s="4">
         <v>28</v>
       </c>
-      <c r="B29" s="14" t="s">
-        <v>109</v>
+      <c r="B29" s="13" t="s">
+        <v>104</v>
       </c>
       <c r="C29" s="4"/>
-      <c r="D29" s="15" t="s">
-        <v>111</v>
+      <c r="D29" s="14" t="s">
+        <v>106</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
@@ -2756,75 +2799,75 @@
       <c r="A30" s="4">
         <v>29</v>
       </c>
-      <c r="B30" s="14" t="s">
-        <v>128</v>
+      <c r="B30" s="13" t="s">
+        <v>118</v>
       </c>
       <c r="C30" s="4"/>
-      <c r="D30" s="15" t="s">
-        <v>150</v>
+      <c r="D30" s="14" t="s">
+        <v>140</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
       <c r="J30" s="4"/>
     </row>
-    <row r="31" spans="1:19" ht="49.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:19" ht="33" x14ac:dyDescent="0.35">
       <c r="A31" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="B31" s="14" t="s">
-        <v>146</v>
+        <v>119</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>136</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="D31" s="15" t="s">
-        <v>246</v>
+        <v>295</v>
+      </c>
+      <c r="D31" s="14" t="s">
+        <v>230</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>253</v>
+        <v>237</v>
       </c>
       <c r="G31" s="4"/>
       <c r="H31" s="4" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="J31" s="4" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
     </row>
     <row r="32" spans="1:19" ht="33" x14ac:dyDescent="0.35">
       <c r="A32" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="B32" s="14" t="s">
-        <v>148</v>
+        <v>122</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>138</v>
       </c>
       <c r="C32" s="4"/>
-      <c r="D32" s="15" t="s">
+      <c r="D32" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="G32" s="4" t="s">
         <v>150</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="G32" s="4" t="s">
-        <v>160</v>
       </c>
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
@@ -2832,23 +2875,23 @@
     </row>
     <row r="33" spans="1:10" ht="33" x14ac:dyDescent="0.35">
       <c r="A33" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="B33" s="14" t="s">
-        <v>145</v>
+        <v>124</v>
+      </c>
+      <c r="B33" s="13" t="s">
+        <v>135</v>
       </c>
       <c r="C33" s="4"/>
-      <c r="D33" s="15" t="s">
-        <v>150</v>
+      <c r="D33" s="14" t="s">
+        <v>140</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
@@ -2856,23 +2899,23 @@
     </row>
     <row r="34" spans="1:10" ht="33" x14ac:dyDescent="0.35">
       <c r="A34" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="B34" s="14" t="s">
-        <v>144</v>
+        <v>125</v>
+      </c>
+      <c r="B34" s="13" t="s">
+        <v>134</v>
       </c>
       <c r="C34" s="4"/>
-      <c r="D34" s="15" t="s">
+      <c r="D34" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="F34" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="E34" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>162</v>
-      </c>
       <c r="G34" s="4" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="H34" s="4"/>
       <c r="I34" s="4"/>
@@ -2880,23 +2923,23 @@
     </row>
     <row r="35" spans="1:10" ht="33" x14ac:dyDescent="0.35">
       <c r="A35" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="B35" s="14" t="s">
-        <v>149</v>
+        <v>126</v>
+      </c>
+      <c r="B35" s="13" t="s">
+        <v>139</v>
       </c>
       <c r="C35" s="4"/>
-      <c r="D35" s="15" t="s">
-        <v>152</v>
+      <c r="D35" s="14" t="s">
+        <v>142</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
@@ -2904,23 +2947,23 @@
     </row>
     <row r="36" spans="1:10" ht="33" x14ac:dyDescent="0.35">
       <c r="A36" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="B36" s="14" t="s">
-        <v>154</v>
+        <v>127</v>
+      </c>
+      <c r="B36" s="13" t="s">
+        <v>144</v>
       </c>
       <c r="C36" s="4"/>
-      <c r="D36" s="15" t="s">
-        <v>150</v>
+      <c r="D36" s="14" t="s">
+        <v>140</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
@@ -2928,23 +2971,23 @@
     </row>
     <row r="37" spans="1:10" ht="33" x14ac:dyDescent="0.35">
       <c r="A37" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="B37" s="14" t="s">
-        <v>176</v>
+        <v>128</v>
+      </c>
+      <c r="B37" s="13" t="s">
+        <v>166</v>
       </c>
       <c r="C37" s="4"/>
-      <c r="D37" s="15" t="s">
-        <v>150</v>
+      <c r="D37" s="14" t="s">
+        <v>140</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="H37" s="4"/>
       <c r="I37" s="4"/>
@@ -2952,21 +2995,21 @@
     </row>
     <row r="38" spans="1:10" ht="33" x14ac:dyDescent="0.35">
       <c r="A38" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="B38" s="14" t="s">
-        <v>177</v>
+        <v>129</v>
+      </c>
+      <c r="B38" s="13" t="s">
+        <v>167</v>
       </c>
       <c r="C38" s="4"/>
-      <c r="D38" s="15" t="s">
-        <v>150</v>
+      <c r="D38" s="14" t="s">
+        <v>140</v>
       </c>
       <c r="E38" s="4"/>
       <c r="F38" s="4" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="H38" s="4"/>
       <c r="I38" s="4"/>
@@ -2974,41 +3017,41 @@
     </row>
     <row r="39" spans="1:10" ht="33" x14ac:dyDescent="0.35">
       <c r="A39" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B39" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="C39" s="4"/>
+      <c r="D39" s="14" t="s">
         <v>140</v>
-      </c>
-      <c r="B39" s="14" t="s">
-        <v>154</v>
-      </c>
-      <c r="C39" s="4"/>
-      <c r="D39" s="15" t="s">
-        <v>150</v>
       </c>
       <c r="E39" s="4"/>
       <c r="F39" s="4" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="H39" s="4"/>
       <c r="I39" s="4"/>
       <c r="J39" s="4"/>
     </row>
-    <row r="40" spans="1:10" ht="33" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="B40" s="14" t="s">
-        <v>180</v>
+        <v>168</v>
+      </c>
+      <c r="B40" s="13" t="s">
+        <v>170</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>316</v>
-      </c>
-      <c r="D40" s="15" t="s">
-        <v>181</v>
+        <v>296</v>
+      </c>
+      <c r="D40" s="14" t="s">
+        <v>171</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="F40" s="4"/>
       <c r="G40" s="4"/>
@@ -3016,17 +3059,17 @@
       <c r="I40" s="4"/>
       <c r="J40" s="4"/>
     </row>
-    <row r="41" spans="1:10" ht="33" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="B41" s="14" t="s">
-        <v>182</v>
+        <v>169</v>
+      </c>
+      <c r="B41" s="13" t="s">
+        <v>172</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>317</v>
-      </c>
-      <c r="D41" s="15"/>
+        <v>297</v>
+      </c>
+      <c r="D41" s="14"/>
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
       <c r="G41" s="4"/>
@@ -3036,22 +3079,22 @@
     </row>
     <row r="42" spans="1:10" ht="33" x14ac:dyDescent="0.35">
       <c r="A42" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="B42" s="14" t="s">
-        <v>218</v>
+        <v>205</v>
+      </c>
+      <c r="B42" s="13" t="s">
+        <v>204</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>305</v>
-      </c>
-      <c r="D42" s="15" t="s">
-        <v>220</v>
+        <v>286</v>
+      </c>
+      <c r="D42" s="14" t="s">
+        <v>206</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="G42" s="4"/>
       <c r="H42" s="4"/>
@@ -3060,20 +3103,20 @@
     </row>
     <row r="43" spans="1:10" ht="33" x14ac:dyDescent="0.35">
       <c r="A43" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="B43" s="14" t="s">
-        <v>222</v>
+        <v>211</v>
+      </c>
+      <c r="B43" s="13" t="s">
+        <v>208</v>
       </c>
       <c r="C43" s="4"/>
-      <c r="D43" s="15" t="s">
-        <v>223</v>
+      <c r="D43" s="14" t="s">
+        <v>209</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="G43" s="4"/>
       <c r="H43" s="4"/>
@@ -3082,20 +3125,20 @@
     </row>
     <row r="44" spans="1:10" ht="33" x14ac:dyDescent="0.35">
       <c r="A44" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="B44" s="14" t="s">
-        <v>249</v>
+        <v>231</v>
+      </c>
+      <c r="B44" s="13" t="s">
+        <v>233</v>
       </c>
       <c r="C44" s="4"/>
-      <c r="D44" s="15" t="s">
-        <v>261</v>
+      <c r="D44" s="14" t="s">
+        <v>245</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="G44" s="4"/>
       <c r="H44" s="4"/>
@@ -3104,20 +3147,20 @@
     </row>
     <row r="45" spans="1:10" ht="33" x14ac:dyDescent="0.35">
       <c r="A45" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="B45" s="14" t="s">
-        <v>250</v>
+        <v>232</v>
+      </c>
+      <c r="B45" s="13" t="s">
+        <v>234</v>
       </c>
       <c r="C45" s="4"/>
-      <c r="D45" s="15" t="s">
-        <v>325</v>
+      <c r="D45" s="14" t="s">
+        <v>305</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>324</v>
+        <v>304</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>323</v>
+        <v>303</v>
       </c>
       <c r="G45" s="4"/>
       <c r="H45" s="4"/>
@@ -3126,47 +3169,47 @@
     </row>
     <row r="46" spans="1:10" ht="49.5" x14ac:dyDescent="0.35">
       <c r="A46" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="B46" s="14" t="s">
-        <v>252</v>
+        <v>235</v>
+      </c>
+      <c r="B46" s="13" t="s">
+        <v>236</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>318</v>
-      </c>
-      <c r="D46" s="15" t="s">
-        <v>228</v>
+        <v>298</v>
+      </c>
+      <c r="D46" s="14" t="s">
+        <v>214</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
       <c r="I46" s="4"/>
       <c r="J46" s="4"/>
     </row>
     <row r="47" spans="1:10" ht="33" x14ac:dyDescent="0.35">
       <c r="A47" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B47" s="14" t="s">
-        <v>256</v>
+        <v>239</v>
+      </c>
+      <c r="B47" s="13" t="s">
+        <v>240</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>326</v>
-      </c>
-      <c r="D47" s="15" t="s">
-        <v>88</v>
+        <v>306</v>
+      </c>
+      <c r="D47" s="14" t="s">
+        <v>346</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>221</v>
+        <v>347</v>
       </c>
       <c r="F47" s="4"/>
       <c r="G47" s="4"/>
@@ -3176,53 +3219,53 @@
     </row>
     <row r="48" spans="1:10" ht="49.5" x14ac:dyDescent="0.35">
       <c r="A48" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="B48" s="14" t="s">
-        <v>260</v>
+        <v>243</v>
+      </c>
+      <c r="B48" s="13" t="s">
+        <v>244</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>327</v>
-      </c>
-      <c r="D48" s="15" t="s">
-        <v>228</v>
+        <v>307</v>
+      </c>
+      <c r="D48" s="14" t="s">
+        <v>214</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>54</v>
+        <v>348</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
       <c r="I48" s="4"/>
       <c r="J48" s="4"/>
     </row>
     <row r="49" spans="1:10" ht="97.5" x14ac:dyDescent="0.35">
       <c r="A49" s="4" t="s">
-        <v>288</v>
-      </c>
-      <c r="B49" s="14" t="s">
-        <v>290</v>
+        <v>271</v>
+      </c>
+      <c r="B49" s="13" t="s">
+        <v>273</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>319</v>
-      </c>
-      <c r="D49" s="15" t="s">
-        <v>293</v>
+        <v>299</v>
+      </c>
+      <c r="D49" s="14" t="s">
+        <v>276</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>291</v>
+        <v>274</v>
       </c>
       <c r="F49" s="8" t="s">
-        <v>292</v>
+        <v>275</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>291</v>
+        <v>274</v>
       </c>
       <c r="H49" s="4"/>
       <c r="I49" s="4"/>
@@ -3230,11 +3273,11 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A50" s="4" t="s">
-        <v>289</v>
-      </c>
-      <c r="B50" s="14"/>
+        <v>272</v>
+      </c>
+      <c r="B50" s="13"/>
       <c r="C50" s="4"/>
-      <c r="D50" s="15"/>
+      <c r="D50" s="14"/>
       <c r="E50" s="4"/>
       <c r="F50" s="4"/>
       <c r="G50" s="4"/>
@@ -3264,16 +3307,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="7" style="11" customWidth="1"/>
-    <col min="2" max="2" width="17.625" style="11" customWidth="1"/>
-    <col min="3" max="3" width="33.125" style="11" customWidth="1"/>
-    <col min="4" max="4" width="34.625" style="11" customWidth="1"/>
-    <col min="5" max="5" width="9" style="11"/>
-    <col min="6" max="6" width="10.625" style="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.125" style="11" customWidth="1"/>
-    <col min="8" max="8" width="18" style="11" customWidth="1"/>
-    <col min="9" max="9" width="11.75" style="11" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="11"/>
+    <col min="1" max="1" width="7" style="10" customWidth="1"/>
+    <col min="2" max="2" width="17.625" style="10" customWidth="1"/>
+    <col min="3" max="3" width="33.125" style="10" customWidth="1"/>
+    <col min="4" max="4" width="34.625" style="10" customWidth="1"/>
+    <col min="5" max="5" width="9" style="10"/>
+    <col min="6" max="6" width="10.625" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.125" style="10" customWidth="1"/>
+    <col min="8" max="8" width="18" style="10" customWidth="1"/>
+    <col min="9" max="9" width="11.75" style="10" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="7" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -3284,21 +3327,21 @@
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="18"/>
+        <v>4</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="21"/>
     </row>
     <row r="2" spans="1:10" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" s="4">
         <v>1</v>
@@ -3333,22 +3376,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>23</v>
       </c>
       <c r="F3" s="4">
         <v>832776</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
@@ -3359,22 +3402,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C4" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>43</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>48</v>
       </c>
       <c r="F4" s="4">
         <v>784</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
@@ -3385,22 +3428,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>107</v>
+        <v>37</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>102</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H5" s="4">
         <v>43031.7421875</v>
@@ -3409,7 +3452,7 @@
         <v>1</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="99" x14ac:dyDescent="0.35">
@@ -3417,22 +3460,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>27</v>
+        <v>39</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>25</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H6" s="4">
         <v>43032.7421875</v>
@@ -3449,26 +3492,26 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="J7" s="4"/>
     </row>
@@ -3477,72 +3520,72 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>232</v>
+        <v>216</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
     </row>
     <row r="9" spans="1:10" ht="49.5" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
-        <v>242</v>
+        <v>226</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>233</v>
+        <v>217</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>235</v>
+        <v>219</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>236</v>
+        <v>220</v>
       </c>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
     </row>
     <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
-        <v>240</v>
+        <v>224</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>237</v>
+        <v>221</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>238</v>
+        <v>222</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
@@ -3552,19 +3595,19 @@
     </row>
     <row r="11" spans="1:10" ht="30" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
-        <v>241</v>
+        <v>225</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>244</v>
+        <v>228</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>243</v>
+        <v>227</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>245</v>
+        <v>229</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
@@ -3574,63 +3617,63 @@
     </row>
     <row r="12" spans="1:10" ht="49.5" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>265</v>
+        <v>249</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>294</v>
+        <v>277</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>266</v>
+        <v>250</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
     </row>
     <row r="13" spans="1:10" ht="49.5" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>295</v>
+        <v>278</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>296</v>
+        <v>279</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
     </row>
     <row r="14" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -3644,7 +3687,7 @@
     </row>
     <row r="15" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -3658,7 +3701,7 @@
     </row>
     <row r="16" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -3702,16 +3745,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="7" style="11" customWidth="1"/>
-    <col min="2" max="2" width="17.625" style="11" customWidth="1"/>
-    <col min="3" max="3" width="33.125" style="11" customWidth="1"/>
-    <col min="4" max="4" width="34.625" style="11" customWidth="1"/>
-    <col min="5" max="5" width="9" style="11"/>
-    <col min="6" max="6" width="10.625" style="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.125" style="11" customWidth="1"/>
-    <col min="8" max="8" width="13.75" style="11" customWidth="1"/>
-    <col min="9" max="9" width="11.75" style="11" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="11"/>
+    <col min="1" max="1" width="7" style="10" customWidth="1"/>
+    <col min="2" max="2" width="17.625" style="10" customWidth="1"/>
+    <col min="3" max="3" width="33.125" style="10" customWidth="1"/>
+    <col min="4" max="4" width="34.625" style="10" customWidth="1"/>
+    <col min="5" max="5" width="9" style="10"/>
+    <col min="6" max="6" width="10.625" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.125" style="10" customWidth="1"/>
+    <col min="8" max="8" width="13.75" style="10" customWidth="1"/>
+    <col min="9" max="9" width="11.75" style="10" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="7" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -3722,21 +3765,21 @@
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="18"/>
+        <v>4</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="21"/>
     </row>
     <row r="2" spans="1:10" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" s="4">
         <v>1</v>
@@ -3771,19 +3814,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>80</v>
+        <v>73</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>75</v>
       </c>
       <c r="E3" s="4">
         <v>832776</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="G3" s="5">
         <v>52</v>
@@ -3801,13 +3844,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>86</v>
+        <v>78</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>81</v>
       </c>
       <c r="E4" s="4">
         <v>832776</v>
@@ -3825,13 +3868,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>86</v>
+        <v>80</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>81</v>
       </c>
       <c r="E5" s="4">
         <v>832776</v>
@@ -3849,22 +3892,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>27</v>
+        <v>39</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>25</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H6" s="4">
         <v>43032.7421875</v>
@@ -3881,13 +3924,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E7" s="4">
         <v>832776</v>
@@ -3896,13 +3939,13 @@
         <v>52</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="J7" s="4"/>
     </row>
@@ -3911,28 +3954,28 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>297</v>
+        <v>280</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>298</v>
+        <v>281</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>299</v>
+        <v>282</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>300</v>
+        <v>283</v>
       </c>
       <c r="J8" s="4"/>
     </row>
@@ -4066,18 +4109,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9" style="11"/>
-    <col min="2" max="2" width="16.5" style="11" customWidth="1"/>
-    <col min="3" max="3" width="27" style="11" customWidth="1"/>
-    <col min="4" max="4" width="17.75" style="11" customWidth="1"/>
-    <col min="5" max="5" width="15.5" style="11" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="11"/>
+    <col min="1" max="1" width="9" style="10"/>
+    <col min="2" max="2" width="16.5" style="10" customWidth="1"/>
+    <col min="3" max="3" width="27" style="10" customWidth="1"/>
+    <col min="4" max="4" width="17.75" style="10" customWidth="1"/>
+    <col min="5" max="5" width="15.5" style="10" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
@@ -4088,21 +4131,21 @@
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="18"/>
+        <v>4</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="21"/>
     </row>
     <row r="2" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" s="4">
         <v>1</v>
@@ -4114,7 +4157,7 @@
         <v>3</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="F2" s="4">
         <v>5</v>
@@ -4134,89 +4177,87 @@
     </row>
     <row r="3" spans="1:10" ht="66" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>337</v>
+        <v>189</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>317</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>96</v>
+        <v>330</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
     </row>
-    <row r="4" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" ht="33" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>214</v>
+        <v>197</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>320</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>215</v>
+        <v>91</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
     </row>
-    <row r="5" spans="1:10" ht="132" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" ht="82.5" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>230</v>
+        <v>319</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>329</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>204</v>
+        <v>332</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>287</v>
+        <v>331</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>46</v>
-      </c>
+        <v>318</v>
+      </c>
+      <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -4230,7 +4271,7 @@
     </row>
     <row r="7" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -4244,7 +4285,7 @@
     </row>
     <row r="8" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -4258,7 +4299,7 @@
     </row>
     <row r="9" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -4272,7 +4313,7 @@
     </row>
     <row r="10" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -4286,7 +4327,7 @@
     </row>
     <row r="11" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -4300,7 +4341,7 @@
     </row>
     <row r="12" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -4314,7 +4355,7 @@
     </row>
     <row r="13" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -4328,7 +4369,7 @@
     </row>
     <row r="14" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -4342,7 +4383,7 @@
     </row>
     <row r="15" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -4356,7 +4397,7 @@
     </row>
     <row r="16" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -4370,7 +4411,7 @@
     </row>
     <row r="17" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -4384,7 +4425,7 @@
     </row>
     <row r="18" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -4398,7 +4439,7 @@
     </row>
     <row r="19" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -4412,7 +4453,7 @@
     </row>
     <row r="20" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -4426,7 +4467,7 @@
     </row>
     <row r="21" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -4455,13 +4496,8 @@
     <mergeCell ref="D1:J1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" display="https://sv.ismartgo.cn/couponsv/appcoupon/getMyCoupon.do"/>
-    <hyperlink ref="C4" r:id="rId2"/>
-    <hyperlink ref="C5" r:id="rId3"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4476,12 +4512,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9" style="11"/>
-    <col min="2" max="2" width="13.25" style="11" customWidth="1"/>
-    <col min="3" max="3" width="26.875" style="11" customWidth="1"/>
-    <col min="4" max="4" width="28.625" style="11" customWidth="1"/>
-    <col min="5" max="5" width="15.25" style="11" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="11"/>
+    <col min="1" max="1" width="9" style="10"/>
+    <col min="2" max="2" width="13.25" style="10" customWidth="1"/>
+    <col min="3" max="3" width="26.875" style="10" customWidth="1"/>
+    <col min="4" max="4" width="28.625" style="10" customWidth="1"/>
+    <col min="5" max="5" width="15.25" style="10" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
@@ -4492,21 +4528,21 @@
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="18"/>
+        <v>4</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="21"/>
     </row>
     <row r="2" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" s="4">
         <v>1</v>
@@ -4538,22 +4574,22 @@
     </row>
     <row r="3" spans="1:10" ht="99" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>286</v>
+        <v>270</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
@@ -4562,22 +4598,22 @@
     </row>
     <row r="4" spans="1:10" ht="33" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
-        <v>269</v>
+        <v>253</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>278</v>
+        <v>262</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>284</v>
+        <v>268</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
@@ -4586,22 +4622,22 @@
     </row>
     <row r="5" spans="1:10" ht="49.5" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
-        <v>270</v>
+        <v>254</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>272</v>
+        <v>256</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>279</v>
+        <v>263</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>274</v>
+        <v>258</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>283</v>
+        <v>267</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
@@ -4610,22 +4646,22 @@
     </row>
     <row r="6" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>275</v>
+        <v>259</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>282</v>
+        <v>266</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
@@ -4634,22 +4670,22 @@
     </row>
     <row r="7" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>276</v>
+        <v>260</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>280</v>
+        <v>264</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>277</v>
+        <v>261</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
@@ -4658,7 +4694,7 @@
     </row>
     <row r="8" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -4672,7 +4708,7 @@
     </row>
     <row r="9" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -4686,7 +4722,7 @@
     </row>
     <row r="10" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -4700,7 +4736,7 @@
     </row>
     <row r="11" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -4714,7 +4750,7 @@
     </row>
     <row r="12" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -4728,7 +4764,7 @@
     </row>
     <row r="13" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -4742,7 +4778,7 @@
     </row>
     <row r="14" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -4756,7 +4792,7 @@
     </row>
     <row r="15" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>

--- a/cases.xlsx
+++ b/cases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="368">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -111,10 +111,6 @@
   </si>
   <si>
     <t>3oBGt9adroqNBreI</t>
-  </si>
-  <si>
-    <t>我的购物卡列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>根据零售商获取我的购物卡列表</t>
@@ -193,14 +189,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://svr2.ismartgo.cn:29094/retailsv/app/usercard/getshoppingcardlist.do?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://svr2.ismartgo.cn:29094/retailsv/app/usercard/getshoppingcarddetail.do?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>http://svr2.ismartgo.cn:29094/retailsv/app/usercard/getshoppingcardlist_retail.do?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -210,14 +198,6 @@
   </si>
   <si>
     <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gWKKot2AHzA4qJeQ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>75efa0f6-a4eb-11e7-8846-00163e000b14</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -314,13 +294,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1、用户id
-2、城市id
-3、关键字
-4、经纬度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>39.921797</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -343,10 +316,6 @@
   </si>
   <si>
     <t>书</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://appgamesv.ismartgo.cn/app/zbGames</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -369,9 +338,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://appgamesv.ismartgo.cn/app/zbGameMaterialUpload</t>
-  </si>
-  <si>
     <t>上传小票 - 众包活动，领取活动</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -457,22 +423,6 @@
   </si>
   <si>
     <t>2、微信id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、uuid
-2、uid
-3、authkey(与用户id对应)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、userid
-2、userkey（Mobile或UnionID，登录返回）
-3、authkey
-4、opdate(yyyy-MM-dd HH：mm：ss格式)
-5、页码
-6、类型（1-未使用，2-已使用）
-7、手机号码、密码（用户获取authkey)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -765,10 +715,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>6971607</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>4</t>
   </si>
   <si>
@@ -912,10 +858,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://svr2.ismartgo.cn:29094/retailsv/app/retails/getHomePagePromotionsV36.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1、用户id
 2、城市id
 3、经纬度</t>
@@ -926,15 +868,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>116.43244</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>首页促销信息-已关注的零售商</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://svr2.ismartgo.cn:29094/retailsv/app/home/getsubscribed.do</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1450,14 +1384,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>113.267344</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>23.164018</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>10600893</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1495,6 +1421,165 @@
   </si>
   <si>
     <t>76</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/retailsv/app/usercard/getshoppingcardlist.do?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的购物卡列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>832776</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>75efa0f6-a4eb-11e7-8846-00163e000b14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>784</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gWKKot2AHzA4qJeQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、userid
+2、userkey（Mobile或UnionID，登录返回）
+3、authkey
+4、opdate(yyyy-MM-dd HH：mm：ss格式)
+6、类型（1-未使用，2-已使用）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、uuid
+2、uid
+3、authkey(与用户id对应)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/retailsv/app/usercard/getshoppingcarddetail.do?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/retailsv/app/usercard/getshoppingcardlist_retail.do?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>110</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、userid
+2、userkey（Mobile或UnionID，登录返回）
+3、authkey
+4、opdate(yyyy-MM-dd HH：mm：ss格式)
+5、零售商id
+6、type(1：已兑换，2：可兑换)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、用户id
+2、城市id
+3、关键字
+4、经纬度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>832776</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>52</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>116.43244</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>39.921797</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>832776</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、用户id
+2、城市id
+3、经纬度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、用户id
+2、城市id
+3、关键字
+4、经纬度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/app/zbGames</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/app/zbGameMaterialUpload</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>832776</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>116.452317</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>39.928463</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从登录接口获取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>110</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>39.921797</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>39.921797</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/retailsv/app/retails/searchNearRetails.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/retailsv/app/retails/getHomePagePromotionsV36.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/retailsv/app/home/getsubscribed.do</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1502,6 +1587,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm;@"/>
+  </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1620,7 +1708,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -1672,6 +1760,12 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1990,9 +2084,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G48" sqref="G48"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -2021,7 +2115,7 @@
         <v>4</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
@@ -2100,19 +2194,19 @@
         <v>2</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>333</v>
+        <v>319</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>284</v>
+        <v>270</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>335</v>
+        <v>321</v>
       </c>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
@@ -2126,22 +2220,22 @@
         <v>3</v>
       </c>
       <c r="C4" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>327</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>336</v>
       </c>
-      <c r="D4" s="14" t="s">
-        <v>343</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>71</v>
-      </c>
       <c r="F4" s="4" t="s">
-        <v>337</v>
+        <v>323</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>338</v>
+        <v>320</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>339</v>
+        <v>321</v>
       </c>
       <c r="I4" s="4" t="s">
         <v>18</v>
@@ -2156,13 +2250,13 @@
         <v>15</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>287</v>
+        <v>273</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>248</v>
+        <v>234</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
@@ -2178,19 +2272,19 @@
         <v>7</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>308</v>
+        <v>294</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>340</v>
+        <v>324</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>342</v>
+        <v>326</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
@@ -2204,19 +2298,19 @@
         <v>6</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>341</v>
+        <v>325</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
@@ -2230,16 +2324,16 @@
         <v>8</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>300</v>
+        <v>286</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E8" s="4">
         <v>15437366</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
@@ -2255,11 +2349,11 @@
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="14" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
@@ -2290,13 +2384,13 @@
         <v>11</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>289</v>
+        <v>275</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
@@ -2312,16 +2406,16 @@
         <v>12</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>301</v>
+        <v>287</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>344</v>
+        <v>328</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
@@ -2336,7 +2430,7 @@
         <v>13</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="D13" s="14" t="s">
         <v>14</v>
@@ -2345,7 +2439,7 @@
         <v>784</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="G13" s="4"/>
       <c r="H13" s="5"/>
@@ -2360,7 +2454,7 @@
         <v>16</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="D14" s="14" t="s">
         <v>17</v>
@@ -2381,16 +2475,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="D15" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>321</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>30</v>
-      </c>
       <c r="E15" s="4" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
@@ -2403,25 +2497,25 @@
         <v>15</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>309</v>
+        <v>295</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>322</v>
+        <v>308</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>325</v>
+        <v>311</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>323</v>
+        <v>309</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>324</v>
+        <v>310</v>
       </c>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
@@ -2431,31 +2525,31 @@
         <v>16</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>310</v>
+        <v>296</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>327</v>
+        <v>313</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:19" ht="82.5" x14ac:dyDescent="0.35">
@@ -2463,31 +2557,31 @@
         <v>17</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>292</v>
+        <v>278</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>247</v>
+        <v>233</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
     </row>
     <row r="19" spans="1:19" ht="66" x14ac:dyDescent="0.35">
@@ -2495,25 +2589,25 @@
         <v>18</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>311</v>
+        <v>297</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
@@ -2526,19 +2620,19 @@
         <v>19</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="F20" s="1">
         <v>832776</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
@@ -2549,28 +2643,28 @@
         <v>20</v>
       </c>
       <c r="B21" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="D21" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="C21" s="4" t="s">
-        <v>312</v>
-      </c>
-      <c r="D21" s="14" t="s">
-        <v>52</v>
-      </c>
       <c r="E21" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="F21" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="H21" s="9" t="s">
-        <v>54</v>
-      </c>
       <c r="I21" s="4" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="J21" s="4"/>
     </row>
@@ -2579,13 +2673,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>293</v>
+        <v>279</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
@@ -2599,25 +2693,25 @@
         <v>22</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>313</v>
+        <v>299</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
@@ -2627,13 +2721,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>314</v>
+        <v>300</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
@@ -2647,19 +2741,19 @@
         <v>24</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>315</v>
+        <v>301</v>
       </c>
       <c r="D25" s="14" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
@@ -2671,16 +2765,16 @@
         <v>25</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>316</v>
+        <v>302</v>
       </c>
       <c r="D26" s="14" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
@@ -2693,16 +2787,16 @@
         <v>26</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>294</v>
+        <v>280</v>
       </c>
       <c r="D27" s="14" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
@@ -2715,58 +2809,58 @@
         <v>27</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>302</v>
+        <v>288</v>
       </c>
       <c r="D28" s="14" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="J28" s="4" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="L28" s="7" t="s">
         <v>18</v>
       </c>
       <c r="M28" s="7" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="N28" s="7" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="R28" s="7" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="S28" s="7" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
     </row>
     <row r="29" spans="1:19" ht="66" x14ac:dyDescent="0.35">
@@ -2774,23 +2868,23 @@
         <v>28</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="14" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
@@ -2800,20 +2894,20 @@
         <v>29</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="14" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
@@ -2821,53 +2915,53 @@
     </row>
     <row r="31" spans="1:19" ht="33" x14ac:dyDescent="0.35">
       <c r="A31" s="4" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>295</v>
+        <v>281</v>
       </c>
       <c r="D31" s="14" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
       <c r="G31" s="4"/>
       <c r="H31" s="4" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="J31" s="4" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
     </row>
     <row r="32" spans="1:19" ht="33" x14ac:dyDescent="0.35">
       <c r="A32" s="4" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="C32" s="4"/>
       <c r="D32" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="G32" s="4" t="s">
         <v>140</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="G32" s="4" t="s">
-        <v>150</v>
       </c>
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
@@ -2875,23 +2969,23 @@
     </row>
     <row r="33" spans="1:10" ht="33" x14ac:dyDescent="0.35">
       <c r="A33" s="4" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="14" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
@@ -2899,23 +2993,23 @@
     </row>
     <row r="34" spans="1:10" ht="33" x14ac:dyDescent="0.35">
       <c r="A34" s="4" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="C34" s="4"/>
       <c r="D34" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="F34" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="E34" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>152</v>
-      </c>
       <c r="G34" s="4" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="H34" s="4"/>
       <c r="I34" s="4"/>
@@ -2923,23 +3017,23 @@
     </row>
     <row r="35" spans="1:10" ht="33" x14ac:dyDescent="0.35">
       <c r="A35" s="4" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="14" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
@@ -2947,23 +3041,23 @@
     </row>
     <row r="36" spans="1:10" ht="33" x14ac:dyDescent="0.35">
       <c r="A36" s="4" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="C36" s="4"/>
       <c r="D36" s="14" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
@@ -2971,23 +3065,23 @@
     </row>
     <row r="37" spans="1:10" ht="33" x14ac:dyDescent="0.35">
       <c r="A37" s="4" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="14" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="H37" s="4"/>
       <c r="I37" s="4"/>
@@ -2995,21 +3089,21 @@
     </row>
     <row r="38" spans="1:10" ht="33" x14ac:dyDescent="0.35">
       <c r="A38" s="4" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="C38" s="4"/>
       <c r="D38" s="14" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="E38" s="4"/>
       <c r="F38" s="4" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="H38" s="4"/>
       <c r="I38" s="4"/>
@@ -3017,21 +3111,21 @@
     </row>
     <row r="39" spans="1:10" ht="33" x14ac:dyDescent="0.35">
       <c r="A39" s="4" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="C39" s="4"/>
       <c r="D39" s="14" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="E39" s="4"/>
       <c r="F39" s="4" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="H39" s="4"/>
       <c r="I39" s="4"/>
@@ -3039,19 +3133,19 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40" s="4" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="B40" s="13" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>296</v>
+        <v>282</v>
       </c>
       <c r="D40" s="14" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>173</v>
+        <v>65</v>
       </c>
       <c r="F40" s="4"/>
       <c r="G40" s="4"/>
@@ -3061,13 +3155,13 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41" s="4" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>297</v>
+        <v>283</v>
       </c>
       <c r="D41" s="14"/>
       <c r="E41" s="4"/>
@@ -3079,22 +3173,22 @@
     </row>
     <row r="42" spans="1:10" ht="33" x14ac:dyDescent="0.35">
       <c r="A42" s="4" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="B42" s="13" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>286</v>
+        <v>272</v>
       </c>
       <c r="D42" s="14" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="G42" s="4"/>
       <c r="H42" s="4"/>
@@ -3103,20 +3197,20 @@
     </row>
     <row r="43" spans="1:10" ht="33" x14ac:dyDescent="0.35">
       <c r="A43" s="4" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="B43" s="13" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="C43" s="4"/>
       <c r="D43" s="14" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="G43" s="4"/>
       <c r="H43" s="4"/>
@@ -3125,20 +3219,20 @@
     </row>
     <row r="44" spans="1:10" ht="33" x14ac:dyDescent="0.35">
       <c r="A44" s="4" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="B44" s="13" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
       <c r="C44" s="4"/>
       <c r="D44" s="14" t="s">
-        <v>245</v>
+        <v>231</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="G44" s="4"/>
       <c r="H44" s="4"/>
@@ -3147,20 +3241,20 @@
     </row>
     <row r="45" spans="1:10" ht="33" x14ac:dyDescent="0.35">
       <c r="A45" s="4" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="B45" s="13" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="C45" s="4"/>
       <c r="D45" s="14" t="s">
-        <v>305</v>
+        <v>291</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>304</v>
+        <v>290</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>303</v>
+        <v>289</v>
       </c>
       <c r="G45" s="4"/>
       <c r="H45" s="4"/>
@@ -3169,47 +3263,47 @@
     </row>
     <row r="46" spans="1:10" ht="49.5" x14ac:dyDescent="0.35">
       <c r="A46" s="4" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="B46" s="13" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="D46" s="14" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="I46" s="4"/>
       <c r="J46" s="4"/>
     </row>
     <row r="47" spans="1:10" ht="33" x14ac:dyDescent="0.35">
       <c r="A47" s="4" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="B47" s="13" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>306</v>
+        <v>292</v>
       </c>
       <c r="D47" s="14" t="s">
-        <v>346</v>
+        <v>330</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>347</v>
+        <v>331</v>
       </c>
       <c r="F47" s="4"/>
       <c r="G47" s="4"/>
@@ -3219,53 +3313,53 @@
     </row>
     <row r="48" spans="1:10" ht="49.5" x14ac:dyDescent="0.35">
       <c r="A48" s="4" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>244</v>
+        <v>230</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>307</v>
+        <v>293</v>
       </c>
       <c r="D48" s="14" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>348</v>
+        <v>332</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="I48" s="4"/>
       <c r="J48" s="4"/>
     </row>
     <row r="49" spans="1:10" ht="97.5" x14ac:dyDescent="0.35">
       <c r="A49" s="4" t="s">
-        <v>271</v>
+        <v>257</v>
       </c>
       <c r="B49" s="13" t="s">
-        <v>273</v>
+        <v>259</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>299</v>
+        <v>285</v>
       </c>
       <c r="D49" s="14" t="s">
-        <v>276</v>
+        <v>262</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>274</v>
+        <v>260</v>
       </c>
       <c r="F49" s="8" t="s">
-        <v>275</v>
+        <v>261</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>274</v>
+        <v>260</v>
       </c>
       <c r="H49" s="4"/>
       <c r="I49" s="4"/>
@@ -3273,7 +3367,7 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A50" s="4" t="s">
-        <v>272</v>
+        <v>258</v>
       </c>
       <c r="B50" s="13"/>
       <c r="C50" s="4"/>
@@ -3300,9 +3394,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
+      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3314,7 +3408,7 @@
     <col min="5" max="5" width="9" style="10"/>
     <col min="6" max="6" width="10.625" style="10" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.125" style="10" customWidth="1"/>
-    <col min="8" max="8" width="18" style="10" customWidth="1"/>
+    <col min="8" max="8" width="13.125" style="10" customWidth="1"/>
     <col min="9" max="9" width="11.75" style="10" customWidth="1"/>
     <col min="10" max="16384" width="9" style="10"/>
   </cols>
@@ -3329,15 +3423,15 @@
       <c r="C1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="21"/>
+      <c r="D1" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="23"/>
     </row>
     <row r="2" spans="1:10" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
@@ -3379,10 +3473,10 @@
         <v>19</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>21</v>
@@ -3404,87 +3498,85 @@
       <c r="B4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>38</v>
+      <c r="C4" s="19" t="s">
+        <v>342</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>101</v>
+        <v>341</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="F4" s="4">
-        <v>784</v>
+        <v>337</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>338</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>42</v>
+        <v>339</v>
       </c>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
       <c r="J4" s="5"/>
     </row>
-    <row r="5" spans="1:10" ht="115.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" ht="82.5" x14ac:dyDescent="0.35">
       <c r="A5" s="4">
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>340</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>40</v>
-      </c>
       <c r="F5" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="H5" s="4">
+        <v>37</v>
+      </c>
+      <c r="H5" s="20">
         <v>43031.7421875</v>
       </c>
-      <c r="I5" s="4">
-        <v>1</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>41</v>
-      </c>
+      <c r="I5" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:10" ht="99" x14ac:dyDescent="0.35">
       <c r="A6" s="4">
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>39</v>
+        <v>23</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>343</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>25</v>
+        <v>346</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="H6" s="4">
+        <v>37</v>
+      </c>
+      <c r="H6" s="20">
         <v>43032.7421875</v>
       </c>
-      <c r="I6" s="4">
-        <v>110</v>
-      </c>
-      <c r="J6" s="4">
-        <v>2</v>
+      <c r="I6" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="66" x14ac:dyDescent="0.35">
@@ -3492,26 +3584,26 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>64</v>
+        <v>365</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>66</v>
+        <v>347</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>53</v>
+        <v>348</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>108</v>
+        <v>349</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="4" t="s">
-        <v>68</v>
+        <v>350</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>67</v>
+        <v>351</v>
       </c>
       <c r="J7" s="4"/>
     </row>
@@ -3520,72 +3612,72 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>213</v>
+        <v>366</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>214</v>
+        <v>353</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>53</v>
+        <v>352</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>216</v>
+        <v>62</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
     </row>
     <row r="9" spans="1:10" ht="49.5" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>218</v>
+        <v>367</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
     </row>
     <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
@@ -3595,19 +3687,19 @@
     </row>
     <row r="11" spans="1:10" ht="30" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
@@ -3617,63 +3709,63 @@
     </row>
     <row r="12" spans="1:10" ht="49.5" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>249</v>
+        <v>235</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>277</v>
+        <v>263</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
     </row>
     <row r="13" spans="1:10" ht="49.5" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>278</v>
+        <v>264</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>279</v>
+        <v>265</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
     </row>
     <row r="14" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -3687,7 +3779,7 @@
     </row>
     <row r="15" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -3701,7 +3793,7 @@
     </row>
     <row r="16" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -3719,18 +3811,15 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" r:id="rId1"/>
-    <hyperlink ref="C5" r:id="rId2"/>
-    <hyperlink ref="C6" r:id="rId3"/>
-    <hyperlink ref="C7" r:id="rId4"/>
-    <hyperlink ref="C8" r:id="rId5"/>
-    <hyperlink ref="C9" r:id="rId6"/>
-    <hyperlink ref="C10" r:id="rId7"/>
-    <hyperlink ref="C11" r:id="rId8"/>
-    <hyperlink ref="C13" r:id="rId9"/>
+    <hyperlink ref="C7" r:id="rId1" display="http://svr2.ismartgo.cn:29094/retailsv/app/retails/searchNearRetails.do"/>
+    <hyperlink ref="C8" r:id="rId2" display="http://svr2.ismartgo.cn:29094/retailsv/app/retails/getHomePagePromotionsV36.do"/>
+    <hyperlink ref="C9" r:id="rId3" display="http://svr2.ismartgo.cn:29094/retailsv/app/home/getsubscribed.do"/>
+    <hyperlink ref="C10" r:id="rId4"/>
+    <hyperlink ref="C11" r:id="rId5"/>
+    <hyperlink ref="C13" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId10"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
 
@@ -3740,7 +3829,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
+      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3752,7 +3841,7 @@
     <col min="5" max="5" width="9" style="10"/>
     <col min="6" max="6" width="10.625" style="10" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.125" style="10" customWidth="1"/>
-    <col min="8" max="8" width="13.75" style="10" customWidth="1"/>
+    <col min="8" max="8" width="14.625" style="10" customWidth="1"/>
     <col min="9" max="9" width="11.75" style="10" customWidth="1"/>
     <col min="10" max="16384" width="9" style="10"/>
   </cols>
@@ -3767,15 +3856,15 @@
       <c r="C1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="21"/>
+      <c r="D1" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="23"/>
     </row>
     <row r="2" spans="1:10" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
@@ -3814,28 +3903,28 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>73</v>
+        <v>355</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="E3" s="4">
-        <v>832776</v>
+        <v>68</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>357</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="G3" s="5">
-        <v>52</v>
-      </c>
-      <c r="H3" s="5">
-        <v>116.45231699999999</v>
-      </c>
-      <c r="I3" s="4">
-        <v>39.928463000000001</v>
+        <v>358</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>360</v>
       </c>
       <c r="J3" s="4"/>
     </row>
@@ -3844,19 +3933,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>78</v>
+        <v>356</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="E4" s="4">
-        <v>832776</v>
-      </c>
-      <c r="F4" s="4">
-        <v>52</v>
+        <v>73</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>98</v>
       </c>
       <c r="G4" s="5"/>
       <c r="H4" s="4"/>
@@ -3868,19 +3957,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="E5" s="4">
-        <v>832776</v>
-      </c>
-      <c r="F5" s="4">
-        <v>52</v>
+        <v>73</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>98</v>
       </c>
       <c r="G5" s="5"/>
       <c r="H5" s="4"/>
@@ -3892,28 +3981,28 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>25</v>
-      </c>
       <c r="E6" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="H6" s="4">
+        <v>361</v>
+      </c>
+      <c r="H6" s="20">
         <v>43032.7421875</v>
       </c>
-      <c r="I6" s="4">
-        <v>110</v>
+      <c r="I6" s="4" t="s">
+        <v>362</v>
       </c>
       <c r="J6" s="4">
         <v>2</v>
@@ -3924,28 +4013,28 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="E7" s="4">
-        <v>832776</v>
-      </c>
-      <c r="F7" s="4">
-        <v>52</v>
+        <v>354</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>98</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>67</v>
+        <v>363</v>
       </c>
       <c r="J7" s="4"/>
     </row>
@@ -3954,28 +4043,28 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>281</v>
+        <v>267</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>282</v>
+        <v>268</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>67</v>
+        <v>364</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
       <c r="J8" s="4"/>
     </row>
@@ -4097,7 +4186,7 @@
   <hyperlinks>
     <hyperlink ref="C6" r:id="rId1"/>
     <hyperlink ref="C7" r:id="rId2"/>
-    <hyperlink ref="C3" r:id="rId3"/>
+    <hyperlink ref="C3" r:id="rId3" display="http://appgamesv.ismartgo.cn/app/zbGames"/>
     <hyperlink ref="C8" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4133,15 +4222,15 @@
       <c r="C1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="21"/>
+      <c r="D1" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="23"/>
     </row>
     <row r="2" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
@@ -4157,7 +4246,7 @@
         <v>3</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="F2" s="4">
         <v>5</v>
@@ -4177,25 +4266,25 @@
     </row>
     <row r="3" spans="1:10" ht="66" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>317</v>
+        <v>303</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>330</v>
+        <v>316</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
@@ -4203,22 +4292,22 @@
     </row>
     <row r="4" spans="1:10" ht="33" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>320</v>
+        <v>306</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
@@ -4227,37 +4316,37 @@
     </row>
     <row r="5" spans="1:10" ht="82.5" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>319</v>
+        <v>305</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>332</v>
+        <v>318</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>331</v>
+        <v>317</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>318</v>
+        <v>304</v>
       </c>
       <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -4271,7 +4360,7 @@
     </row>
     <row r="7" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -4285,7 +4374,7 @@
     </row>
     <row r="8" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -4299,7 +4388,7 @@
     </row>
     <row r="9" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -4313,7 +4402,7 @@
     </row>
     <row r="10" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -4327,7 +4416,7 @@
     </row>
     <row r="11" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -4341,7 +4430,7 @@
     </row>
     <row r="12" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -4355,7 +4444,7 @@
     </row>
     <row r="13" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -4369,7 +4458,7 @@
     </row>
     <row r="14" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -4383,7 +4472,7 @@
     </row>
     <row r="15" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -4397,7 +4486,7 @@
     </row>
     <row r="16" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -4411,7 +4500,7 @@
     </row>
     <row r="17" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -4425,7 +4514,7 @@
     </row>
     <row r="18" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -4439,7 +4528,7 @@
     </row>
     <row r="19" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -4453,7 +4542,7 @@
     </row>
     <row r="20" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -4467,7 +4556,7 @@
     </row>
     <row r="21" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -4530,15 +4619,15 @@
       <c r="C1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="21"/>
+      <c r="D1" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="23"/>
     </row>
     <row r="2" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
@@ -4574,22 +4663,22 @@
     </row>
     <row r="3" spans="1:10" ht="99" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>252</v>
+        <v>238</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>270</v>
+        <v>256</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
@@ -4598,22 +4687,22 @@
     </row>
     <row r="4" spans="1:10" ht="33" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>255</v>
+        <v>241</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>262</v>
+        <v>248</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>268</v>
+        <v>254</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
@@ -4622,22 +4711,22 @@
     </row>
     <row r="5" spans="1:10" ht="49.5" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
-        <v>254</v>
+        <v>240</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>263</v>
+        <v>249</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>258</v>
+        <v>244</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>267</v>
+        <v>253</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
@@ -4646,22 +4735,22 @@
     </row>
     <row r="6" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>259</v>
+        <v>245</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>266</v>
+        <v>252</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>265</v>
+        <v>251</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
@@ -4670,22 +4759,22 @@
     </row>
     <row r="7" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>260</v>
+        <v>246</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>264</v>
+        <v>250</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>269</v>
+        <v>255</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
@@ -4694,7 +4783,7 @@
     </row>
     <row r="8" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -4708,7 +4797,7 @@
     </row>
     <row r="9" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -4722,7 +4811,7 @@
     </row>
     <row r="10" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -4736,7 +4825,7 @@
     </row>
     <row r="11" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -4750,7 +4839,7 @@
     </row>
     <row r="12" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -4764,7 +4853,7 @@
     </row>
     <row r="13" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -4778,7 +4867,7 @@
     </row>
     <row r="14" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -4792,7 +4881,7 @@
     </row>
     <row r="15" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>

--- a/cases.xlsx
+++ b/cases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="371">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -114,15 +114,6 @@
   </si>
   <si>
     <t>根据零售商获取我的购物卡列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、userid
-2、userkey（Mobile或UnionID，登录返回）
-3、authkey
-4、opdate(yyyy-MM-dd HH：mm：ss格式)
-5、零售商id
-6、type(0：未使用，1：已使用)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -189,10 +180,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://svr2.ismartgo.cn:29094/retailsv/app/usercard/getshoppingcardlist_retail.do?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>从登录接口获取</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -286,10 +273,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://svr2.ismartgo.cn:29094/retailsv/app/retails/searchNearRetails.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>搜索零售商（关注页面）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -340,9 +323,6 @@
   <si>
     <t>上传小票 - 众包活动，领取活动</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://appgamesv.ismartgo.cn/app/zbGameTaskAllot</t>
   </si>
   <si>
     <t>1、uid
@@ -884,10 +864,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://svr2.ismartgo.cn:29094/retailsv/app/retails/subscribe.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>832776</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -901,10 +877,6 @@
   </si>
   <si>
     <t>8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://svr2.ismartgo.cn:29094/retailsv/app/retails/subscribe.do</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -995,16 +967,6 @@
   </si>
   <si>
     <t>832776</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>首页猜你喜欢促销信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、用户id
-2、城市id
-3、经纬度</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1123,22 +1085,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://svr2.ismartgo.cn:29094/retailsv/app/retails/getHomePagePromotionsV36.do</t>
-  </si>
-  <si>
     <t>促销优惠列表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://svr2.ismartgo.cn:29094/retailsv/app/retails/getRetailPromotionsv36.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>拍立赚-我的列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://appgamesv.ismartgo.cn/app/zbGameMyTasks</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1216,10 +1167,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/appsv2/app/exchangeGift_v3.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>北京</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1254,10 +1201,6 @@
   </si>
   <si>
     <t>/appsv2/app/scanInGoods.do?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/appsv2/app/searchContent.do</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1428,10 +1371,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/retailsv/app/usercard/getshoppingcardlist.do?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>我的购物卡列表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1466,19 +1405,124 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>110</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、用户id
+2、城市id
+3、关键字
+4、经纬度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>832776</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>52</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>116.43244</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>39.921797</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>832776</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、用户id
+2、城市id
+3、经纬度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/app/zbGames</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>832776</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>116.452317</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>39.928463</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>39.921797</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/retailsv/app/retails/getHomePagePromotionsV36.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/retailsv/app/home/getsubscribed.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/retailsv/app/retails/subscribe.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>832776</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取已关注零售商列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/retailsv/app/retails/getSubscribeList.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/retailsv/app/retails/searchNearRetails.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/retailsv/app/retails/subscribe.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/retailsv/app/retails/getRetailPromotionsv36.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>/retailsv/app/usercard/getshoppingcarddetail.do?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>从登录接口获取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从登录接口获取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/retailsv/app/usercard/getshoppingcardlist.do?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>/retailsv/app/usercard/getshoppingcardlist_retail.do?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>110</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1491,47 +1535,49 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1、用户id
-2、城市id
-3、关键字
-4、经纬度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>832776</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>52</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>116.43244</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>39.921797</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>832776</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、用户id
-2、城市id
-3、经纬度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、用户id
-2、城市id
-3、关键字
-4、经纬度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/app/zbGames</t>
+    <t>11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/appsv2/app/searchContent.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/app/zbGameTaskAllot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/app/zbGameMyTasks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、uid
+2、cityid
+3、经纬度（与活动列表一致）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1539,47 +1585,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>832776</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>北京</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>116.452317</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>39.928463</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>从登录接口获取</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>110</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>39.921797</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>39.921797</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/retailsv/app/retails/searchNearRetails.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/retailsv/app/retails/getHomePagePromotionsV36.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/retailsv/app/home/getsubscribed.do</t>
+    <t>/appsv2/app/exchangeGift_v3.do</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1708,7 +1714,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -1766,6 +1772,9 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2085,8 +2094,8 @@
   <dimension ref="A1:T50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
+      <pane ySplit="2" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -2115,7 +2124,7 @@
         <v>4</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
@@ -2194,19 +2203,19 @@
         <v>2</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>319</v>
+        <v>306</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>321</v>
+        <v>308</v>
       </c>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
@@ -2220,22 +2229,22 @@
         <v>3</v>
       </c>
       <c r="C4" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>314</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>322</v>
       </c>
-      <c r="D4" s="14" t="s">
-        <v>327</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>336</v>
-      </c>
       <c r="F4" s="4" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>321</v>
+        <v>308</v>
       </c>
       <c r="I4" s="4" t="s">
         <v>18</v>
@@ -2250,13 +2259,13 @@
         <v>15</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
@@ -2272,19 +2281,19 @@
         <v>7</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>324</v>
+        <v>311</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>326</v>
+        <v>313</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
@@ -2298,19 +2307,19 @@
         <v>6</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>325</v>
+        <v>312</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
@@ -2324,16 +2333,16 @@
         <v>8</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E8" s="4">
         <v>15437366</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
@@ -2349,11 +2358,11 @@
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="14" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
@@ -2384,13 +2393,13 @@
         <v>11</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
@@ -2406,16 +2415,16 @@
         <v>12</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
@@ -2430,7 +2439,7 @@
         <v>13</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="D13" s="14" t="s">
         <v>14</v>
@@ -2439,7 +2448,7 @@
         <v>784</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="G13" s="4"/>
       <c r="H13" s="5"/>
@@ -2454,7 +2463,7 @@
         <v>16</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="D14" s="14" t="s">
         <v>17</v>
@@ -2475,16 +2484,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="D15" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>307</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>29</v>
-      </c>
       <c r="E15" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
@@ -2497,25 +2506,25 @@
         <v>15</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C16" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="D16" s="14" t="s">
         <v>295</v>
       </c>
-      <c r="D16" s="14" t="s">
-        <v>308</v>
-      </c>
       <c r="E16" s="4" t="s">
-        <v>311</v>
+        <v>298</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>309</v>
+        <v>296</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>310</v>
+        <v>297</v>
       </c>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
@@ -2525,31 +2534,31 @@
         <v>16</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>313</v>
+        <v>300</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:19" ht="82.5" x14ac:dyDescent="0.35">
@@ -2557,31 +2566,31 @@
         <v>17</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="19" spans="1:19" ht="66" x14ac:dyDescent="0.35">
@@ -2589,25 +2598,25 @@
         <v>18</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>297</v>
+        <v>285</v>
       </c>
       <c r="D19" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="E19" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="E19" s="6" t="s">
-        <v>104</v>
-      </c>
       <c r="F19" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>314</v>
+        <v>301</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
@@ -2620,19 +2629,19 @@
         <v>19</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F20" s="1">
         <v>832776</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
@@ -2643,28 +2652,28 @@
         <v>20</v>
       </c>
       <c r="B21" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E21" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C21" s="4" t="s">
-        <v>298</v>
-      </c>
-      <c r="D21" s="14" t="s">
+      <c r="F21" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H21" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="E21" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="G21" s="4" t="s">
+      <c r="I21" s="4" t="s">
         <v>46</v>
-      </c>
-      <c r="H21" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="I21" s="4" t="s">
-        <v>48</v>
       </c>
       <c r="J21" s="4"/>
     </row>
@@ -2673,13 +2682,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
@@ -2693,25 +2702,25 @@
         <v>22</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>299</v>
+        <v>286</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E23" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H23" s="4" t="s">
         <v>51</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H23" s="4" t="s">
-        <v>53</v>
       </c>
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
@@ -2721,13 +2730,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>300</v>
+        <v>287</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
@@ -2741,19 +2750,19 @@
         <v>24</v>
       </c>
       <c r="B25" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F25" s="4" t="s">
         <v>63</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="D25" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>66</v>
       </c>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
@@ -2765,16 +2774,16 @@
         <v>25</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="D26" s="14" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
@@ -2787,16 +2796,16 @@
         <v>26</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="D27" s="14" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
@@ -2809,58 +2818,58 @@
         <v>27</v>
       </c>
       <c r="B28" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="D28" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="I28" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="C28" s="4" t="s">
-        <v>288</v>
-      </c>
-      <c r="D28" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="F28" s="4" t="s">
+      <c r="J28" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="G28" s="4" t="s">
+      <c r="K28" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="H28" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="I28" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="J28" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>86</v>
       </c>
       <c r="L28" s="7" t="s">
         <v>18</v>
       </c>
       <c r="M28" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="N28" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q28" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="R28" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="S28" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="O28" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="R28" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="S28" s="7" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="29" spans="1:19" ht="66" x14ac:dyDescent="0.35">
@@ -2868,23 +2877,23 @@
         <v>28</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="14" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E29" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="G29" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="F29" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="G29" s="4" t="s">
-        <v>83</v>
-      </c>
       <c r="H29" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
@@ -2894,20 +2903,20 @@
         <v>29</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="14" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
@@ -2915,53 +2924,53 @@
     </row>
     <row r="31" spans="1:19" ht="33" x14ac:dyDescent="0.35">
       <c r="A31" s="4" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="D31" s="14" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="G31" s="4"/>
       <c r="H31" s="4" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="I31" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="J31" s="4" t="s">
         <v>135</v>
-      </c>
-      <c r="J31" s="4" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="32" spans="1:19" ht="33" x14ac:dyDescent="0.35">
       <c r="A32" s="4" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C32" s="4"/>
       <c r="D32" s="14" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F32" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="G32" s="4" t="s">
         <v>136</v>
-      </c>
-      <c r="G32" s="4" t="s">
-        <v>140</v>
       </c>
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
@@ -2969,23 +2978,23 @@
     </row>
     <row r="33" spans="1:10" ht="33" x14ac:dyDescent="0.35">
       <c r="A33" s="4" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="14" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F33" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="G33" s="4" t="s">
         <v>137</v>
-      </c>
-      <c r="G33" s="4" t="s">
-        <v>141</v>
       </c>
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
@@ -2993,23 +3002,23 @@
     </row>
     <row r="34" spans="1:10" ht="33" x14ac:dyDescent="0.35">
       <c r="A34" s="4" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C34" s="4"/>
       <c r="D34" s="14" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="H34" s="4"/>
       <c r="I34" s="4"/>
@@ -3017,23 +3026,23 @@
     </row>
     <row r="35" spans="1:10" ht="33" x14ac:dyDescent="0.35">
       <c r="A35" s="4" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="14" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
@@ -3041,23 +3050,23 @@
     </row>
     <row r="36" spans="1:10" ht="33" x14ac:dyDescent="0.35">
       <c r="A36" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C36" s="4"/>
       <c r="D36" s="14" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
@@ -3065,23 +3074,23 @@
     </row>
     <row r="37" spans="1:10" ht="33" x14ac:dyDescent="0.35">
       <c r="A37" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="14" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="H37" s="4"/>
       <c r="I37" s="4"/>
@@ -3089,21 +3098,21 @@
     </row>
     <row r="38" spans="1:10" ht="33" x14ac:dyDescent="0.35">
       <c r="A38" s="4" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C38" s="4"/>
       <c r="D38" s="14" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="E38" s="4"/>
       <c r="F38" s="4" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="H38" s="4"/>
       <c r="I38" s="4"/>
@@ -3111,21 +3120,21 @@
     </row>
     <row r="39" spans="1:10" ht="33" x14ac:dyDescent="0.35">
       <c r="A39" s="4" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C39" s="4"/>
       <c r="D39" s="14" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="E39" s="4"/>
       <c r="F39" s="4" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="H39" s="4"/>
       <c r="I39" s="4"/>
@@ -3133,19 +3142,19 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40" s="4" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B40" s="13" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="D40" s="14" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F40" s="4"/>
       <c r="G40" s="4"/>
@@ -3155,13 +3164,13 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41" s="4" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="D41" s="14"/>
       <c r="E41" s="4"/>
@@ -3173,22 +3182,22 @@
     </row>
     <row r="42" spans="1:10" ht="33" x14ac:dyDescent="0.35">
       <c r="A42" s="4" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B42" s="13" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="D42" s="14" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G42" s="4"/>
       <c r="H42" s="4"/>
@@ -3197,20 +3206,20 @@
     </row>
     <row r="43" spans="1:10" ht="33" x14ac:dyDescent="0.35">
       <c r="A43" s="4" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B43" s="13" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C43" s="4"/>
       <c r="D43" s="14" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G43" s="4"/>
       <c r="H43" s="4"/>
@@ -3219,20 +3228,20 @@
     </row>
     <row r="44" spans="1:10" ht="33" x14ac:dyDescent="0.35">
       <c r="A44" s="4" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="B44" s="13" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="C44" s="4"/>
       <c r="D44" s="14" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G44" s="4"/>
       <c r="H44" s="4"/>
@@ -3241,20 +3250,20 @@
     </row>
     <row r="45" spans="1:10" ht="33" x14ac:dyDescent="0.35">
       <c r="A45" s="4" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="B45" s="13" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="C45" s="4"/>
       <c r="D45" s="14" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="G45" s="4"/>
       <c r="H45" s="4"/>
@@ -3263,47 +3272,47 @@
     </row>
     <row r="46" spans="1:10" ht="49.5" x14ac:dyDescent="0.35">
       <c r="A46" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="B46" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="D46" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="H46" s="4" t="s">
         <v>221</v>
-      </c>
-      <c r="B46" s="13" t="s">
-        <v>222</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="D46" s="14" t="s">
-        <v>202</v>
-      </c>
-      <c r="E46" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="F46" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="G46" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="H46" s="4" t="s">
-        <v>227</v>
       </c>
       <c r="I46" s="4"/>
       <c r="J46" s="4"/>
     </row>
     <row r="47" spans="1:10" ht="33" x14ac:dyDescent="0.35">
       <c r="A47" s="4" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="B47" s="13" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="D47" s="14" t="s">
-        <v>330</v>
+        <v>317</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>331</v>
+        <v>318</v>
       </c>
       <c r="F47" s="4"/>
       <c r="G47" s="4"/>
@@ -3313,53 +3322,53 @@
     </row>
     <row r="48" spans="1:10" ht="49.5" x14ac:dyDescent="0.35">
       <c r="A48" s="4" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="D48" s="14" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>332</v>
+        <v>319</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="I48" s="4"/>
       <c r="J48" s="4"/>
     </row>
     <row r="49" spans="1:10" ht="97.5" x14ac:dyDescent="0.35">
       <c r="A49" s="4" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="B49" s="13" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="D49" s="14" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="F49" s="8" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="H49" s="4"/>
       <c r="I49" s="4"/>
@@ -3367,7 +3376,7 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A50" s="4" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="B50" s="13"/>
       <c r="C50" s="4"/>
@@ -3392,11 +3401,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
+      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3404,7 +3413,7 @@
     <col min="1" max="1" width="7" style="10" customWidth="1"/>
     <col min="2" max="2" width="17.625" style="10" customWidth="1"/>
     <col min="3" max="3" width="33.125" style="10" customWidth="1"/>
-    <col min="4" max="4" width="34.625" style="10" customWidth="1"/>
+    <col min="4" max="4" width="33.25" style="10" customWidth="1"/>
     <col min="5" max="5" width="9" style="10"/>
     <col min="6" max="6" width="10.625" style="10" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.125" style="10" customWidth="1"/>
@@ -3423,15 +3432,15 @@
       <c r="C1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="23"/>
+      <c r="D1" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="24"/>
     </row>
     <row r="2" spans="1:10" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
@@ -3473,10 +3482,10 @@
         <v>19</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>21</v>
@@ -3499,19 +3508,19 @@
         <v>20</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>341</v>
+        <v>327</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>337</v>
+        <v>323</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>338</v>
+        <v>324</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>339</v>
+        <v>325</v>
       </c>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
@@ -3522,28 +3531,28 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>335</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>334</v>
+        <v>321</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>355</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>37</v>
+        <v>354</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>37</v>
+        <v>353</v>
       </c>
       <c r="H5" s="20">
         <v>43031.7421875</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>333</v>
+        <v>320</v>
       </c>
       <c r="J5" s="4"/>
     </row>
@@ -3554,29 +3563,29 @@
       <c r="B6" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="19" t="s">
-        <v>343</v>
+      <c r="C6" s="4" t="s">
+        <v>356</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>346</v>
+        <v>357</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H6" s="20">
         <v>43032.7421875</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>344</v>
+        <v>328</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="66" x14ac:dyDescent="0.35">
@@ -3584,26 +3593,26 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>365</v>
+        <v>57</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>349</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>347</v>
+        <v>330</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>348</v>
+        <v>331</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>349</v>
+        <v>332</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="4" t="s">
-        <v>350</v>
+        <v>333</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>351</v>
+        <v>334</v>
       </c>
       <c r="J7" s="4"/>
     </row>
@@ -3612,72 +3621,72 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>366</v>
+        <v>197</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>343</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>353</v>
+        <v>336</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>352</v>
+        <v>335</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
     </row>
     <row r="9" spans="1:10" ht="49.5" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>367</v>
+        <v>200</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>344</v>
       </c>
       <c r="D9" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H9" s="4" t="s">
         <v>202</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>206</v>
       </c>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
     </row>
-    <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>208</v>
+        <v>203</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>345</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
@@ -3685,21 +3694,21 @@
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
     </row>
-    <row r="11" spans="1:10" ht="30" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>213</v>
+        <v>208</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>350</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
@@ -3709,63 +3718,63 @@
     </row>
     <row r="12" spans="1:10" ht="49.5" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
-        <v>170</v>
+        <v>358</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>263</v>
+        <v>255</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>351</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>236</v>
+        <v>198</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>48</v>
+        <v>346</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
     </row>
     <row r="13" spans="1:10" ht="49.5" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
-        <v>171</v>
+        <v>359</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>265</v>
+        <v>347</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>348</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
     </row>
     <row r="14" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
-        <v>172</v>
+        <v>360</v>
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -3779,7 +3788,7 @@
     </row>
     <row r="15" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
-        <v>173</v>
+        <v>361</v>
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -3791,52 +3800,30 @@
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
     </row>
-    <row r="16" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="D1:J1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="C7" r:id="rId1" display="http://svr2.ismartgo.cn:29094/retailsv/app/retails/searchNearRetails.do"/>
-    <hyperlink ref="C8" r:id="rId2" display="http://svr2.ismartgo.cn:29094/retailsv/app/retails/getHomePagePromotionsV36.do"/>
-    <hyperlink ref="C9" r:id="rId3" display="http://svr2.ismartgo.cn:29094/retailsv/app/home/getsubscribed.do"/>
-    <hyperlink ref="C10" r:id="rId4"/>
-    <hyperlink ref="C11" r:id="rId5"/>
-    <hyperlink ref="C13" r:id="rId6"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="7" style="10" customWidth="1"/>
     <col min="2" max="2" width="17.625" style="10" customWidth="1"/>
-    <col min="3" max="3" width="33.125" style="10" customWidth="1"/>
+    <col min="3" max="3" width="29.25" style="10" customWidth="1"/>
     <col min="4" max="4" width="34.625" style="10" customWidth="1"/>
     <col min="5" max="5" width="9" style="10"/>
     <col min="6" max="6" width="10.625" style="10" bestFit="1" customWidth="1"/>
@@ -3856,15 +3843,15 @@
       <c r="C1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="23"/>
+      <c r="D1" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="24"/>
     </row>
     <row r="2" spans="1:10" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
@@ -3903,28 +3890,28 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>355</v>
+        <v>66</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>337</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>357</v>
+        <v>338</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>358</v>
+        <v>339</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>359</v>
+        <v>340</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>360</v>
+        <v>341</v>
       </c>
       <c r="J3" s="4"/>
     </row>
@@ -3933,19 +3920,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>356</v>
+        <v>67</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>369</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>73</v>
+        <v>365</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="G4" s="5"/>
       <c r="H4" s="4"/>
@@ -3957,120 +3944,86 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>72</v>
+        <v>68</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>363</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="G5" s="5"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
     </row>
-    <row r="6" spans="1:10" ht="99" x14ac:dyDescent="0.35">
-      <c r="A6" s="4">
-        <v>5</v>
+    <row r="6" spans="1:10" ht="82.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="4" t="s">
+        <v>366</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>24</v>
+        <v>256</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>364</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>257</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>37</v>
+        <v>94</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>361</v>
-      </c>
-      <c r="H6" s="20">
-        <v>43032.7421875</v>
+        <v>59</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>342</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>362</v>
-      </c>
-      <c r="J6" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="66" x14ac:dyDescent="0.35">
-      <c r="A7" s="4">
-        <v>6</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>354</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>348</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>363</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="J6" s="4"/>
+    </row>
+    <row r="7" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
       <c r="J7" s="4"/>
     </row>
-    <row r="8" spans="1:10" ht="82.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="4">
-        <v>7</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>364</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>269</v>
-      </c>
+    <row r="8" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
       <c r="J8" s="4"/>
     </row>
     <row r="9" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="4">
-        <v>8</v>
+      <c r="A9" s="4" t="s">
+        <v>163</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -4083,8 +4036,8 @@
       <c r="J9" s="4"/>
     </row>
     <row r="10" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="4">
-        <v>10</v>
+      <c r="A10" s="4" t="s">
+        <v>164</v>
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -4097,8 +4050,8 @@
       <c r="J10" s="4"/>
     </row>
     <row r="11" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="4">
-        <v>11</v>
+      <c r="A11" s="4" t="s">
+        <v>165</v>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -4111,8 +4064,8 @@
       <c r="J11" s="4"/>
     </row>
     <row r="12" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="4">
-        <v>12</v>
+      <c r="A12" s="4" t="s">
+        <v>166</v>
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -4125,8 +4078,8 @@
       <c r="J12" s="4"/>
     </row>
     <row r="13" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="4">
-        <v>13</v>
+      <c r="A13" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -4139,8 +4092,8 @@
       <c r="J13" s="4"/>
     </row>
     <row r="14" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="4">
-        <v>14</v>
+      <c r="A14" s="4" t="s">
+        <v>168</v>
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -4152,45 +4105,13 @@
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
     </row>
-    <row r="15" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="4">
-        <v>15</v>
-      </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-    </row>
-    <row r="16" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="D1:J1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="C6" r:id="rId1"/>
-    <hyperlink ref="C7" r:id="rId2"/>
-    <hyperlink ref="C3" r:id="rId3" display="http://appgamesv.ismartgo.cn/app/zbGames"/>
-    <hyperlink ref="C8" r:id="rId4"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4198,8 +4119,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4222,15 +4143,15 @@
       <c r="C1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="23"/>
+      <c r="D1" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="24"/>
     </row>
     <row r="2" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
@@ -4246,7 +4167,7 @@
         <v>3</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="F2" s="4">
         <v>5</v>
@@ -4266,25 +4187,25 @@
     </row>
     <row r="3" spans="1:10" ht="66" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>316</v>
-      </c>
       <c r="F3" s="4" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
@@ -4292,22 +4213,22 @@
     </row>
     <row r="4" spans="1:10" ht="33" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>306</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>190</v>
-      </c>
       <c r="E4" s="4" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
@@ -4316,37 +4237,37 @@
     </row>
     <row r="5" spans="1:10" ht="82.5" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>318</v>
-      </c>
       <c r="E5" s="4" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>317</v>
+        <v>304</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>304</v>
+        <v>291</v>
       </c>
       <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -4360,7 +4281,7 @@
     </row>
     <row r="7" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -4374,7 +4295,7 @@
     </row>
     <row r="8" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -4388,7 +4309,7 @@
     </row>
     <row r="9" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -4402,7 +4323,7 @@
     </row>
     <row r="10" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -4416,7 +4337,7 @@
     </row>
     <row r="11" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -4430,7 +4351,7 @@
     </row>
     <row r="12" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -4444,7 +4365,7 @@
     </row>
     <row r="13" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -4458,7 +4379,7 @@
     </row>
     <row r="14" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -4472,7 +4393,7 @@
     </row>
     <row r="15" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -4486,7 +4407,7 @@
     </row>
     <row r="16" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -4500,7 +4421,7 @@
     </row>
     <row r="17" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -4514,7 +4435,7 @@
     </row>
     <row r="18" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -4528,7 +4449,7 @@
     </row>
     <row r="19" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -4542,7 +4463,7 @@
     </row>
     <row r="20" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -4556,7 +4477,7 @@
     </row>
     <row r="21" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -4594,9 +4515,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J5" sqref="J5"/>
+      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4619,15 +4540,15 @@
       <c r="C1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="23"/>
+      <c r="D1" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="24"/>
     </row>
     <row r="2" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
@@ -4663,22 +4584,22 @@
     </row>
     <row r="3" spans="1:10" ht="99" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
@@ -4687,22 +4608,22 @@
     </row>
     <row r="4" spans="1:10" ht="33" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
@@ -4711,22 +4632,22 @@
     </row>
     <row r="5" spans="1:10" ht="49.5" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
@@ -4735,22 +4656,22 @@
     </row>
     <row r="6" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
@@ -4759,22 +4680,22 @@
     </row>
     <row r="7" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="D7" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>247</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>255</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
@@ -4783,7 +4704,7 @@
     </row>
     <row r="8" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -4797,7 +4718,7 @@
     </row>
     <row r="9" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -4811,7 +4732,7 @@
     </row>
     <row r="10" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -4825,7 +4746,7 @@
     </row>
     <row r="11" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -4839,7 +4760,7 @@
     </row>
     <row r="12" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -4853,7 +4774,7 @@
     </row>
     <row r="13" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -4867,7 +4788,7 @@
     </row>
     <row r="14" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -4881,7 +4802,7 @@
     </row>
     <row r="15" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>

--- a/cases.xlsx
+++ b/cases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="382">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1586,6 +1586,51 @@
   </si>
   <si>
     <t>/appsv2/app/exchangeGift_v3.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数说明：
+参数值:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息中心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/appmsgsv/app/message/getMessageCenter.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、用户id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>832776</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/appmsgsv/app/message/getUserMessages.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统消息列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、用户id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>832776</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/appmsgsv/app/message/readUserMessages.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阅读消息</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2094,8 +2139,8 @@
   <dimension ref="A1:T50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C28" sqref="C28"/>
+      <pane ySplit="2" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -3404,8 +3449,8 @@
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3433,7 +3478,7 @@
         <v>4</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>26</v>
+        <v>371</v>
       </c>
       <c r="E1" s="23"/>
       <c r="F1" s="23"/>
@@ -3815,8 +3860,8 @@
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
+      <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4119,8 +4164,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4265,40 +4310,60 @@
       </c>
       <c r="J5" s="4"/>
     </row>
-    <row r="6" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" ht="33" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
+      <c r="B6" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>375</v>
+      </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
     </row>
-    <row r="7" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" ht="33" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
+      <c r="B7" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>379</v>
+      </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
     </row>
-    <row r="8" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" ht="33" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
+      <c r="B8" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>380</v>
+      </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
@@ -4515,7 +4580,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
     </sheetView>
